--- a/technical_analysis/Stock_Historical_Data.xlsx
+++ b/technical_analysis/Stock_Historical_Data.xlsx
@@ -493,7 +493,7 @@
         <v>182.0099945068359</v>
       </c>
       <c r="F2" t="n">
-        <v>179.2736053466797</v>
+        <v>179.2736206054688</v>
       </c>
       <c r="G2" t="n">
         <v>104487900</v>
@@ -539,7 +539,7 @@
         <v>174.9199981689453</v>
       </c>
       <c r="F4" t="n">
-        <v>172.2902069091797</v>
+        <v>172.2901916503906</v>
       </c>
       <c r="G4" t="n">
         <v>94537600</v>
@@ -562,7 +562,7 @@
         <v>172</v>
       </c>
       <c r="F5" t="n">
-        <v>169.4140777587891</v>
+        <v>169.4141235351562</v>
       </c>
       <c r="G5" t="n">
         <v>96904000</v>
@@ -585,7 +585,7 @@
         <v>172.1699981689453</v>
       </c>
       <c r="F6" t="n">
-        <v>169.5815734863281</v>
+        <v>169.58154296875</v>
       </c>
       <c r="G6" t="n">
         <v>86709100</v>
@@ -631,7 +631,7 @@
         <v>175.0800018310547</v>
       </c>
       <c r="F8" t="n">
-        <v>172.4477844238281</v>
+        <v>172.4478302001953</v>
       </c>
       <c r="G8" t="n">
         <v>76138300</v>
@@ -654,7 +654,7 @@
         <v>175.5299987792969</v>
       </c>
       <c r="F9" t="n">
-        <v>172.8910369873047</v>
+        <v>172.8910217285156</v>
       </c>
       <c r="G9" t="n">
         <v>74805200</v>
@@ -700,7 +700,7 @@
         <v>173.0700073242188</v>
       </c>
       <c r="F11" t="n">
-        <v>170.4680480957031</v>
+        <v>170.4680328369141</v>
       </c>
       <c r="G11" t="n">
         <v>80440800</v>
@@ -723,7 +723,7 @@
         <v>169.8000030517578</v>
       </c>
       <c r="F12" t="n">
-        <v>167.2471923828125</v>
+        <v>167.2471618652344</v>
       </c>
       <c r="G12" t="n">
         <v>90956700</v>
@@ -746,7 +746,7 @@
         <v>166.2299957275391</v>
       </c>
       <c r="F13" t="n">
-        <v>163.7308349609375</v>
+        <v>163.7308502197266</v>
       </c>
       <c r="G13" t="n">
         <v>94815000</v>
@@ -792,7 +792,7 @@
         <v>162.4100036621094</v>
       </c>
       <c r="F15" t="n">
-        <v>159.9682922363281</v>
+        <v>159.96826171875</v>
       </c>
       <c r="G15" t="n">
         <v>122848900</v>
@@ -815,7 +815,7 @@
         <v>161.6199951171875</v>
       </c>
       <c r="F16" t="n">
-        <v>159.190185546875</v>
+        <v>159.1901550292969</v>
       </c>
       <c r="G16" t="n">
         <v>162294600</v>
@@ -838,7 +838,7 @@
         <v>159.7799987792969</v>
       </c>
       <c r="F17" t="n">
-        <v>157.3778228759766</v>
+        <v>157.3778381347656</v>
       </c>
       <c r="G17" t="n">
         <v>115798400</v>
@@ -884,7 +884,7 @@
         <v>159.2200012207031</v>
       </c>
       <c r="F19" t="n">
-        <v>156.8262329101562</v>
+        <v>156.8262634277344</v>
       </c>
       <c r="G19" t="n">
         <v>121954600</v>
@@ -907,7 +907,7 @@
         <v>170.3300018310547</v>
       </c>
       <c r="F20" t="n">
-        <v>167.7692108154297</v>
+        <v>167.7691802978516</v>
       </c>
       <c r="G20" t="n">
         <v>179935700</v>
@@ -930,7 +930,7 @@
         <v>174.7799987792969</v>
       </c>
       <c r="F21" t="n">
-        <v>172.1523132324219</v>
+        <v>172.1522827148438</v>
       </c>
       <c r="G21" t="n">
         <v>115541600</v>
@@ -953,7 +953,7 @@
         <v>174.6100006103516</v>
       </c>
       <c r="F22" t="n">
-        <v>171.9848785400391</v>
+        <v>171.98486328125</v>
       </c>
       <c r="G22" t="n">
         <v>86213900</v>
@@ -976,7 +976,7 @@
         <v>175.8399963378906</v>
       </c>
       <c r="F23" t="n">
-        <v>173.1963348388672</v>
+        <v>173.1963806152344</v>
       </c>
       <c r="G23" t="n">
         <v>84914300</v>
@@ -999,7 +999,7 @@
         <v>172.8999938964844</v>
       </c>
       <c r="F24" t="n">
-        <v>170.3005523681641</v>
+        <v>170.3005676269531</v>
       </c>
       <c r="G24" t="n">
         <v>89418100</v>
@@ -1068,7 +1068,7 @@
         <v>174.8300018310547</v>
       </c>
       <c r="F27" t="n">
-        <v>172.4209747314453</v>
+        <v>172.4209594726562</v>
       </c>
       <c r="G27" t="n">
         <v>74829200</v>
@@ -1091,7 +1091,7 @@
         <v>176.2799987792969</v>
       </c>
       <c r="F28" t="n">
-        <v>173.8509674072266</v>
+        <v>173.8509521484375</v>
       </c>
       <c r="G28" t="n">
         <v>71285000</v>
@@ -1137,7 +1137,7 @@
         <v>168.6399993896484</v>
       </c>
       <c r="F30" t="n">
-        <v>166.3162689208984</v>
+        <v>166.3162536621094</v>
       </c>
       <c r="G30" t="n">
         <v>98670700</v>
@@ -1160,7 +1160,7 @@
         <v>168.8800048828125</v>
       </c>
       <c r="F31" t="n">
-        <v>166.5529327392578</v>
+        <v>166.5529479980469</v>
       </c>
       <c r="G31" t="n">
         <v>86185500</v>
@@ -1183,7 +1183,7 @@
         <v>172.7899932861328</v>
       </c>
       <c r="F32" t="n">
-        <v>170.4090576171875</v>
+        <v>170.4090270996094</v>
       </c>
       <c r="G32" t="n">
         <v>62527400</v>
@@ -1206,7 +1206,7 @@
         <v>172.5500030517578</v>
       </c>
       <c r="F33" t="n">
-        <v>170.1723785400391</v>
+        <v>170.1723480224609</v>
       </c>
       <c r="G33" t="n">
         <v>61177400</v>
@@ -1229,7 +1229,7 @@
         <v>168.8800048828125</v>
       </c>
       <c r="F34" t="n">
-        <v>166.5529327392578</v>
+        <v>166.5529479980469</v>
       </c>
       <c r="G34" t="n">
         <v>69589300</v>
@@ -1252,7 +1252,7 @@
         <v>167.3000030517578</v>
       </c>
       <c r="F35" t="n">
-        <v>164.9947052001953</v>
+        <v>164.9947204589844</v>
       </c>
       <c r="G35" t="n">
         <v>82772700</v>
@@ -1298,7 +1298,7 @@
         <v>160.0700073242188</v>
       </c>
       <c r="F37" t="n">
-        <v>157.8643493652344</v>
+        <v>157.8643798828125</v>
       </c>
       <c r="G37" t="n">
         <v>90009200</v>
@@ -1321,7 +1321,7 @@
         <v>162.7400054931641</v>
       </c>
       <c r="F38" t="n">
-        <v>160.4975738525391</v>
+        <v>160.4975433349609</v>
       </c>
       <c r="G38" t="n">
         <v>141147500</v>
@@ -1344,7 +1344,7 @@
         <v>164.8500061035156</v>
       </c>
       <c r="F39" t="n">
-        <v>162.5784912109375</v>
+        <v>162.5784606933594</v>
       </c>
       <c r="G39" t="n">
         <v>91974200</v>
@@ -1367,7 +1367,7 @@
         <v>165.1199951171875</v>
       </c>
       <c r="F40" t="n">
-        <v>162.8447418212891</v>
+        <v>162.8447570800781</v>
       </c>
       <c r="G40" t="n">
         <v>95056600</v>
@@ -1390,7 +1390,7 @@
         <v>163.1999969482422</v>
       </c>
       <c r="F41" t="n">
-        <v>160.9511871337891</v>
+        <v>160.9512023925781</v>
       </c>
       <c r="G41" t="n">
         <v>83474400</v>
@@ -1413,7 +1413,7 @@
         <v>166.5599975585938</v>
       </c>
       <c r="F42" t="n">
-        <v>164.2649230957031</v>
+        <v>164.2649078369141</v>
       </c>
       <c r="G42" t="n">
         <v>79724800</v>
@@ -1459,7 +1459,7 @@
         <v>163.1699981689453</v>
       </c>
       <c r="F44" t="n">
-        <v>160.9216156005859</v>
+        <v>160.9216003417969</v>
       </c>
       <c r="G44" t="n">
         <v>83737200</v>
@@ -1482,7 +1482,7 @@
         <v>159.3000030517578</v>
       </c>
       <c r="F45" t="n">
-        <v>157.1049652099609</v>
+        <v>157.1049346923828</v>
       </c>
       <c r="G45" t="n">
         <v>96418800</v>
@@ -1505,7 +1505,7 @@
         <v>157.4400024414062</v>
       </c>
       <c r="F46" t="n">
-        <v>155.2705688476562</v>
+        <v>155.2705993652344</v>
       </c>
       <c r="G46" t="n">
         <v>131148300</v>
@@ -1551,7 +1551,7 @@
         <v>158.5200042724609</v>
       </c>
       <c r="F48" t="n">
-        <v>156.3356781005859</v>
+        <v>156.335693359375</v>
       </c>
       <c r="G48" t="n">
         <v>105342000</v>
@@ -1574,7 +1574,7 @@
         <v>154.7299957275391</v>
       </c>
       <c r="F49" t="n">
-        <v>152.5979309082031</v>
+        <v>152.597900390625</v>
       </c>
       <c r="G49" t="n">
         <v>96970100</v>
@@ -1597,7 +1597,7 @@
         <v>150.6199951171875</v>
       </c>
       <c r="F50" t="n">
-        <v>148.5445556640625</v>
+        <v>148.5445404052734</v>
       </c>
       <c r="G50" t="n">
         <v>108732100</v>
@@ -1643,7 +1643,7 @@
         <v>159.5899963378906</v>
       </c>
       <c r="F52" t="n">
-        <v>157.3909606933594</v>
+        <v>157.3909454345703</v>
       </c>
       <c r="G52" t="n">
         <v>102300200</v>
@@ -1666,7 +1666,7 @@
         <v>160.6199951171875</v>
       </c>
       <c r="F53" t="n">
-        <v>158.4067230224609</v>
+        <v>158.4067535400391</v>
       </c>
       <c r="G53" t="n">
         <v>75615400</v>
@@ -1689,7 +1689,7 @@
         <v>163.9799957275391</v>
       </c>
       <c r="F54" t="n">
-        <v>161.7204284667969</v>
+        <v>161.720458984375</v>
       </c>
       <c r="G54" t="n">
         <v>123511700</v>
@@ -1712,7 +1712,7 @@
         <v>165.3800048828125</v>
       </c>
       <c r="F55" t="n">
-        <v>163.1011657714844</v>
+        <v>163.1011810302734</v>
       </c>
       <c r="G55" t="n">
         <v>95811400</v>
@@ -1735,7 +1735,7 @@
         <v>168.8200073242188</v>
       </c>
       <c r="F56" t="n">
-        <v>166.4937896728516</v>
+        <v>166.4937744140625</v>
       </c>
       <c r="G56" t="n">
         <v>81532000</v>
@@ -1781,7 +1781,7 @@
         <v>174.0700073242188</v>
       </c>
       <c r="F58" t="n">
-        <v>171.6714477539062</v>
+        <v>171.6714172363281</v>
       </c>
       <c r="G58" t="n">
         <v>90131400</v>
@@ -1827,7 +1827,7 @@
         <v>175.6000061035156</v>
       </c>
       <c r="F60" t="n">
-        <v>173.1803588867188</v>
+        <v>173.1803436279297</v>
       </c>
       <c r="G60" t="n">
         <v>90371900</v>
@@ -1850,7 +1850,7 @@
         <v>178.9600067138672</v>
       </c>
       <c r="F61" t="n">
-        <v>176.4940338134766</v>
+        <v>176.4940643310547</v>
       </c>
       <c r="G61" t="n">
         <v>100589400</v>
@@ -1873,7 +1873,7 @@
         <v>177.7700042724609</v>
       </c>
       <c r="F62" t="n">
-        <v>175.3204345703125</v>
+        <v>175.3204650878906</v>
       </c>
       <c r="G62" t="n">
         <v>92633200</v>
@@ -1896,7 +1896,7 @@
         <v>174.6100006103516</v>
       </c>
       <c r="F63" t="n">
-        <v>172.2039947509766</v>
+        <v>172.2039794921875</v>
       </c>
       <c r="G63" t="n">
         <v>103049300</v>
@@ -1919,7 +1919,7 @@
         <v>174.3099975585938</v>
       </c>
       <c r="F64" t="n">
-        <v>171.9081420898438</v>
+        <v>171.9081115722656</v>
       </c>
       <c r="G64" t="n">
         <v>78751300</v>
@@ -1965,7 +1965,7 @@
         <v>175.0599975585938</v>
       </c>
       <c r="F66" t="n">
-        <v>172.6477661132812</v>
+        <v>172.6477813720703</v>
       </c>
       <c r="G66" t="n">
         <v>73401800</v>
@@ -1988,7 +1988,7 @@
         <v>171.8300018310547</v>
       </c>
       <c r="F67" t="n">
-        <v>169.4622955322266</v>
+        <v>169.4622802734375</v>
       </c>
       <c r="G67" t="n">
         <v>89058800</v>
@@ -2011,7 +2011,7 @@
         <v>172.1399993896484</v>
       </c>
       <c r="F68" t="n">
-        <v>169.7680358886719</v>
+        <v>169.7680206298828</v>
       </c>
       <c r="G68" t="n">
         <v>77594700</v>
@@ -2034,7 +2034,7 @@
         <v>170.0899963378906</v>
       </c>
       <c r="F69" t="n">
-        <v>167.7462615966797</v>
+        <v>167.7462463378906</v>
       </c>
       <c r="G69" t="n">
         <v>76575500</v>
@@ -2057,7 +2057,7 @@
         <v>165.75</v>
       </c>
       <c r="F70" t="n">
-        <v>163.4660491943359</v>
+        <v>163.4660797119141</v>
       </c>
       <c r="G70" t="n">
         <v>72246700</v>
@@ -2103,7 +2103,7 @@
         <v>170.3999938964844</v>
       </c>
       <c r="F72" t="n">
-        <v>168.052001953125</v>
+        <v>168.0520172119141</v>
       </c>
       <c r="G72" t="n">
         <v>70618900</v>
@@ -2126,7 +2126,7 @@
         <v>165.2899932861328</v>
       </c>
       <c r="F73" t="n">
-        <v>163.0124206542969</v>
+        <v>163.0123748779297</v>
       </c>
       <c r="G73" t="n">
         <v>75329400</v>
@@ -2149,7 +2149,7 @@
         <v>165.0700073242188</v>
       </c>
       <c r="F74" t="n">
-        <v>162.7954406738281</v>
+        <v>162.7954254150391</v>
       </c>
       <c r="G74" t="n">
         <v>69023900</v>
@@ -2172,7 +2172,7 @@
         <v>167.3999938964844</v>
       </c>
       <c r="F75" t="n">
-        <v>165.0933074951172</v>
+        <v>165.0933227539062</v>
       </c>
       <c r="G75" t="n">
         <v>67723800</v>
@@ -2195,7 +2195,7 @@
         <v>167.2299957275391</v>
       </c>
       <c r="F76" t="n">
-        <v>164.9256439208984</v>
+        <v>164.9256896972656</v>
       </c>
       <c r="G76" t="n">
         <v>67929800</v>
@@ -2218,7 +2218,7 @@
         <v>166.4199981689453</v>
       </c>
       <c r="F77" t="n">
-        <v>164.1268310546875</v>
+        <v>164.1268463134766</v>
       </c>
       <c r="G77" t="n">
         <v>87227800</v>
@@ -2241,7 +2241,7 @@
         <v>161.7899932861328</v>
       </c>
       <c r="F78" t="n">
-        <v>159.5606536865234</v>
+        <v>159.5606079101562</v>
       </c>
       <c r="G78" t="n">
         <v>84882400</v>
@@ -2264,7 +2264,7 @@
         <v>162.8800048828125</v>
       </c>
       <c r="F79" t="n">
-        <v>160.6356048583984</v>
+        <v>160.6356353759766</v>
       </c>
       <c r="G79" t="n">
         <v>96046400</v>
@@ -2310,7 +2310,7 @@
         <v>156.5700073242188</v>
       </c>
       <c r="F81" t="n">
-        <v>154.4125823974609</v>
+        <v>154.4125671386719</v>
       </c>
       <c r="G81" t="n">
         <v>88063200</v>
@@ -2356,7 +2356,7 @@
         <v>157.6499938964844</v>
       </c>
       <c r="F83" t="n">
-        <v>155.4776611328125</v>
+        <v>155.4776763916016</v>
       </c>
       <c r="G83" t="n">
         <v>131747600</v>
@@ -2379,7 +2379,7 @@
         <v>157.9600067138672</v>
       </c>
       <c r="F84" t="n">
-        <v>155.7834167480469</v>
+        <v>155.7834320068359</v>
       </c>
       <c r="G84" t="n">
         <v>123055300</v>
@@ -2402,7 +2402,7 @@
         <v>159.4799957275391</v>
       </c>
       <c r="F85" t="n">
-        <v>157.2824401855469</v>
+        <v>157.2824859619141</v>
       </c>
       <c r="G85" t="n">
         <v>88966500</v>
@@ -2425,7 +2425,7 @@
         <v>166.0200042724609</v>
       </c>
       <c r="F86" t="n">
-        <v>163.7323455810547</v>
+        <v>163.7323608398438</v>
       </c>
       <c r="G86" t="n">
         <v>108256500</v>
@@ -2448,7 +2448,7 @@
         <v>156.7700042724609</v>
       </c>
       <c r="F87" t="n">
-        <v>154.6098175048828</v>
+        <v>154.6098327636719</v>
       </c>
       <c r="G87" t="n">
         <v>130525300</v>
@@ -2471,7 +2471,7 @@
         <v>157.2799987792969</v>
       </c>
       <c r="F88" t="n">
-        <v>155.3406982421875</v>
+        <v>155.3406829833984</v>
       </c>
       <c r="G88" t="n">
         <v>116124600</v>
@@ -2494,7 +2494,7 @@
         <v>152.0599975585938</v>
       </c>
       <c r="F89" t="n">
-        <v>150.1850280761719</v>
+        <v>150.1850128173828</v>
       </c>
       <c r="G89" t="n">
         <v>131577900</v>
@@ -2540,7 +2540,7 @@
         <v>146.5</v>
       </c>
       <c r="F91" t="n">
-        <v>144.6935882568359</v>
+        <v>144.693603515625</v>
       </c>
       <c r="G91" t="n">
         <v>142689800</v>
@@ -2563,7 +2563,7 @@
         <v>142.5599975585938</v>
       </c>
       <c r="F92" t="n">
-        <v>140.8021697998047</v>
+        <v>140.8022003173828</v>
       </c>
       <c r="G92" t="n">
         <v>182602000</v>
@@ -2609,7 +2609,7 @@
         <v>145.5399932861328</v>
       </c>
       <c r="F94" t="n">
-        <v>143.7454071044922</v>
+        <v>143.7454528808594</v>
       </c>
       <c r="G94" t="n">
         <v>86643800</v>
@@ -2632,7 +2632,7 @@
         <v>149.2400054931641</v>
       </c>
       <c r="F95" t="n">
-        <v>147.3998260498047</v>
+        <v>147.3998107910156</v>
       </c>
       <c r="G95" t="n">
         <v>78336300</v>
@@ -2655,7 +2655,7 @@
         <v>140.8200073242188</v>
       </c>
       <c r="F96" t="n">
-        <v>139.0836639404297</v>
+        <v>139.0836334228516</v>
       </c>
       <c r="G96" t="n">
         <v>109742900</v>
@@ -2701,7 +2701,7 @@
         <v>137.5899963378906</v>
       </c>
       <c r="F98" t="n">
-        <v>135.8934478759766</v>
+        <v>135.8934631347656</v>
       </c>
       <c r="G98" t="n">
         <v>137426100</v>
@@ -2747,7 +2747,7 @@
         <v>140.3600006103516</v>
       </c>
       <c r="F100" t="n">
-        <v>138.6293029785156</v>
+        <v>138.6293334960938</v>
       </c>
       <c r="G100" t="n">
         <v>104132700</v>
@@ -2793,7 +2793,7 @@
         <v>143.7799987792969</v>
       </c>
       <c r="F102" t="n">
-        <v>142.0071716308594</v>
+        <v>142.0071563720703</v>
       </c>
       <c r="G102" t="n">
         <v>90601500</v>
@@ -2862,7 +2862,7 @@
         <v>148.7100067138672</v>
       </c>
       <c r="F105" t="n">
-        <v>146.8763427734375</v>
+        <v>146.8763732910156</v>
       </c>
       <c r="G105" t="n">
         <v>74286600</v>
@@ -2885,7 +2885,7 @@
         <v>151.2100067138672</v>
       </c>
       <c r="F106" t="n">
-        <v>149.3455352783203</v>
+        <v>149.3455047607422</v>
       </c>
       <c r="G106" t="n">
         <v>72348100</v>
@@ -2931,7 +2931,7 @@
         <v>146.1399993896484</v>
       </c>
       <c r="F108" t="n">
-        <v>144.3380432128906</v>
+        <v>144.3380584716797</v>
       </c>
       <c r="G108" t="n">
         <v>71598400</v>
@@ -2954,7 +2954,7 @@
         <v>148.7100067138672</v>
       </c>
       <c r="F109" t="n">
-        <v>146.8763427734375</v>
+        <v>146.8763732910156</v>
       </c>
       <c r="G109" t="n">
         <v>67808200</v>
@@ -2977,7 +2977,7 @@
         <v>147.9600067138672</v>
       </c>
       <c r="F110" t="n">
-        <v>146.1356353759766</v>
+        <v>146.1356048583984</v>
       </c>
       <c r="G110" t="n">
         <v>53950200</v>
@@ -3000,7 +3000,7 @@
         <v>142.6399993896484</v>
       </c>
       <c r="F111" t="n">
-        <v>140.8811798095703</v>
+        <v>140.8812103271484</v>
       </c>
       <c r="G111" t="n">
         <v>69473000</v>
@@ -3023,7 +3023,7 @@
         <v>137.1300048828125</v>
       </c>
       <c r="F112" t="n">
-        <v>135.4391784667969</v>
+        <v>135.4391632080078</v>
       </c>
       <c r="G112" t="n">
         <v>91437900</v>
@@ -3046,7 +3046,7 @@
         <v>131.8800048828125</v>
       </c>
       <c r="F113" t="n">
-        <v>130.2538909912109</v>
+        <v>130.2538604736328</v>
       </c>
       <c r="G113" t="n">
         <v>122207100</v>
@@ -3115,7 +3115,7 @@
         <v>130.0599975585938</v>
       </c>
       <c r="F116" t="n">
-        <v>128.456298828125</v>
+        <v>128.4563140869141</v>
       </c>
       <c r="G116" t="n">
         <v>108123900</v>
@@ -3138,7 +3138,7 @@
         <v>131.5599975585938</v>
       </c>
       <c r="F117" t="n">
-        <v>129.9378051757812</v>
+        <v>129.9377899169922</v>
       </c>
       <c r="G117" t="n">
         <v>134520300</v>
@@ -3184,7 +3184,7 @@
         <v>135.3500061035156</v>
       </c>
       <c r="F119" t="n">
-        <v>133.6811218261719</v>
+        <v>133.6810913085938</v>
       </c>
       <c r="G119" t="n">
         <v>73409200</v>
@@ -3230,7 +3230,7 @@
         <v>141.6600036621094</v>
       </c>
       <c r="F121" t="n">
-        <v>139.9132690429688</v>
+        <v>139.9132843017578</v>
       </c>
       <c r="G121" t="n">
         <v>89116800</v>
@@ -3253,7 +3253,7 @@
         <v>141.6600036621094</v>
       </c>
       <c r="F122" t="n">
-        <v>139.9132690429688</v>
+        <v>139.9132843017578</v>
       </c>
       <c r="G122" t="n">
         <v>70207900</v>
@@ -3276,7 +3276,7 @@
         <v>137.4400024414062</v>
       </c>
       <c r="F123" t="n">
-        <v>135.7453002929688</v>
+        <v>135.7453308105469</v>
       </c>
       <c r="G123" t="n">
         <v>67083400</v>
@@ -3299,7 +3299,7 @@
         <v>139.2299957275391</v>
       </c>
       <c r="F124" t="n">
-        <v>137.5132293701172</v>
+        <v>137.5132598876953</v>
       </c>
       <c r="G124" t="n">
         <v>66242400</v>
@@ -3322,7 +3322,7 @@
         <v>136.7200012207031</v>
       </c>
       <c r="F125" t="n">
-        <v>135.0341949462891</v>
+        <v>135.0342102050781</v>
       </c>
       <c r="G125" t="n">
         <v>98964500</v>
@@ -3345,7 +3345,7 @@
         <v>138.9299926757812</v>
       </c>
       <c r="F126" t="n">
-        <v>137.2169647216797</v>
+        <v>137.2169342041016</v>
       </c>
       <c r="G126" t="n">
         <v>71051600</v>
@@ -3437,7 +3437,7 @@
         <v>147.0399932861328</v>
       </c>
       <c r="F130" t="n">
-        <v>145.2269439697266</v>
+        <v>145.2269287109375</v>
       </c>
       <c r="G130" t="n">
         <v>64547800</v>
@@ -3529,7 +3529,7 @@
         <v>148.4700012207031</v>
       </c>
       <c r="F134" t="n">
-        <v>146.6393127441406</v>
+        <v>146.6392974853516</v>
       </c>
       <c r="G134" t="n">
         <v>78140700</v>
@@ -3552,7 +3552,7 @@
         <v>150.1699981689453</v>
       </c>
       <c r="F135" t="n">
-        <v>148.318359375</v>
+        <v>148.3183441162109</v>
       </c>
       <c r="G135" t="n">
         <v>76259900</v>
@@ -3575,7 +3575,7 @@
         <v>147.0700073242188</v>
       </c>
       <c r="F136" t="n">
-        <v>145.256591796875</v>
+        <v>145.2566070556641</v>
       </c>
       <c r="G136" t="n">
         <v>81420900</v>
@@ -3598,7 +3598,7 @@
         <v>151</v>
       </c>
       <c r="F137" t="n">
-        <v>149.1381072998047</v>
+        <v>149.1381225585938</v>
       </c>
       <c r="G137" t="n">
         <v>82982400</v>
@@ -3621,7 +3621,7 @@
         <v>153.0399932861328</v>
       </c>
       <c r="F138" t="n">
-        <v>151.1529388427734</v>
+        <v>151.1529693603516</v>
       </c>
       <c r="G138" t="n">
         <v>64823400</v>
@@ -3667,7 +3667,7 @@
         <v>154.0899963378906</v>
       </c>
       <c r="F140" t="n">
-        <v>152.1900177001953</v>
+        <v>152.1899871826172</v>
       </c>
       <c r="G140" t="n">
         <v>66675400</v>
@@ -3690,7 +3690,7 @@
         <v>152.9499969482422</v>
       </c>
       <c r="F141" t="n">
-        <v>151.0640563964844</v>
+        <v>151.0640869140625</v>
       </c>
       <c r="G141" t="n">
         <v>53623900</v>
@@ -3713,7 +3713,7 @@
         <v>151.6000061035156</v>
       </c>
       <c r="F142" t="n">
-        <v>149.7307434082031</v>
+        <v>149.7307281494141</v>
       </c>
       <c r="G142" t="n">
         <v>55138700</v>
@@ -3736,7 +3736,7 @@
         <v>156.7899932861328</v>
       </c>
       <c r="F143" t="n">
-        <v>154.8567199707031</v>
+        <v>154.8567352294922</v>
       </c>
       <c r="G143" t="n">
         <v>78620700</v>
@@ -3782,7 +3782,7 @@
         <v>162.5099945068359</v>
       </c>
       <c r="F145" t="n">
-        <v>160.5061950683594</v>
+        <v>160.5061798095703</v>
       </c>
       <c r="G145" t="n">
         <v>101786900</v>
@@ -3805,7 +3805,7 @@
         <v>161.5099945068359</v>
       </c>
       <c r="F146" t="n">
-        <v>159.5185546875</v>
+        <v>159.5185241699219</v>
       </c>
       <c r="G146" t="n">
         <v>67829400</v>
@@ -3828,7 +3828,7 @@
         <v>160.0099945068359</v>
       </c>
       <c r="F147" t="n">
-        <v>158.0370025634766</v>
+        <v>158.0370178222656</v>
       </c>
       <c r="G147" t="n">
         <v>59907000</v>
@@ -3851,7 +3851,7 @@
         <v>166.1300048828125</v>
       </c>
       <c r="F148" t="n">
-        <v>164.0815582275391</v>
+        <v>164.0815734863281</v>
       </c>
       <c r="G148" t="n">
         <v>82507500</v>
@@ -3874,7 +3874,7 @@
         <v>165.8099975585938</v>
       </c>
       <c r="F149" t="n">
-        <v>163.7654724121094</v>
+        <v>163.7655029296875</v>
       </c>
       <c r="G149" t="n">
         <v>55474100</v>
@@ -3897,7 +3897,7 @@
         <v>165.3500061035156</v>
       </c>
       <c r="F150" t="n">
-        <v>163.5380401611328</v>
+        <v>163.5380249023438</v>
       </c>
       <c r="G150" t="n">
         <v>56697000</v>
@@ -3943,7 +3943,7 @@
         <v>164.9199981689453</v>
       </c>
       <c r="F152" t="n">
-        <v>163.1127166748047</v>
+        <v>163.1127471923828</v>
       </c>
       <c r="G152" t="n">
         <v>63135500</v>
@@ -3966,7 +3966,7 @@
         <v>169.2400054931641</v>
       </c>
       <c r="F153" t="n">
-        <v>167.3854064941406</v>
+        <v>167.3854370117188</v>
       </c>
       <c r="G153" t="n">
         <v>70170500</v>
@@ -3989,7 +3989,7 @@
         <v>168.4900054931641</v>
       </c>
       <c r="F154" t="n">
-        <v>166.6436157226562</v>
+        <v>166.6436309814453</v>
       </c>
       <c r="G154" t="n">
         <v>57149200</v>
@@ -4012,7 +4012,7 @@
         <v>172.1000061035156</v>
       </c>
       <c r="F155" t="n">
-        <v>170.2140655517578</v>
+        <v>170.2140502929688</v>
       </c>
       <c r="G155" t="n">
         <v>68039400</v>
@@ -4035,7 +4035,7 @@
         <v>173.1900024414062</v>
       </c>
       <c r="F156" t="n">
-        <v>171.2920837402344</v>
+        <v>171.2921295166016</v>
       </c>
       <c r="G156" t="n">
         <v>54091700</v>
@@ -4081,7 +4081,7 @@
         <v>174.5500030517578</v>
       </c>
       <c r="F158" t="n">
-        <v>172.6372222900391</v>
+        <v>172.6371917724609</v>
       </c>
       <c r="G158" t="n">
         <v>79542000</v>
@@ -4127,7 +4127,7 @@
         <v>171.5200042724609</v>
       </c>
       <c r="F160" t="n">
-        <v>169.6404113769531</v>
+        <v>169.6404266357422</v>
       </c>
       <c r="G160" t="n">
         <v>70346300</v>
@@ -4150,7 +4150,7 @@
         <v>167.5700073242188</v>
       </c>
       <c r="F161" t="n">
-        <v>165.7336883544922</v>
+        <v>165.7337036132812</v>
       </c>
       <c r="G161" t="n">
         <v>69026800</v>
@@ -4173,7 +4173,7 @@
         <v>167.2299957275391</v>
       </c>
       <c r="F162" t="n">
-        <v>165.3974304199219</v>
+        <v>165.3974151611328</v>
       </c>
       <c r="G162" t="n">
         <v>54147100</v>
@@ -4219,7 +4219,7 @@
         <v>170.0299987792969</v>
       </c>
       <c r="F164" t="n">
-        <v>168.1667327880859</v>
+        <v>168.166748046875</v>
       </c>
       <c r="G164" t="n">
         <v>51218200</v>
@@ -4311,7 +4311,7 @@
         <v>157.2200012207031</v>
       </c>
       <c r="F168" t="n">
-        <v>155.4971313476562</v>
+        <v>155.4971008300781</v>
       </c>
       <c r="G168" t="n">
         <v>87991100</v>
@@ -4334,7 +4334,7 @@
         <v>157.9600067138672</v>
       </c>
       <c r="F169" t="n">
-        <v>156.22900390625</v>
+        <v>156.2290191650391</v>
       </c>
       <c r="G169" t="n">
         <v>74229900</v>
@@ -4357,7 +4357,7 @@
         <v>155.8099975585938</v>
       </c>
       <c r="F170" t="n">
-        <v>154.1025695800781</v>
+        <v>154.1025390625</v>
       </c>
       <c r="G170" t="n">
         <v>76957800</v>
@@ -4380,7 +4380,7 @@
         <v>154.5299987792969</v>
       </c>
       <c r="F171" t="n">
-        <v>152.8365631103516</v>
+        <v>152.8365783691406</v>
       </c>
       <c r="G171" t="n">
         <v>73714800</v>
@@ -4403,7 +4403,7 @@
         <v>155.9600067138672</v>
       </c>
       <c r="F172" t="n">
-        <v>154.2509307861328</v>
+        <v>154.2509460449219</v>
       </c>
       <c r="G172" t="n">
         <v>87449600</v>
@@ -4472,7 +4472,7 @@
         <v>163.4299926757812</v>
       </c>
       <c r="F175" t="n">
-        <v>161.6390533447266</v>
+        <v>161.6390686035156</v>
       </c>
       <c r="G175" t="n">
         <v>104956000</v>
@@ -4495,7 +4495,7 @@
         <v>153.8399963378906</v>
       </c>
       <c r="F176" t="n">
-        <v>152.1541595458984</v>
+        <v>152.1541442871094</v>
       </c>
       <c r="G176" t="n">
         <v>122656600</v>
@@ -4541,7 +4541,7 @@
         <v>152.3699951171875</v>
       </c>
       <c r="F178" t="n">
-        <v>150.7002716064453</v>
+        <v>150.7002410888672</v>
       </c>
       <c r="G178" t="n">
         <v>90481100</v>
@@ -4587,7 +4587,7 @@
         <v>154.4799957275391</v>
       </c>
       <c r="F180" t="n">
-        <v>152.7871398925781</v>
+        <v>152.7871246337891</v>
       </c>
       <c r="G180" t="n">
         <v>81474200</v>
@@ -4633,7 +4633,7 @@
         <v>153.7200012207031</v>
       </c>
       <c r="F182" t="n">
-        <v>152.0354766845703</v>
+        <v>152.0354614257812</v>
       </c>
       <c r="G182" t="n">
         <v>101696800</v>
@@ -4679,7 +4679,7 @@
         <v>150.4299926757812</v>
       </c>
       <c r="F184" t="n">
-        <v>148.7815246582031</v>
+        <v>148.7815399169922</v>
       </c>
       <c r="G184" t="n">
         <v>96029900</v>
@@ -4748,7 +4748,7 @@
         <v>149.8399963378906</v>
       </c>
       <c r="F187" t="n">
-        <v>148.197998046875</v>
+        <v>148.1979675292969</v>
       </c>
       <c r="G187" t="n">
         <v>146691400</v>
@@ -4794,7 +4794,7 @@
         <v>138.1999969482422</v>
       </c>
       <c r="F189" t="n">
-        <v>136.685546875</v>
+        <v>136.6855316162109</v>
       </c>
       <c r="G189" t="n">
         <v>124925300</v>
@@ -4886,7 +4886,7 @@
         <v>145.4299926757812</v>
       </c>
       <c r="F193" t="n">
-        <v>143.8363037109375</v>
+        <v>143.8363189697266</v>
       </c>
       <c r="G193" t="n">
         <v>68402200</v>
@@ -4909,7 +4909,7 @@
         <v>140.0899963378906</v>
       </c>
       <c r="F194" t="n">
-        <v>138.5548248291016</v>
+        <v>138.5548553466797</v>
       </c>
       <c r="G194" t="n">
         <v>85925600</v>
@@ -4932,7 +4932,7 @@
         <v>140.4199981689453</v>
       </c>
       <c r="F195" t="n">
-        <v>138.8812255859375</v>
+        <v>138.8811950683594</v>
       </c>
       <c r="G195" t="n">
         <v>74899000</v>
@@ -4955,7 +4955,7 @@
         <v>138.9799957275391</v>
       </c>
       <c r="F196" t="n">
-        <v>137.4569854736328</v>
+        <v>137.4570007324219</v>
       </c>
       <c r="G196" t="n">
         <v>77033700</v>
@@ -4978,7 +4978,7 @@
         <v>138.3399963378906</v>
       </c>
       <c r="F197" t="n">
-        <v>136.8240051269531</v>
+        <v>136.8240203857422</v>
       </c>
       <c r="G197" t="n">
         <v>70433700</v>
@@ -5001,7 +5001,7 @@
         <v>142.9900054931641</v>
       </c>
       <c r="F198" t="n">
-        <v>141.4230346679688</v>
+        <v>141.4230804443359</v>
       </c>
       <c r="G198" t="n">
         <v>113224000</v>
@@ -5047,7 +5047,7 @@
         <v>142.4100036621094</v>
       </c>
       <c r="F200" t="n">
-        <v>140.8494110107422</v>
+        <v>140.8494262695312</v>
       </c>
       <c r="G200" t="n">
         <v>85250900</v>
@@ -5070,7 +5070,7 @@
         <v>143.75</v>
       </c>
       <c r="F201" t="n">
-        <v>142.1747131347656</v>
+        <v>142.1747436523438</v>
       </c>
       <c r="G201" t="n">
         <v>99136600</v>
@@ -5116,7 +5116,7 @@
         <v>143.3899993896484</v>
       </c>
       <c r="F203" t="n">
-        <v>141.8186645507812</v>
+        <v>141.8186798095703</v>
       </c>
       <c r="G203" t="n">
         <v>64522000</v>
@@ -5139,7 +5139,7 @@
         <v>147.2700042724609</v>
       </c>
       <c r="F204" t="n">
-        <v>145.6561737060547</v>
+        <v>145.6561431884766</v>
       </c>
       <c r="G204" t="n">
         <v>86548600</v>
@@ -5162,7 +5162,7 @@
         <v>149.4499969482422</v>
       </c>
       <c r="F205" t="n">
-        <v>147.8122711181641</v>
+        <v>147.812255859375</v>
       </c>
       <c r="G205" t="n">
         <v>75981900</v>
@@ -5185,7 +5185,7 @@
         <v>152.3399963378906</v>
       </c>
       <c r="F206" t="n">
-        <v>150.6706085205078</v>
+        <v>150.6705932617188</v>
       </c>
       <c r="G206" t="n">
         <v>74732300</v>
@@ -5208,7 +5208,7 @@
         <v>149.3500061035156</v>
       </c>
       <c r="F207" t="n">
-        <v>147.7133636474609</v>
+        <v>147.7133483886719</v>
       </c>
       <c r="G207" t="n">
         <v>88194300</v>
@@ -5231,7 +5231,7 @@
         <v>144.8000030517578</v>
       </c>
       <c r="F208" t="n">
-        <v>143.2132263183594</v>
+        <v>143.2132110595703</v>
       </c>
       <c r="G208" t="n">
         <v>109180200</v>
@@ -5254,7 +5254,7 @@
         <v>155.7400054931641</v>
       </c>
       <c r="F209" t="n">
-        <v>154.0333404541016</v>
+        <v>154.0333557128906</v>
       </c>
       <c r="G209" t="n">
         <v>164762400</v>
@@ -5277,7 +5277,7 @@
         <v>153.3399963378906</v>
       </c>
       <c r="F210" t="n">
-        <v>151.6596374511719</v>
+        <v>151.6596527099609</v>
       </c>
       <c r="G210" t="n">
         <v>97943200</v>
@@ -5300,7 +5300,7 @@
         <v>150.6499938964844</v>
       </c>
       <c r="F211" t="n">
-        <v>148.9991149902344</v>
+        <v>148.9990997314453</v>
       </c>
       <c r="G211" t="n">
         <v>80379300</v>
@@ -5323,7 +5323,7 @@
         <v>145.0299987792969</v>
       </c>
       <c r="F212" t="n">
-        <v>143.4406890869141</v>
+        <v>143.4407043457031</v>
       </c>
       <c r="G212" t="n">
         <v>93604600</v>
@@ -5346,7 +5346,7 @@
         <v>138.8800048828125</v>
       </c>
       <c r="F213" t="n">
-        <v>137.3581085205078</v>
+        <v>137.3580932617188</v>
       </c>
       <c r="G213" t="n">
         <v>97918500</v>
@@ -5392,7 +5392,7 @@
         <v>138.9199981689453</v>
       </c>
       <c r="F215" t="n">
-        <v>137.6255645751953</v>
+        <v>137.6255798339844</v>
       </c>
       <c r="G215" t="n">
         <v>83374600</v>
@@ -5438,7 +5438,7 @@
         <v>134.8699951171875</v>
       </c>
       <c r="F217" t="n">
-        <v>133.6132965087891</v>
+        <v>133.6133117675781</v>
       </c>
       <c r="G217" t="n">
         <v>74917800</v>
@@ -5461,7 +5461,7 @@
         <v>146.8699951171875</v>
       </c>
       <c r="F218" t="n">
-        <v>145.5014953613281</v>
+        <v>145.5015106201172</v>
       </c>
       <c r="G218" t="n">
         <v>118854000</v>
@@ -5530,7 +5530,7 @@
         <v>150.0399932861328</v>
       </c>
       <c r="F221" t="n">
-        <v>148.6419677734375</v>
+        <v>148.6419525146484</v>
       </c>
       <c r="G221" t="n">
         <v>89868300</v>
@@ -5553,7 +5553,7 @@
         <v>148.7899932861328</v>
       </c>
       <c r="F222" t="n">
-        <v>147.4035797119141</v>
+        <v>147.4035949707031</v>
       </c>
       <c r="G222" t="n">
         <v>64218300</v>
@@ -5576,7 +5576,7 @@
         <v>150.7200012207031</v>
       </c>
       <c r="F223" t="n">
-        <v>149.3156127929688</v>
+        <v>149.3156433105469</v>
       </c>
       <c r="G223" t="n">
         <v>80389400</v>
@@ -5645,7 +5645,7 @@
         <v>150.1799926757812</v>
       </c>
       <c r="F226" t="n">
-        <v>148.7806549072266</v>
+        <v>148.7806701660156</v>
       </c>
       <c r="G226" t="n">
         <v>51804100</v>
@@ -5668,7 +5668,7 @@
         <v>151.0700073242188</v>
       </c>
       <c r="F227" t="n">
-        <v>149.6623687744141</v>
+        <v>149.6623840332031</v>
       </c>
       <c r="G227" t="n">
         <v>58301400</v>
@@ -5691,7 +5691,7 @@
         <v>148.1100006103516</v>
       </c>
       <c r="F228" t="n">
-        <v>146.7299652099609</v>
+        <v>146.7299194335938</v>
       </c>
       <c r="G228" t="n">
         <v>35195900</v>
@@ -5760,7 +5760,7 @@
         <v>148.0299987792969</v>
       </c>
       <c r="F231" t="n">
-        <v>146.6506805419922</v>
+        <v>146.6506652832031</v>
       </c>
       <c r="G231" t="n">
         <v>111380900</v>
@@ -5806,7 +5806,7 @@
         <v>147.8099975585938</v>
       </c>
       <c r="F233" t="n">
-        <v>146.4327545166016</v>
+        <v>146.4327392578125</v>
       </c>
       <c r="G233" t="n">
         <v>65447400</v>
@@ -5829,7 +5829,7 @@
         <v>146.6300048828125</v>
       </c>
       <c r="F234" t="n">
-        <v>145.2637634277344</v>
+        <v>145.2637481689453</v>
       </c>
       <c r="G234" t="n">
         <v>68826400</v>
@@ -5852,7 +5852,7 @@
         <v>142.9100036621094</v>
       </c>
       <c r="F235" t="n">
-        <v>141.578369140625</v>
+        <v>141.5783996582031</v>
       </c>
       <c r="G235" t="n">
         <v>64727200</v>
@@ -5875,7 +5875,7 @@
         <v>140.9400024414062</v>
       </c>
       <c r="F236" t="n">
-        <v>139.6267700195312</v>
+        <v>139.6267547607422</v>
       </c>
       <c r="G236" t="n">
         <v>69721100</v>
@@ -5898,7 +5898,7 @@
         <v>142.6499938964844</v>
       </c>
       <c r="F237" t="n">
-        <v>141.3208312988281</v>
+        <v>141.3208160400391</v>
       </c>
       <c r="G237" t="n">
         <v>62128300</v>
@@ -5921,7 +5921,7 @@
         <v>142.1600036621094</v>
       </c>
       <c r="F238" t="n">
-        <v>140.8354034423828</v>
+        <v>140.8354187011719</v>
       </c>
       <c r="G238" t="n">
         <v>76097000</v>
@@ -5990,7 +5990,7 @@
         <v>143.2100067138672</v>
       </c>
       <c r="F241" t="n">
-        <v>141.8756103515625</v>
+        <v>141.8756256103516</v>
       </c>
       <c r="G241" t="n">
         <v>82291200</v>
@@ -6013,7 +6013,7 @@
         <v>136.5</v>
       </c>
       <c r="F242" t="n">
-        <v>135.2281494140625</v>
+        <v>135.2281341552734</v>
       </c>
       <c r="G242" t="n">
         <v>98931900</v>
@@ -6059,7 +6059,7 @@
         <v>132.3699951171875</v>
       </c>
       <c r="F244" t="n">
-        <v>131.1366119384766</v>
+        <v>131.1365966796875</v>
       </c>
       <c r="G244" t="n">
         <v>79592600</v>
@@ -6105,7 +6105,7 @@
         <v>135.4499969482422</v>
       </c>
       <c r="F246" t="n">
-        <v>134.1879119873047</v>
+        <v>134.1878967285156</v>
       </c>
       <c r="G246" t="n">
         <v>85928000</v>
@@ -6128,7 +6128,7 @@
         <v>132.2299957275391</v>
       </c>
       <c r="F247" t="n">
-        <v>130.9978942871094</v>
+        <v>130.9979248046875</v>
       </c>
       <c r="G247" t="n">
         <v>77852100</v>
@@ -6174,7 +6174,7 @@
         <v>130.0299987792969</v>
       </c>
       <c r="F249" t="n">
-        <v>128.8184204101562</v>
+        <v>128.8184051513672</v>
       </c>
       <c r="G249" t="n">
         <v>69007800</v>
@@ -6197,7 +6197,7 @@
         <v>126.0400009155273</v>
       </c>
       <c r="F250" t="n">
-        <v>124.8655853271484</v>
+        <v>124.865592956543</v>
       </c>
       <c r="G250" t="n">
         <v>85438400</v>
@@ -6220,7 +6220,7 @@
         <v>129.6100006103516</v>
       </c>
       <c r="F251" t="n">
-        <v>128.4023284912109</v>
+        <v>128.40234375</v>
       </c>
       <c r="G251" t="n">
         <v>75703700</v>

--- a/technical_analysis/Stock_Historical_Data.xlsx
+++ b/technical_analysis/Stock_Historical_Data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,5775 +478,5752 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44564</v>
+        <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>177.8300018310547</v>
+        <v>130.2799987792969</v>
       </c>
       <c r="C2" t="n">
-        <v>182.8800048828125</v>
+        <v>130.8999938964844</v>
       </c>
       <c r="D2" t="n">
-        <v>177.7100067138672</v>
+        <v>124.1699981689453</v>
       </c>
       <c r="E2" t="n">
-        <v>182.0099945068359</v>
+        <v>125.0699996948242</v>
       </c>
       <c r="F2" t="n">
-        <v>179.2736206054688</v>
+        <v>123.9046249389648</v>
       </c>
       <c r="G2" t="n">
-        <v>104487900</v>
+        <v>112117500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44565</v>
+        <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>182.6300048828125</v>
+        <v>126.8899993896484</v>
       </c>
       <c r="C3" t="n">
-        <v>182.9400024414062</v>
+        <v>128.6600036621094</v>
       </c>
       <c r="D3" t="n">
-        <v>179.1199951171875</v>
+        <v>125.0800018310547</v>
       </c>
       <c r="E3" t="n">
-        <v>179.6999969482422</v>
+        <v>126.3600006103516</v>
       </c>
       <c r="F3" t="n">
-        <v>176.9983215332031</v>
+        <v>125.1826095581055</v>
       </c>
       <c r="G3" t="n">
-        <v>99310400</v>
+        <v>89113600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44566</v>
+        <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>179.6100006103516</v>
+        <v>127.129997253418</v>
       </c>
       <c r="C4" t="n">
-        <v>180.1699981689453</v>
+        <v>127.7699966430664</v>
       </c>
       <c r="D4" t="n">
-        <v>174.6399993896484</v>
+        <v>124.7600021362305</v>
       </c>
       <c r="E4" t="n">
-        <v>174.9199981689453</v>
+        <v>125.0199966430664</v>
       </c>
       <c r="F4" t="n">
-        <v>172.2901916503906</v>
+        <v>123.855094909668</v>
       </c>
       <c r="G4" t="n">
-        <v>94537600</v>
+        <v>80962700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44567</v>
+        <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>172.6999969482422</v>
+        <v>126.0100021362305</v>
       </c>
       <c r="C5" t="n">
-        <v>175.3000030517578</v>
+        <v>130.2899932861328</v>
       </c>
       <c r="D5" t="n">
-        <v>171.6399993896484</v>
+        <v>124.8899993896484</v>
       </c>
       <c r="E5" t="n">
-        <v>172</v>
+        <v>129.6199951171875</v>
       </c>
       <c r="F5" t="n">
-        <v>169.4141235351562</v>
+        <v>128.4122161865234</v>
       </c>
       <c r="G5" t="n">
-        <v>96904000</v>
+        <v>87754700</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44568</v>
+        <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>172.8899993896484</v>
+        <v>130.4700012207031</v>
       </c>
       <c r="C6" t="n">
-        <v>174.1399993896484</v>
+        <v>133.4100036621094</v>
       </c>
       <c r="D6" t="n">
-        <v>171.0299987792969</v>
+        <v>129.8899993896484</v>
       </c>
       <c r="E6" t="n">
-        <v>172.1699981689453</v>
+        <v>130.1499938964844</v>
       </c>
       <c r="F6" t="n">
-        <v>169.58154296875</v>
+        <v>128.9373016357422</v>
       </c>
       <c r="G6" t="n">
-        <v>86709100</v>
+        <v>70790800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44571</v>
+        <v>44936</v>
       </c>
       <c r="B7" t="n">
-        <v>169.0800018310547</v>
+        <v>130.2599945068359</v>
       </c>
       <c r="C7" t="n">
-        <v>172.5</v>
+        <v>131.2599945068359</v>
       </c>
       <c r="D7" t="n">
-        <v>168.1699981689453</v>
+        <v>128.1199951171875</v>
       </c>
       <c r="E7" t="n">
-        <v>172.1900024414062</v>
+        <v>130.7299957275391</v>
       </c>
       <c r="F7" t="n">
-        <v>169.6012573242188</v>
+        <v>129.5118865966797</v>
       </c>
       <c r="G7" t="n">
-        <v>106765600</v>
+        <v>63896200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44572</v>
+        <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>172.3200073242188</v>
+        <v>131.25</v>
       </c>
       <c r="C8" t="n">
-        <v>175.1799926757812</v>
+        <v>133.5099945068359</v>
       </c>
       <c r="D8" t="n">
-        <v>170.8200073242188</v>
+        <v>130.4600067138672</v>
       </c>
       <c r="E8" t="n">
-        <v>175.0800018310547</v>
+        <v>133.4900054931641</v>
       </c>
       <c r="F8" t="n">
-        <v>172.4478302001953</v>
+        <v>132.2461853027344</v>
       </c>
       <c r="G8" t="n">
-        <v>76138300</v>
+        <v>69458900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44573</v>
+        <v>44938</v>
       </c>
       <c r="B9" t="n">
-        <v>176.1199951171875</v>
+        <v>133.8800048828125</v>
       </c>
       <c r="C9" t="n">
-        <v>177.1799926757812</v>
+        <v>134.2599945068359</v>
       </c>
       <c r="D9" t="n">
-        <v>174.8200073242188</v>
+        <v>131.4400024414062</v>
       </c>
       <c r="E9" t="n">
-        <v>175.5299987792969</v>
+        <v>133.4100036621094</v>
       </c>
       <c r="F9" t="n">
-        <v>172.8910217285156</v>
+        <v>132.1669311523438</v>
       </c>
       <c r="G9" t="n">
-        <v>74805200</v>
+        <v>71379600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44574</v>
+        <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>175.7799987792969</v>
+        <v>132.0299987792969</v>
       </c>
       <c r="C10" t="n">
-        <v>176.6199951171875</v>
+        <v>134.9199981689453</v>
       </c>
       <c r="D10" t="n">
-        <v>171.7899932861328</v>
+        <v>131.6600036621094</v>
       </c>
       <c r="E10" t="n">
-        <v>172.1900024414062</v>
+        <v>134.7599945068359</v>
       </c>
       <c r="F10" t="n">
-        <v>169.6012573242188</v>
+        <v>133.5043334960938</v>
       </c>
       <c r="G10" t="n">
-        <v>84505800</v>
+        <v>57809700</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44575</v>
+        <v>44943</v>
       </c>
       <c r="B11" t="n">
-        <v>171.3399963378906</v>
+        <v>134.8300018310547</v>
       </c>
       <c r="C11" t="n">
-        <v>173.7799987792969</v>
+        <v>137.2899932861328</v>
       </c>
       <c r="D11" t="n">
-        <v>171.0899963378906</v>
+        <v>134.1300048828125</v>
       </c>
       <c r="E11" t="n">
-        <v>173.0700073242188</v>
+        <v>135.9400024414062</v>
       </c>
       <c r="F11" t="n">
-        <v>170.4680328369141</v>
+        <v>134.6733551025391</v>
       </c>
       <c r="G11" t="n">
-        <v>80440800</v>
+        <v>63646600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44579</v>
+        <v>44944</v>
       </c>
       <c r="B12" t="n">
-        <v>171.5099945068359</v>
+        <v>136.8200073242188</v>
       </c>
       <c r="C12" t="n">
-        <v>172.5399932861328</v>
+        <v>138.6100006103516</v>
       </c>
       <c r="D12" t="n">
-        <v>169.4100036621094</v>
+        <v>135.0299987792969</v>
       </c>
       <c r="E12" t="n">
-        <v>169.8000030517578</v>
+        <v>135.2100067138672</v>
       </c>
       <c r="F12" t="n">
-        <v>167.2471618652344</v>
+        <v>133.9501342773438</v>
       </c>
       <c r="G12" t="n">
-        <v>90956700</v>
+        <v>69672800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44580</v>
+        <v>44945</v>
       </c>
       <c r="B13" t="n">
-        <v>170</v>
+        <v>134.0800018310547</v>
       </c>
       <c r="C13" t="n">
-        <v>171.0800018310547</v>
+        <v>136.25</v>
       </c>
       <c r="D13" t="n">
-        <v>165.9400024414062</v>
+        <v>133.7700042724609</v>
       </c>
       <c r="E13" t="n">
-        <v>166.2299957275391</v>
+        <v>135.2700042724609</v>
       </c>
       <c r="F13" t="n">
-        <v>163.7308502197266</v>
+        <v>134.0095825195312</v>
       </c>
       <c r="G13" t="n">
-        <v>94815000</v>
+        <v>58280400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44581</v>
+        <v>44946</v>
       </c>
       <c r="B14" t="n">
-        <v>166.9799957275391</v>
+        <v>135.2799987792969</v>
       </c>
       <c r="C14" t="n">
-        <v>169.6799926757812</v>
+        <v>138.0200042724609</v>
       </c>
       <c r="D14" t="n">
-        <v>164.1799926757812</v>
+        <v>134.2200012207031</v>
       </c>
       <c r="E14" t="n">
-        <v>164.5099945068359</v>
+        <v>137.8699951171875</v>
       </c>
       <c r="F14" t="n">
-        <v>162.0366973876953</v>
+        <v>136.5853424072266</v>
       </c>
       <c r="G14" t="n">
-        <v>91420500</v>
+        <v>80223600</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44582</v>
+        <v>44949</v>
       </c>
       <c r="B15" t="n">
-        <v>164.4199981689453</v>
+        <v>138.1199951171875</v>
       </c>
       <c r="C15" t="n">
-        <v>166.3300018310547</v>
+        <v>143.3200073242188</v>
       </c>
       <c r="D15" t="n">
-        <v>162.3000030517578</v>
+        <v>137.8999938964844</v>
       </c>
       <c r="E15" t="n">
-        <v>162.4100036621094</v>
+        <v>141.1100006103516</v>
       </c>
       <c r="F15" t="n">
-        <v>159.96826171875</v>
+        <v>139.7951965332031</v>
       </c>
       <c r="G15" t="n">
-        <v>122848900</v>
+        <v>81760300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44585</v>
+        <v>44950</v>
       </c>
       <c r="B16" t="n">
-        <v>160.0200042724609</v>
+        <v>140.3099975585938</v>
       </c>
       <c r="C16" t="n">
-        <v>162.3000030517578</v>
+        <v>143.1600036621094</v>
       </c>
       <c r="D16" t="n">
-        <v>154.6999969482422</v>
+        <v>140.3000030517578</v>
       </c>
       <c r="E16" t="n">
-        <v>161.6199951171875</v>
+        <v>142.5299987792969</v>
       </c>
       <c r="F16" t="n">
-        <v>159.1901550292969</v>
+        <v>141.2019348144531</v>
       </c>
       <c r="G16" t="n">
-        <v>162294600</v>
+        <v>66435100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44586</v>
+        <v>44951</v>
       </c>
       <c r="B17" t="n">
-        <v>158.9799957275391</v>
+        <v>140.8899993896484</v>
       </c>
       <c r="C17" t="n">
-        <v>162.7599945068359</v>
+        <v>142.4299926757812</v>
       </c>
       <c r="D17" t="n">
-        <v>157.0200042724609</v>
+        <v>138.8099975585938</v>
       </c>
       <c r="E17" t="n">
-        <v>159.7799987792969</v>
+        <v>141.8600006103516</v>
       </c>
       <c r="F17" t="n">
-        <v>157.3778381347656</v>
+        <v>140.5381927490234</v>
       </c>
       <c r="G17" t="n">
-        <v>115798400</v>
+        <v>65799300</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44587</v>
+        <v>44952</v>
       </c>
       <c r="B18" t="n">
-        <v>163.5</v>
+        <v>143.1699981689453</v>
       </c>
       <c r="C18" t="n">
-        <v>164.3899993896484</v>
+        <v>144.25</v>
       </c>
       <c r="D18" t="n">
-        <v>157.8200073242188</v>
+        <v>141.8999938964844</v>
       </c>
       <c r="E18" t="n">
-        <v>159.6900024414062</v>
+        <v>143.9600067138672</v>
       </c>
       <c r="F18" t="n">
-        <v>157.2891693115234</v>
+        <v>142.6186370849609</v>
       </c>
       <c r="G18" t="n">
-        <v>108275300</v>
+        <v>54105100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44588</v>
+        <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>162.4499969482422</v>
+        <v>143.1600036621094</v>
       </c>
       <c r="C19" t="n">
-        <v>163.8399963378906</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="D19" t="n">
-        <v>158.2799987792969</v>
+        <v>143.0800018310547</v>
       </c>
       <c r="E19" t="n">
-        <v>159.2200012207031</v>
+        <v>145.9299926757812</v>
       </c>
       <c r="F19" t="n">
-        <v>156.8262634277344</v>
+        <v>144.5702362060547</v>
       </c>
       <c r="G19" t="n">
-        <v>121954600</v>
+        <v>70555800</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44589</v>
+        <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>165.7100067138672</v>
+        <v>144.9600067138672</v>
       </c>
       <c r="C20" t="n">
-        <v>170.3500061035156</v>
+        <v>145.5500030517578</v>
       </c>
       <c r="D20" t="n">
-        <v>162.8000030517578</v>
+        <v>142.8500061035156</v>
       </c>
       <c r="E20" t="n">
-        <v>170.3300018310547</v>
+        <v>143</v>
       </c>
       <c r="F20" t="n">
-        <v>167.7691802978516</v>
+        <v>141.6675567626953</v>
       </c>
       <c r="G20" t="n">
-        <v>179935700</v>
+        <v>64015300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44592</v>
+        <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>170.1600036621094</v>
+        <v>142.6999969482422</v>
       </c>
       <c r="C21" t="n">
-        <v>175</v>
+        <v>144.3399963378906</v>
       </c>
       <c r="D21" t="n">
-        <v>169.5099945068359</v>
+        <v>142.2799987792969</v>
       </c>
       <c r="E21" t="n">
-        <v>174.7799987792969</v>
+        <v>144.2899932861328</v>
       </c>
       <c r="F21" t="n">
-        <v>172.1522827148438</v>
+        <v>142.9455413818359</v>
       </c>
       <c r="G21" t="n">
-        <v>115541600</v>
+        <v>65874500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>174.0099945068359</v>
+        <v>143.9700012207031</v>
       </c>
       <c r="C22" t="n">
-        <v>174.8399963378906</v>
+        <v>146.6100006103516</v>
       </c>
       <c r="D22" t="n">
-        <v>172.3099975585938</v>
+        <v>141.3200073242188</v>
       </c>
       <c r="E22" t="n">
-        <v>174.6100006103516</v>
+        <v>145.4299926757812</v>
       </c>
       <c r="F22" t="n">
-        <v>171.98486328125</v>
+        <v>144.0749053955078</v>
       </c>
       <c r="G22" t="n">
-        <v>86213900</v>
+        <v>77663600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44594</v>
+        <v>44959</v>
       </c>
       <c r="B23" t="n">
-        <v>174.75</v>
+        <v>148.8999938964844</v>
       </c>
       <c r="C23" t="n">
-        <v>175.8800048828125</v>
+        <v>151.1799926757812</v>
       </c>
       <c r="D23" t="n">
-        <v>173.3300018310547</v>
+        <v>148.1699981689453</v>
       </c>
       <c r="E23" t="n">
-        <v>175.8399963378906</v>
+        <v>150.8200073242188</v>
       </c>
       <c r="F23" t="n">
-        <v>173.1963806152344</v>
+        <v>149.4147186279297</v>
       </c>
       <c r="G23" t="n">
-        <v>84914300</v>
+        <v>118339000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44595</v>
+        <v>44960</v>
       </c>
       <c r="B24" t="n">
-        <v>174.4799957275391</v>
+        <v>148.0299987792969</v>
       </c>
       <c r="C24" t="n">
-        <v>176.2400054931641</v>
+        <v>157.3800048828125</v>
       </c>
       <c r="D24" t="n">
-        <v>172.1199951171875</v>
+        <v>147.8300018310547</v>
       </c>
       <c r="E24" t="n">
-        <v>172.8999938964844</v>
+        <v>154.5</v>
       </c>
       <c r="F24" t="n">
-        <v>170.3005676269531</v>
+        <v>153.0603942871094</v>
       </c>
       <c r="G24" t="n">
-        <v>89418100</v>
+        <v>154357300</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44596</v>
+        <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>171.6799926757812</v>
+        <v>152.5700073242188</v>
       </c>
       <c r="C25" t="n">
-        <v>174.1000061035156</v>
+        <v>153.1000061035156</v>
       </c>
       <c r="D25" t="n">
-        <v>170.6799926757812</v>
+        <v>150.7799987792969</v>
       </c>
       <c r="E25" t="n">
-        <v>172.3899993896484</v>
+        <v>151.7299957275391</v>
       </c>
       <c r="F25" t="n">
-        <v>170.0145874023438</v>
+        <v>150.3162231445312</v>
       </c>
       <c r="G25" t="n">
-        <v>82465400</v>
+        <v>69858300</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44599</v>
+        <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>172.8600006103516</v>
+        <v>150.6399993896484</v>
       </c>
       <c r="C26" t="n">
-        <v>173.9499969482422</v>
+        <v>155.2299957275391</v>
       </c>
       <c r="D26" t="n">
-        <v>170.9499969482422</v>
+        <v>150.6399993896484</v>
       </c>
       <c r="E26" t="n">
-        <v>171.6600036621094</v>
+        <v>154.6499938964844</v>
       </c>
       <c r="F26" t="n">
-        <v>169.2946472167969</v>
+        <v>153.2089996337891</v>
       </c>
       <c r="G26" t="n">
-        <v>77251200</v>
+        <v>83322600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44600</v>
+        <v>44965</v>
       </c>
       <c r="B27" t="n">
-        <v>171.7299957275391</v>
+        <v>153.8800048828125</v>
       </c>
       <c r="C27" t="n">
-        <v>175.3500061035156</v>
+        <v>154.5800018310547</v>
       </c>
       <c r="D27" t="n">
-        <v>171.4299926757812</v>
+        <v>151.1699981689453</v>
       </c>
       <c r="E27" t="n">
-        <v>174.8300018310547</v>
+        <v>151.9199981689453</v>
       </c>
       <c r="F27" t="n">
-        <v>172.4209594726562</v>
+        <v>150.5044555664062</v>
       </c>
       <c r="G27" t="n">
-        <v>74829200</v>
+        <v>64120100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44601</v>
+        <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>176.0500030517578</v>
+        <v>153.7799987792969</v>
       </c>
       <c r="C28" t="n">
-        <v>176.6499938964844</v>
+        <v>154.3300018310547</v>
       </c>
       <c r="D28" t="n">
-        <v>174.8999938964844</v>
+        <v>150.4199981689453</v>
       </c>
       <c r="E28" t="n">
-        <v>176.2799987792969</v>
+        <v>150.8699951171875</v>
       </c>
       <c r="F28" t="n">
-        <v>173.8509521484375</v>
+        <v>149.4642181396484</v>
       </c>
       <c r="G28" t="n">
-        <v>71285000</v>
+        <v>56007100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44602</v>
+        <v>44967</v>
       </c>
       <c r="B29" t="n">
-        <v>174.1399993896484</v>
+        <v>149.4600067138672</v>
       </c>
       <c r="C29" t="n">
-        <v>175.4799957275391</v>
+        <v>151.3399963378906</v>
       </c>
       <c r="D29" t="n">
-        <v>171.5500030517578</v>
+        <v>149.2200012207031</v>
       </c>
       <c r="E29" t="n">
-        <v>172.1199951171875</v>
+        <v>151.0099945068359</v>
       </c>
       <c r="F29" t="n">
-        <v>169.7482757568359</v>
+        <v>149.8313598632812</v>
       </c>
       <c r="G29" t="n">
-        <v>90865900</v>
+        <v>57450700</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44603</v>
+        <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>172.3300018310547</v>
+        <v>150.9499969482422</v>
       </c>
       <c r="C30" t="n">
-        <v>173.0800018310547</v>
+        <v>154.2599945068359</v>
       </c>
       <c r="D30" t="n">
-        <v>168.0399932861328</v>
+        <v>150.9199981689453</v>
       </c>
       <c r="E30" t="n">
-        <v>168.6399993896484</v>
+        <v>153.8500061035156</v>
       </c>
       <c r="F30" t="n">
-        <v>166.3162536621094</v>
+        <v>152.6492004394531</v>
       </c>
       <c r="G30" t="n">
-        <v>98670700</v>
+        <v>62199000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44606</v>
+        <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>167.3699951171875</v>
+        <v>152.1199951171875</v>
       </c>
       <c r="C31" t="n">
-        <v>169.5800018310547</v>
+        <v>153.7700042724609</v>
       </c>
       <c r="D31" t="n">
-        <v>166.5599975585938</v>
+        <v>150.8600006103516</v>
       </c>
       <c r="E31" t="n">
-        <v>168.8800048828125</v>
+        <v>153.1999969482422</v>
       </c>
       <c r="F31" t="n">
-        <v>166.5529479980469</v>
+        <v>152.0042419433594</v>
       </c>
       <c r="G31" t="n">
-        <v>86185500</v>
+        <v>61707600</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44607</v>
+        <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>170.9700012207031</v>
+        <v>153.1100006103516</v>
       </c>
       <c r="C32" t="n">
-        <v>172.9499969482422</v>
+        <v>155.5</v>
       </c>
       <c r="D32" t="n">
-        <v>170.25</v>
+        <v>152.8800048828125</v>
       </c>
       <c r="E32" t="n">
-        <v>172.7899932861328</v>
+        <v>155.3300018310547</v>
       </c>
       <c r="F32" t="n">
-        <v>170.4090270996094</v>
+        <v>154.1175994873047</v>
       </c>
       <c r="G32" t="n">
-        <v>62527400</v>
+        <v>65573800</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44608</v>
+        <v>44973</v>
       </c>
       <c r="B33" t="n">
-        <v>171.8500061035156</v>
+        <v>153.5099945068359</v>
       </c>
       <c r="C33" t="n">
-        <v>173.3399963378906</v>
+        <v>156.3300018310547</v>
       </c>
       <c r="D33" t="n">
-        <v>170.0500030517578</v>
+        <v>153.3500061035156</v>
       </c>
       <c r="E33" t="n">
-        <v>172.5500030517578</v>
+        <v>153.7100067138672</v>
       </c>
       <c r="F33" t="n">
-        <v>170.1723480224609</v>
+        <v>152.51025390625</v>
       </c>
       <c r="G33" t="n">
-        <v>61177400</v>
+        <v>68167900</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44609</v>
+        <v>44974</v>
       </c>
       <c r="B34" t="n">
-        <v>171.0299987792969</v>
+        <v>152.3500061035156</v>
       </c>
       <c r="C34" t="n">
-        <v>171.9100036621094</v>
+        <v>153</v>
       </c>
       <c r="D34" t="n">
-        <v>168.4700012207031</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="E34" t="n">
-        <v>168.8800048828125</v>
+        <v>152.5500030517578</v>
       </c>
       <c r="F34" t="n">
-        <v>166.5529479980469</v>
+        <v>151.3593444824219</v>
       </c>
       <c r="G34" t="n">
-        <v>69589300</v>
+        <v>59144100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44610</v>
+        <v>44978</v>
       </c>
       <c r="B35" t="n">
-        <v>169.8200073242188</v>
+        <v>150.1999969482422</v>
       </c>
       <c r="C35" t="n">
-        <v>170.5399932861328</v>
+        <v>151.3000030517578</v>
       </c>
       <c r="D35" t="n">
-        <v>166.1900024414062</v>
+        <v>148.4100036621094</v>
       </c>
       <c r="E35" t="n">
-        <v>167.3000030517578</v>
+        <v>148.4799957275391</v>
       </c>
       <c r="F35" t="n">
-        <v>164.9947204589844</v>
+        <v>147.3210906982422</v>
       </c>
       <c r="G35" t="n">
-        <v>82772700</v>
+        <v>58867200</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44614</v>
+        <v>44979</v>
       </c>
       <c r="B36" t="n">
-        <v>164.9799957275391</v>
+        <v>148.8699951171875</v>
       </c>
       <c r="C36" t="n">
-        <v>166.6900024414062</v>
+        <v>149.9499969482422</v>
       </c>
       <c r="D36" t="n">
-        <v>162.1499938964844</v>
+        <v>147.1600036621094</v>
       </c>
       <c r="E36" t="n">
-        <v>164.3200073242188</v>
+        <v>148.9100036621094</v>
       </c>
       <c r="F36" t="n">
-        <v>162.0557861328125</v>
+        <v>147.7477569580078</v>
       </c>
       <c r="G36" t="n">
-        <v>91162800</v>
+        <v>51011300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44615</v>
+        <v>44980</v>
       </c>
       <c r="B37" t="n">
-        <v>165.5399932861328</v>
+        <v>150.0899963378906</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1499938964844</v>
+        <v>150.3399963378906</v>
       </c>
       <c r="D37" t="n">
-        <v>159.75</v>
+        <v>147.2400054931641</v>
       </c>
       <c r="E37" t="n">
-        <v>160.0700073242188</v>
+        <v>149.3999938964844</v>
       </c>
       <c r="F37" t="n">
-        <v>157.8643798828125</v>
+        <v>148.2339172363281</v>
       </c>
       <c r="G37" t="n">
-        <v>90009200</v>
+        <v>48394200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44616</v>
+        <v>44981</v>
       </c>
       <c r="B38" t="n">
-        <v>152.5800018310547</v>
+        <v>147.1100006103516</v>
       </c>
       <c r="C38" t="n">
-        <v>162.8500061035156</v>
+        <v>147.1900024414062</v>
       </c>
       <c r="D38" t="n">
-        <v>152</v>
+        <v>145.7200012207031</v>
       </c>
       <c r="E38" t="n">
-        <v>162.7400054931641</v>
+        <v>146.7100067138672</v>
       </c>
       <c r="F38" t="n">
-        <v>160.4975433349609</v>
+        <v>145.5649261474609</v>
       </c>
       <c r="G38" t="n">
-        <v>141147500</v>
+        <v>55469600</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44617</v>
+        <v>44984</v>
       </c>
       <c r="B39" t="n">
-        <v>163.8399963378906</v>
+        <v>147.7100067138672</v>
       </c>
       <c r="C39" t="n">
-        <v>165.1199951171875</v>
+        <v>149.1699981689453</v>
       </c>
       <c r="D39" t="n">
-        <v>160.8699951171875</v>
+        <v>147.4499969482422</v>
       </c>
       <c r="E39" t="n">
-        <v>164.8500061035156</v>
+        <v>147.9199981689453</v>
       </c>
       <c r="F39" t="n">
-        <v>162.5784606933594</v>
+        <v>146.7654571533203</v>
       </c>
       <c r="G39" t="n">
-        <v>91974200</v>
+        <v>44998500</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44620</v>
+        <v>44985</v>
       </c>
       <c r="B40" t="n">
-        <v>163.0599975585938</v>
+        <v>147.0500030517578</v>
       </c>
       <c r="C40" t="n">
-        <v>165.4199981689453</v>
+        <v>149.0800018310547</v>
       </c>
       <c r="D40" t="n">
-        <v>162.4299926757812</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="E40" t="n">
-        <v>165.1199951171875</v>
+        <v>147.4100036621094</v>
       </c>
       <c r="F40" t="n">
-        <v>162.8447570800781</v>
+        <v>146.2594451904297</v>
       </c>
       <c r="G40" t="n">
-        <v>95056600</v>
+        <v>50547000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B41" t="n">
-        <v>164.6999969482422</v>
+        <v>146.8300018310547</v>
       </c>
       <c r="C41" t="n">
-        <v>166.6000061035156</v>
+        <v>147.2299957275391</v>
       </c>
       <c r="D41" t="n">
-        <v>161.9700012207031</v>
+        <v>145.0099945068359</v>
       </c>
       <c r="E41" t="n">
-        <v>163.1999969482422</v>
+        <v>145.3099975585938</v>
       </c>
       <c r="F41" t="n">
-        <v>160.9512023925781</v>
+        <v>144.1758270263672</v>
       </c>
       <c r="G41" t="n">
-        <v>83474400</v>
+        <v>55479000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44622</v>
+        <v>44987</v>
       </c>
       <c r="B42" t="n">
-        <v>164.3899993896484</v>
+        <v>144.3800048828125</v>
       </c>
       <c r="C42" t="n">
-        <v>167.3600006103516</v>
+        <v>146.7100067138672</v>
       </c>
       <c r="D42" t="n">
-        <v>162.9499969482422</v>
+        <v>143.8999938964844</v>
       </c>
       <c r="E42" t="n">
-        <v>166.5599975585938</v>
+        <v>145.9100036621094</v>
       </c>
       <c r="F42" t="n">
-        <v>164.2649078369141</v>
+        <v>144.7711639404297</v>
       </c>
       <c r="G42" t="n">
-        <v>79724800</v>
+        <v>52238100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44623</v>
+        <v>44988</v>
       </c>
       <c r="B43" t="n">
-        <v>168.4700012207031</v>
+        <v>148.0399932861328</v>
       </c>
       <c r="C43" t="n">
-        <v>168.9100036621094</v>
+        <v>151.1100006103516</v>
       </c>
       <c r="D43" t="n">
-        <v>165.5500030517578</v>
+        <v>147.3300018310547</v>
       </c>
       <c r="E43" t="n">
-        <v>166.2299957275391</v>
+        <v>151.0299987792969</v>
       </c>
       <c r="F43" t="n">
-        <v>163.9394378662109</v>
+        <v>149.8511962890625</v>
       </c>
       <c r="G43" t="n">
-        <v>76678400</v>
+        <v>70732300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44624</v>
+        <v>44991</v>
       </c>
       <c r="B44" t="n">
-        <v>164.4900054931641</v>
+        <v>153.7899932861328</v>
       </c>
       <c r="C44" t="n">
-        <v>165.5500030517578</v>
+        <v>156.3000030517578</v>
       </c>
       <c r="D44" t="n">
-        <v>162.1000061035156</v>
+        <v>153.4600067138672</v>
       </c>
       <c r="E44" t="n">
-        <v>163.1699981689453</v>
+        <v>153.8300018310547</v>
       </c>
       <c r="F44" t="n">
-        <v>160.9216003417969</v>
+        <v>152.6293487548828</v>
       </c>
       <c r="G44" t="n">
-        <v>83737200</v>
+        <v>87558000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44627</v>
+        <v>44992</v>
       </c>
       <c r="B45" t="n">
-        <v>163.3600006103516</v>
+        <v>153.6999969482422</v>
       </c>
       <c r="C45" t="n">
-        <v>165.0200042724609</v>
+        <v>154.0299987792969</v>
       </c>
       <c r="D45" t="n">
-        <v>159.0399932861328</v>
+        <v>151.1300048828125</v>
       </c>
       <c r="E45" t="n">
-        <v>159.3000030517578</v>
+        <v>151.6000061035156</v>
       </c>
       <c r="F45" t="n">
-        <v>157.1049346923828</v>
+        <v>150.4167327880859</v>
       </c>
       <c r="G45" t="n">
-        <v>96418800</v>
+        <v>56182000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44628</v>
+        <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>158.8200073242188</v>
+        <v>152.8099975585938</v>
       </c>
       <c r="C46" t="n">
-        <v>162.8800048828125</v>
+        <v>153.4700012207031</v>
       </c>
       <c r="D46" t="n">
-        <v>155.8000030517578</v>
+        <v>151.8300018310547</v>
       </c>
       <c r="E46" t="n">
-        <v>157.4400024414062</v>
+        <v>152.8699951171875</v>
       </c>
       <c r="F46" t="n">
-        <v>155.2705993652344</v>
+        <v>151.6768188476562</v>
       </c>
       <c r="G46" t="n">
-        <v>131148300</v>
+        <v>47204800</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44629</v>
+        <v>44994</v>
       </c>
       <c r="B47" t="n">
-        <v>161.4799957275391</v>
+        <v>153.5599975585938</v>
       </c>
       <c r="C47" t="n">
-        <v>163.4100036621094</v>
+        <v>154.5399932861328</v>
       </c>
       <c r="D47" t="n">
-        <v>159.4100036621094</v>
+        <v>150.2299957275391</v>
       </c>
       <c r="E47" t="n">
-        <v>162.9499969482422</v>
+        <v>150.5899963378906</v>
       </c>
       <c r="F47" t="n">
-        <v>160.7046508789062</v>
+        <v>149.4146270751953</v>
       </c>
       <c r="G47" t="n">
-        <v>91454900</v>
+        <v>53833600</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44630</v>
+        <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>160.1999969482422</v>
+        <v>150.2100067138672</v>
       </c>
       <c r="C48" t="n">
-        <v>160.3899993896484</v>
+        <v>150.9400024414062</v>
       </c>
       <c r="D48" t="n">
-        <v>155.9799957275391</v>
+        <v>147.6100006103516</v>
       </c>
       <c r="E48" t="n">
-        <v>158.5200042724609</v>
+        <v>148.5</v>
       </c>
       <c r="F48" t="n">
-        <v>156.335693359375</v>
+        <v>147.3409423828125</v>
       </c>
       <c r="G48" t="n">
-        <v>105342000</v>
+        <v>68572400</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44631</v>
+        <v>44998</v>
       </c>
       <c r="B49" t="n">
-        <v>158.9299926757812</v>
+        <v>147.8099975585938</v>
       </c>
       <c r="C49" t="n">
-        <v>159.2799987792969</v>
+        <v>153.1399993896484</v>
       </c>
       <c r="D49" t="n">
-        <v>154.5</v>
+        <v>147.6999969482422</v>
       </c>
       <c r="E49" t="n">
-        <v>154.7299957275391</v>
+        <v>150.4700012207031</v>
       </c>
       <c r="F49" t="n">
-        <v>152.597900390625</v>
+        <v>149.2955474853516</v>
       </c>
       <c r="G49" t="n">
-        <v>96970100</v>
+        <v>84457100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44634</v>
+        <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>151.4499969482422</v>
+        <v>151.2799987792969</v>
       </c>
       <c r="C50" t="n">
-        <v>154.1199951171875</v>
+        <v>153.3999938964844</v>
       </c>
       <c r="D50" t="n">
         <v>150.1000061035156</v>
       </c>
       <c r="E50" t="n">
-        <v>150.6199951171875</v>
+        <v>152.5899963378906</v>
       </c>
       <c r="F50" t="n">
-        <v>148.5445404052734</v>
+        <v>151.3990020751953</v>
       </c>
       <c r="G50" t="n">
-        <v>108732100</v>
+        <v>73695900</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44635</v>
+        <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>150.8999938964844</v>
+        <v>151.1900024414062</v>
       </c>
       <c r="C51" t="n">
-        <v>155.5700073242188</v>
+        <v>153.25</v>
       </c>
       <c r="D51" t="n">
-        <v>150.3800048828125</v>
+        <v>149.9199981689453</v>
       </c>
       <c r="E51" t="n">
-        <v>155.0899963378906</v>
+        <v>152.9900054931641</v>
       </c>
       <c r="F51" t="n">
-        <v>152.9529571533203</v>
+        <v>151.7958984375</v>
       </c>
       <c r="G51" t="n">
-        <v>92964300</v>
+        <v>77167900</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44636</v>
+        <v>45001</v>
       </c>
       <c r="B52" t="n">
-        <v>157.0500030517578</v>
+        <v>152.1600036621094</v>
       </c>
       <c r="C52" t="n">
-        <v>160</v>
+        <v>156.4600067138672</v>
       </c>
       <c r="D52" t="n">
-        <v>154.4600067138672</v>
+        <v>151.6399993896484</v>
       </c>
       <c r="E52" t="n">
-        <v>159.5899963378906</v>
+        <v>155.8500061035156</v>
       </c>
       <c r="F52" t="n">
-        <v>157.3909454345703</v>
+        <v>154.6335906982422</v>
       </c>
       <c r="G52" t="n">
-        <v>102300200</v>
+        <v>76161100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44637</v>
+        <v>45002</v>
       </c>
       <c r="B53" t="n">
-        <v>158.6100006103516</v>
+        <v>156.0800018310547</v>
       </c>
       <c r="C53" t="n">
-        <v>161</v>
+        <v>156.7400054931641</v>
       </c>
       <c r="D53" t="n">
-        <v>157.6300048828125</v>
+        <v>154.2799987792969</v>
       </c>
       <c r="E53" t="n">
-        <v>160.6199951171875</v>
+        <v>155</v>
       </c>
       <c r="F53" t="n">
-        <v>158.4067535400391</v>
+        <v>153.7902069091797</v>
       </c>
       <c r="G53" t="n">
-        <v>75615400</v>
+        <v>98944600</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44638</v>
+        <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>160.5099945068359</v>
+        <v>155.0700073242188</v>
       </c>
       <c r="C54" t="n">
-        <v>164.4799957275391</v>
+        <v>157.8200073242188</v>
       </c>
       <c r="D54" t="n">
-        <v>159.7599945068359</v>
+        <v>154.1499938964844</v>
       </c>
       <c r="E54" t="n">
-        <v>163.9799957275391</v>
+        <v>157.3999938964844</v>
       </c>
       <c r="F54" t="n">
-        <v>161.720458984375</v>
+        <v>156.1714630126953</v>
       </c>
       <c r="G54" t="n">
-        <v>123511700</v>
+        <v>73641400</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44641</v>
+        <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>163.5099945068359</v>
+        <v>157.3200073242188</v>
       </c>
       <c r="C55" t="n">
-        <v>166.3500061035156</v>
+        <v>159.3999938964844</v>
       </c>
       <c r="D55" t="n">
-        <v>163.0099945068359</v>
+        <v>156.5399932861328</v>
       </c>
       <c r="E55" t="n">
-        <v>165.3800048828125</v>
+        <v>159.2799987792969</v>
       </c>
       <c r="F55" t="n">
-        <v>163.1011810302734</v>
+        <v>158.0368194580078</v>
       </c>
       <c r="G55" t="n">
-        <v>95811400</v>
+        <v>73938300</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44642</v>
+        <v>45007</v>
       </c>
       <c r="B56" t="n">
-        <v>165.5099945068359</v>
+        <v>159.3000030517578</v>
       </c>
       <c r="C56" t="n">
-        <v>169.4199981689453</v>
+        <v>162.1399993896484</v>
       </c>
       <c r="D56" t="n">
-        <v>164.9100036621094</v>
+        <v>157.8099975585938</v>
       </c>
       <c r="E56" t="n">
-        <v>168.8200073242188</v>
+        <v>157.8300018310547</v>
       </c>
       <c r="F56" t="n">
-        <v>166.4937744140625</v>
+        <v>156.5981140136719</v>
       </c>
       <c r="G56" t="n">
-        <v>81532000</v>
+        <v>75701800</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44643</v>
+        <v>45008</v>
       </c>
       <c r="B57" t="n">
-        <v>167.9900054931641</v>
+        <v>158.8300018310547</v>
       </c>
       <c r="C57" t="n">
-        <v>172.6399993896484</v>
+        <v>161.5500030517578</v>
       </c>
       <c r="D57" t="n">
-        <v>167.6499938964844</v>
+        <v>157.6799926757812</v>
       </c>
       <c r="E57" t="n">
-        <v>170.2100067138672</v>
+        <v>158.9299926757812</v>
       </c>
       <c r="F57" t="n">
-        <v>167.8646240234375</v>
+        <v>157.6895141601562</v>
       </c>
       <c r="G57" t="n">
-        <v>98062700</v>
+        <v>67622100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44644</v>
+        <v>45009</v>
       </c>
       <c r="B58" t="n">
-        <v>171.0599975585938</v>
+        <v>158.8600006103516</v>
       </c>
       <c r="C58" t="n">
-        <v>174.1399993896484</v>
+        <v>160.3399963378906</v>
       </c>
       <c r="D58" t="n">
-        <v>170.2100067138672</v>
+        <v>157.8500061035156</v>
       </c>
       <c r="E58" t="n">
-        <v>174.0700073242188</v>
+        <v>160.25</v>
       </c>
       <c r="F58" t="n">
-        <v>171.6714172363281</v>
+        <v>158.9992218017578</v>
       </c>
       <c r="G58" t="n">
-        <v>90131400</v>
+        <v>59196500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44645</v>
+        <v>45012</v>
       </c>
       <c r="B59" t="n">
-        <v>173.8800048828125</v>
+        <v>159.9400024414062</v>
       </c>
       <c r="C59" t="n">
-        <v>175.2799987792969</v>
+        <v>160.7700042724609</v>
       </c>
       <c r="D59" t="n">
-        <v>172.75</v>
+        <v>157.8699951171875</v>
       </c>
       <c r="E59" t="n">
-        <v>174.7200012207031</v>
+        <v>158.2799987792969</v>
       </c>
       <c r="F59" t="n">
-        <v>172.3124694824219</v>
+        <v>157.0446014404297</v>
       </c>
       <c r="G59" t="n">
-        <v>80546200</v>
+        <v>52390300</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44648</v>
+        <v>45013</v>
       </c>
       <c r="B60" t="n">
-        <v>172.1699981689453</v>
+        <v>157.9700012207031</v>
       </c>
       <c r="C60" t="n">
-        <v>175.7299957275391</v>
+        <v>158.4900054931641</v>
       </c>
       <c r="D60" t="n">
-        <v>172</v>
+        <v>155.9799957275391</v>
       </c>
       <c r="E60" t="n">
-        <v>175.6000061035156</v>
+        <v>157.6499938964844</v>
       </c>
       <c r="F60" t="n">
-        <v>173.1803436279297</v>
+        <v>156.4195098876953</v>
       </c>
       <c r="G60" t="n">
-        <v>90371900</v>
+        <v>45992200</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44649</v>
+        <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>176.6900024414062</v>
+        <v>159.3699951171875</v>
       </c>
       <c r="C61" t="n">
-        <v>179.0099945068359</v>
+        <v>161.0500030517578</v>
       </c>
       <c r="D61" t="n">
-        <v>176.3399963378906</v>
+        <v>159.3500061035156</v>
       </c>
       <c r="E61" t="n">
-        <v>178.9600067138672</v>
+        <v>160.7700042724609</v>
       </c>
       <c r="F61" t="n">
-        <v>176.4940643310547</v>
+        <v>159.5151824951172</v>
       </c>
       <c r="G61" t="n">
-        <v>100589400</v>
+        <v>51305700</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44650</v>
+        <v>45015</v>
       </c>
       <c r="B62" t="n">
-        <v>178.5500030517578</v>
+        <v>161.5299987792969</v>
       </c>
       <c r="C62" t="n">
-        <v>179.6100006103516</v>
+        <v>162.4700012207031</v>
       </c>
       <c r="D62" t="n">
-        <v>176.6999969482422</v>
+        <v>161.2700042724609</v>
       </c>
       <c r="E62" t="n">
-        <v>177.7700042724609</v>
+        <v>162.3600006103516</v>
       </c>
       <c r="F62" t="n">
-        <v>175.3204650878906</v>
+        <v>161.0927581787109</v>
       </c>
       <c r="G62" t="n">
-        <v>92633200</v>
+        <v>49501700</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44651</v>
+        <v>45016</v>
       </c>
       <c r="B63" t="n">
-        <v>177.8399963378906</v>
+        <v>162.4400024414062</v>
       </c>
       <c r="C63" t="n">
-        <v>178.0299987792969</v>
+        <v>165</v>
       </c>
       <c r="D63" t="n">
-        <v>174.3999938964844</v>
+        <v>161.9100036621094</v>
       </c>
       <c r="E63" t="n">
-        <v>174.6100006103516</v>
+        <v>164.8999938964844</v>
       </c>
       <c r="F63" t="n">
-        <v>172.2039794921875</v>
+        <v>163.6129150390625</v>
       </c>
       <c r="G63" t="n">
-        <v>103049300</v>
+        <v>68749800</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44652</v>
+        <v>45019</v>
       </c>
       <c r="B64" t="n">
-        <v>174.0299987792969</v>
+        <v>164.2700042724609</v>
       </c>
       <c r="C64" t="n">
-        <v>174.8800048828125</v>
+        <v>166.2899932861328</v>
       </c>
       <c r="D64" t="n">
-        <v>171.9400024414062</v>
+        <v>164.2200012207031</v>
       </c>
       <c r="E64" t="n">
-        <v>174.3099975585938</v>
+        <v>166.1699981689453</v>
       </c>
       <c r="F64" t="n">
-        <v>171.9081115722656</v>
+        <v>164.8730163574219</v>
       </c>
       <c r="G64" t="n">
-        <v>78751300</v>
+        <v>56976200</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44655</v>
+        <v>45020</v>
       </c>
       <c r="B65" t="n">
-        <v>174.5700073242188</v>
+        <v>166.6000061035156</v>
       </c>
       <c r="C65" t="n">
-        <v>178.4900054931641</v>
+        <v>166.8399963378906</v>
       </c>
       <c r="D65" t="n">
-        <v>174.4400024414062</v>
+        <v>165.1100006103516</v>
       </c>
       <c r="E65" t="n">
-        <v>178.4400024414062</v>
+        <v>165.6300048828125</v>
       </c>
       <c r="F65" t="n">
-        <v>175.981201171875</v>
+        <v>164.3372344970703</v>
       </c>
       <c r="G65" t="n">
-        <v>76468400</v>
+        <v>46278300</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44656</v>
+        <v>45021</v>
       </c>
       <c r="B66" t="n">
-        <v>177.5</v>
+        <v>164.7400054931641</v>
       </c>
       <c r="C66" t="n">
-        <v>178.3000030517578</v>
+        <v>165.0500030517578</v>
       </c>
       <c r="D66" t="n">
-        <v>174.4199981689453</v>
+        <v>161.8000030517578</v>
       </c>
       <c r="E66" t="n">
-        <v>175.0599975585938</v>
+        <v>163.7599945068359</v>
       </c>
       <c r="F66" t="n">
-        <v>172.6477813720703</v>
+        <v>162.4818267822266</v>
       </c>
       <c r="G66" t="n">
-        <v>73401800</v>
+        <v>51511700</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44657</v>
+        <v>45022</v>
       </c>
       <c r="B67" t="n">
-        <v>172.3600006103516</v>
+        <v>162.4299926757812</v>
       </c>
       <c r="C67" t="n">
-        <v>173.6300048828125</v>
+        <v>164.9600067138672</v>
       </c>
       <c r="D67" t="n">
-        <v>170.1300048828125</v>
+        <v>162</v>
       </c>
       <c r="E67" t="n">
-        <v>171.8300018310547</v>
+        <v>164.6600036621094</v>
       </c>
       <c r="F67" t="n">
-        <v>169.4622802734375</v>
+        <v>163.3748168945312</v>
       </c>
       <c r="G67" t="n">
-        <v>89058800</v>
+        <v>45390100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44658</v>
+        <v>45026</v>
       </c>
       <c r="B68" t="n">
-        <v>171.1600036621094</v>
+        <v>161.4199981689453</v>
       </c>
       <c r="C68" t="n">
-        <v>173.3600006103516</v>
+        <v>162.0299987792969</v>
       </c>
       <c r="D68" t="n">
-        <v>169.8500061035156</v>
+        <v>160.0800018310547</v>
       </c>
       <c r="E68" t="n">
-        <v>172.1399993896484</v>
+        <v>162.0299987792969</v>
       </c>
       <c r="F68" t="n">
-        <v>169.7680206298828</v>
+        <v>160.7653503417969</v>
       </c>
       <c r="G68" t="n">
-        <v>77594700</v>
+        <v>47716900</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44659</v>
+        <v>45027</v>
       </c>
       <c r="B69" t="n">
-        <v>171.7799987792969</v>
+        <v>162.3500061035156</v>
       </c>
       <c r="C69" t="n">
-        <v>171.7799987792969</v>
+        <v>162.3600006103516</v>
       </c>
       <c r="D69" t="n">
-        <v>169.1999969482422</v>
+        <v>160.5099945068359</v>
       </c>
       <c r="E69" t="n">
-        <v>170.0899963378906</v>
+        <v>160.8000030517578</v>
       </c>
       <c r="F69" t="n">
-        <v>167.7462463378906</v>
+        <v>159.5449371337891</v>
       </c>
       <c r="G69" t="n">
-        <v>76575500</v>
+        <v>47644200</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44662</v>
+        <v>45028</v>
       </c>
       <c r="B70" t="n">
-        <v>168.7100067138672</v>
+        <v>161.2200012207031</v>
       </c>
       <c r="C70" t="n">
-        <v>169.0299987792969</v>
+        <v>162.0599975585938</v>
       </c>
       <c r="D70" t="n">
-        <v>165.5</v>
+        <v>159.7799987792969</v>
       </c>
       <c r="E70" t="n">
-        <v>165.75</v>
+        <v>160.1000061035156</v>
       </c>
       <c r="F70" t="n">
-        <v>163.4660797119141</v>
+        <v>158.8504180908203</v>
       </c>
       <c r="G70" t="n">
-        <v>72246700</v>
+        <v>50133100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44663</v>
+        <v>45029</v>
       </c>
       <c r="B71" t="n">
-        <v>168.0200042724609</v>
+        <v>161.6300048828125</v>
       </c>
       <c r="C71" t="n">
-        <v>169.8699951171875</v>
+        <v>165.8000030517578</v>
       </c>
       <c r="D71" t="n">
-        <v>166.6399993896484</v>
+        <v>161.4199981689453</v>
       </c>
       <c r="E71" t="n">
-        <v>167.6600036621094</v>
+        <v>165.5599975585938</v>
       </c>
       <c r="F71" t="n">
-        <v>165.3497619628906</v>
+        <v>164.2677612304688</v>
       </c>
       <c r="G71" t="n">
-        <v>79265200</v>
+        <v>68445600</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44664</v>
+        <v>45030</v>
       </c>
       <c r="B72" t="n">
-        <v>167.3899993896484</v>
+        <v>164.5899963378906</v>
       </c>
       <c r="C72" t="n">
-        <v>171.0399932861328</v>
+        <v>166.3200073242188</v>
       </c>
       <c r="D72" t="n">
-        <v>166.7700042724609</v>
+        <v>163.8200073242188</v>
       </c>
       <c r="E72" t="n">
-        <v>170.3999938964844</v>
+        <v>165.2100067138672</v>
       </c>
       <c r="F72" t="n">
-        <v>168.0520172119141</v>
+        <v>163.9205169677734</v>
       </c>
       <c r="G72" t="n">
-        <v>70618900</v>
+        <v>49386500</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44665</v>
+        <v>45033</v>
       </c>
       <c r="B73" t="n">
-        <v>170.6199951171875</v>
+        <v>165.0899963378906</v>
       </c>
       <c r="C73" t="n">
-        <v>171.2700042724609</v>
+        <v>165.3899993896484</v>
       </c>
       <c r="D73" t="n">
-        <v>165.0399932861328</v>
+        <v>164.0299987792969</v>
       </c>
       <c r="E73" t="n">
-        <v>165.2899932861328</v>
+        <v>165.2299957275391</v>
       </c>
       <c r="F73" t="n">
-        <v>163.0123748779297</v>
+        <v>163.9403533935547</v>
       </c>
       <c r="G73" t="n">
-        <v>75329400</v>
+        <v>41516200</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44669</v>
+        <v>45034</v>
       </c>
       <c r="B74" t="n">
-        <v>163.9199981689453</v>
+        <v>166.1000061035156</v>
       </c>
       <c r="C74" t="n">
-        <v>166.6000061035156</v>
+        <v>167.4100036621094</v>
       </c>
       <c r="D74" t="n">
-        <v>163.5700073242188</v>
+        <v>165.6499938964844</v>
       </c>
       <c r="E74" t="n">
-        <v>165.0700073242188</v>
+        <v>166.4700012207031</v>
       </c>
       <c r="F74" t="n">
-        <v>162.7954254150391</v>
+        <v>165.1706848144531</v>
       </c>
       <c r="G74" t="n">
-        <v>69023900</v>
+        <v>49923000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44670</v>
+        <v>45035</v>
       </c>
       <c r="B75" t="n">
-        <v>165.0200042724609</v>
+        <v>165.8000030517578</v>
       </c>
       <c r="C75" t="n">
-        <v>167.8200073242188</v>
+        <v>168.1600036621094</v>
       </c>
       <c r="D75" t="n">
-        <v>163.9100036621094</v>
+        <v>165.5399932861328</v>
       </c>
       <c r="E75" t="n">
-        <v>167.3999938964844</v>
+        <v>167.6300048828125</v>
       </c>
       <c r="F75" t="n">
-        <v>165.0933227539062</v>
+        <v>166.3216552734375</v>
       </c>
       <c r="G75" t="n">
-        <v>67723800</v>
+        <v>47720200</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44671</v>
+        <v>45036</v>
       </c>
       <c r="B76" t="n">
-        <v>168.7599945068359</v>
+        <v>166.0899963378906</v>
       </c>
       <c r="C76" t="n">
-        <v>168.8800048828125</v>
+        <v>167.8699951171875</v>
       </c>
       <c r="D76" t="n">
-        <v>166.1000061035156</v>
+        <v>165.5599975585938</v>
       </c>
       <c r="E76" t="n">
-        <v>167.2299957275391</v>
+        <v>166.6499938964844</v>
       </c>
       <c r="F76" t="n">
-        <v>164.9256896972656</v>
+        <v>165.3492736816406</v>
       </c>
       <c r="G76" t="n">
-        <v>67929800</v>
+        <v>52456400</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44672</v>
+        <v>45037</v>
       </c>
       <c r="B77" t="n">
-        <v>168.9100036621094</v>
+        <v>165.0500030517578</v>
       </c>
       <c r="C77" t="n">
-        <v>171.5299987792969</v>
+        <v>166.4499969482422</v>
       </c>
       <c r="D77" t="n">
-        <v>165.9100036621094</v>
+        <v>164.4900054931641</v>
       </c>
       <c r="E77" t="n">
-        <v>166.4199981689453</v>
+        <v>165.0200042724609</v>
       </c>
       <c r="F77" t="n">
-        <v>164.1268463134766</v>
+        <v>163.7320098876953</v>
       </c>
       <c r="G77" t="n">
-        <v>87227800</v>
+        <v>58337300</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44673</v>
+        <v>45040</v>
       </c>
       <c r="B78" t="n">
-        <v>166.4600067138672</v>
+        <v>165</v>
       </c>
       <c r="C78" t="n">
-        <v>167.8699951171875</v>
+        <v>165.6000061035156</v>
       </c>
       <c r="D78" t="n">
-        <v>161.5</v>
+        <v>163.8899993896484</v>
       </c>
       <c r="E78" t="n">
-        <v>161.7899932861328</v>
+        <v>165.3300018310547</v>
       </c>
       <c r="F78" t="n">
-        <v>159.5606079101562</v>
+        <v>164.0395812988281</v>
       </c>
       <c r="G78" t="n">
-        <v>84882400</v>
+        <v>41949600</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44676</v>
+        <v>45041</v>
       </c>
       <c r="B79" t="n">
-        <v>161.1199951171875</v>
+        <v>165.1900024414062</v>
       </c>
       <c r="C79" t="n">
-        <v>163.1699981689453</v>
+        <v>166.3099975585938</v>
       </c>
       <c r="D79" t="n">
-        <v>158.4600067138672</v>
+        <v>163.7299957275391</v>
       </c>
       <c r="E79" t="n">
-        <v>162.8800048828125</v>
+        <v>163.7700042724609</v>
       </c>
       <c r="F79" t="n">
-        <v>160.6356353759766</v>
+        <v>162.4917449951172</v>
       </c>
       <c r="G79" t="n">
-        <v>96046400</v>
+        <v>48714100</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44677</v>
+        <v>45042</v>
       </c>
       <c r="B80" t="n">
-        <v>162.25</v>
+        <v>163.0599975585938</v>
       </c>
       <c r="C80" t="n">
-        <v>162.3399963378906</v>
+        <v>165.2799987792969</v>
       </c>
       <c r="D80" t="n">
-        <v>156.7200012207031</v>
+        <v>162.8000030517578</v>
       </c>
       <c r="E80" t="n">
-        <v>156.8000030517578</v>
+        <v>163.7599945068359</v>
       </c>
       <c r="F80" t="n">
-        <v>154.639404296875</v>
+        <v>162.4818267822266</v>
       </c>
       <c r="G80" t="n">
-        <v>95623200</v>
+        <v>45498800</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44678</v>
+        <v>45043</v>
       </c>
       <c r="B81" t="n">
-        <v>155.9100036621094</v>
+        <v>165.1900024414062</v>
       </c>
       <c r="C81" t="n">
-        <v>159.7899932861328</v>
+        <v>168.5599975585938</v>
       </c>
       <c r="D81" t="n">
-        <v>155.3800048828125</v>
+        <v>165.1900024414062</v>
       </c>
       <c r="E81" t="n">
-        <v>156.5700073242188</v>
+        <v>168.4100036621094</v>
       </c>
       <c r="F81" t="n">
-        <v>154.4125671386719</v>
+        <v>167.0955505371094</v>
       </c>
       <c r="G81" t="n">
-        <v>88063200</v>
+        <v>64902300</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44679</v>
+        <v>45044</v>
       </c>
       <c r="B82" t="n">
-        <v>159.25</v>
+        <v>168.4900054931641</v>
       </c>
       <c r="C82" t="n">
-        <v>164.5200042724609</v>
+        <v>169.8500061035156</v>
       </c>
       <c r="D82" t="n">
-        <v>158.9299926757812</v>
+        <v>167.8800048828125</v>
       </c>
       <c r="E82" t="n">
-        <v>163.6399993896484</v>
+        <v>169.6799926757812</v>
       </c>
       <c r="F82" t="n">
-        <v>161.3851623535156</v>
+        <v>168.3556213378906</v>
       </c>
       <c r="G82" t="n">
-        <v>130216800</v>
+        <v>55209200</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44680</v>
+        <v>45047</v>
       </c>
       <c r="B83" t="n">
-        <v>161.8399963378906</v>
+        <v>169.2799987792969</v>
       </c>
       <c r="C83" t="n">
-        <v>166.1999969482422</v>
+        <v>170.4499969482422</v>
       </c>
       <c r="D83" t="n">
-        <v>157.25</v>
+        <v>168.6399993896484</v>
       </c>
       <c r="E83" t="n">
-        <v>157.6499938964844</v>
+        <v>169.5899963378906</v>
       </c>
       <c r="F83" t="n">
-        <v>155.4776763916016</v>
+        <v>168.2663269042969</v>
       </c>
       <c r="G83" t="n">
-        <v>131747600</v>
+        <v>52472900</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44683</v>
+        <v>45048</v>
       </c>
       <c r="B84" t="n">
-        <v>156.7100067138672</v>
+        <v>170.0899963378906</v>
       </c>
       <c r="C84" t="n">
-        <v>158.2299957275391</v>
+        <v>170.3500061035156</v>
       </c>
       <c r="D84" t="n">
-        <v>153.2700042724609</v>
+        <v>167.5399932861328</v>
       </c>
       <c r="E84" t="n">
-        <v>157.9600067138672</v>
+        <v>168.5399932861328</v>
       </c>
       <c r="F84" t="n">
-        <v>155.7834320068359</v>
+        <v>167.2245025634766</v>
       </c>
       <c r="G84" t="n">
-        <v>123055300</v>
+        <v>48425700</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44684</v>
+        <v>45049</v>
       </c>
       <c r="B85" t="n">
-        <v>158.1499938964844</v>
+        <v>169.5</v>
       </c>
       <c r="C85" t="n">
-        <v>160.7100067138672</v>
+        <v>170.9199981689453</v>
       </c>
       <c r="D85" t="n">
-        <v>156.3200073242188</v>
+        <v>167.1600036621094</v>
       </c>
       <c r="E85" t="n">
-        <v>159.4799957275391</v>
+        <v>167.4499969482422</v>
       </c>
       <c r="F85" t="n">
-        <v>157.2824859619141</v>
+        <v>166.1430206298828</v>
       </c>
       <c r="G85" t="n">
-        <v>88966500</v>
+        <v>65136000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44685</v>
+        <v>45050</v>
       </c>
       <c r="B86" t="n">
-        <v>159.6699981689453</v>
+        <v>164.8899993896484</v>
       </c>
       <c r="C86" t="n">
-        <v>166.4799957275391</v>
+        <v>167.0399932861328</v>
       </c>
       <c r="D86" t="n">
-        <v>159.2599945068359</v>
+        <v>164.3099975585938</v>
       </c>
       <c r="E86" t="n">
-        <v>166.0200042724609</v>
+        <v>165.7899932861328</v>
       </c>
       <c r="F86" t="n">
-        <v>163.7323608398438</v>
+        <v>164.4959716796875</v>
       </c>
       <c r="G86" t="n">
-        <v>108256500</v>
+        <v>81235400</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44686</v>
+        <v>45051</v>
       </c>
       <c r="B87" t="n">
-        <v>163.8500061035156</v>
+        <v>170.9799957275391</v>
       </c>
       <c r="C87" t="n">
-        <v>164.0800018310547</v>
+        <v>174.3000030517578</v>
       </c>
       <c r="D87" t="n">
-        <v>154.9499969482422</v>
+        <v>170.7599945068359</v>
       </c>
       <c r="E87" t="n">
-        <v>156.7700042724609</v>
+        <v>173.5700073242188</v>
       </c>
       <c r="F87" t="n">
-        <v>154.6098327636719</v>
+        <v>172.2152862548828</v>
       </c>
       <c r="G87" t="n">
-        <v>130525300</v>
+        <v>113316400</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44687</v>
+        <v>45054</v>
       </c>
       <c r="B88" t="n">
-        <v>156.0099945068359</v>
+        <v>172.4799957275391</v>
       </c>
       <c r="C88" t="n">
-        <v>159.4400024414062</v>
+        <v>173.8500061035156</v>
       </c>
       <c r="D88" t="n">
-        <v>154.1799926757812</v>
+        <v>172.1100006103516</v>
       </c>
       <c r="E88" t="n">
-        <v>157.2799987792969</v>
+        <v>173.5</v>
       </c>
       <c r="F88" t="n">
-        <v>155.3406829833984</v>
+        <v>172.1458129882812</v>
       </c>
       <c r="G88" t="n">
-        <v>116124600</v>
+        <v>55962800</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44690</v>
+        <v>45055</v>
       </c>
       <c r="B89" t="n">
-        <v>154.9299926757812</v>
+        <v>173.0500030517578</v>
       </c>
       <c r="C89" t="n">
-        <v>155.8300018310547</v>
+        <v>173.5399932861328</v>
       </c>
       <c r="D89" t="n">
-        <v>151.4900054931641</v>
+        <v>171.6000061035156</v>
       </c>
       <c r="E89" t="n">
-        <v>152.0599975585938</v>
+        <v>171.7700042724609</v>
       </c>
       <c r="F89" t="n">
-        <v>150.1850128173828</v>
+        <v>170.4293365478516</v>
       </c>
       <c r="G89" t="n">
-        <v>131577900</v>
+        <v>45326900</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44691</v>
+        <v>45056</v>
       </c>
       <c r="B90" t="n">
-        <v>155.5200042724609</v>
+        <v>173.0200042724609</v>
       </c>
       <c r="C90" t="n">
-        <v>156.7400054931641</v>
+        <v>174.0299987792969</v>
       </c>
       <c r="D90" t="n">
-        <v>152.9299926757812</v>
+        <v>171.8999938964844</v>
       </c>
       <c r="E90" t="n">
-        <v>154.5099945068359</v>
+        <v>173.5599975585938</v>
       </c>
       <c r="F90" t="n">
-        <v>152.6048278808594</v>
+        <v>172.2053527832031</v>
       </c>
       <c r="G90" t="n">
-        <v>115366700</v>
+        <v>53724500</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44692</v>
+        <v>45057</v>
       </c>
       <c r="B91" t="n">
-        <v>153.5</v>
+        <v>173.8500061035156</v>
       </c>
       <c r="C91" t="n">
-        <v>155.4499969482422</v>
+        <v>174.5899963378906</v>
       </c>
       <c r="D91" t="n">
-        <v>145.8099975585938</v>
+        <v>172.1699981689453</v>
       </c>
       <c r="E91" t="n">
-        <v>146.5</v>
+        <v>173.75</v>
       </c>
       <c r="F91" t="n">
-        <v>144.693603515625</v>
+        <v>172.3938598632812</v>
       </c>
       <c r="G91" t="n">
-        <v>142689800</v>
+        <v>49514700</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44693</v>
+        <v>45058</v>
       </c>
       <c r="B92" t="n">
-        <v>142.7700042724609</v>
+        <v>173.6199951171875</v>
       </c>
       <c r="C92" t="n">
-        <v>146.1999969482422</v>
+        <v>174.0599975585938</v>
       </c>
       <c r="D92" t="n">
-        <v>138.8000030517578</v>
+        <v>171</v>
       </c>
       <c r="E92" t="n">
-        <v>142.5599975585938</v>
+        <v>172.5700073242188</v>
       </c>
       <c r="F92" t="n">
-        <v>140.8022003173828</v>
+        <v>171.4599151611328</v>
       </c>
       <c r="G92" t="n">
-        <v>182602000</v>
+        <v>45497800</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44694</v>
+        <v>45061</v>
       </c>
       <c r="B93" t="n">
-        <v>144.5899963378906</v>
+        <v>173.1600036621094</v>
       </c>
       <c r="C93" t="n">
-        <v>148.1000061035156</v>
+        <v>173.2100067138672</v>
       </c>
       <c r="D93" t="n">
-        <v>143.1100006103516</v>
+        <v>171.4700012207031</v>
       </c>
       <c r="E93" t="n">
-        <v>147.1100006103516</v>
+        <v>172.0700073242188</v>
       </c>
       <c r="F93" t="n">
-        <v>145.2960815429688</v>
+        <v>170.963134765625</v>
       </c>
       <c r="G93" t="n">
-        <v>113990900</v>
+        <v>37266700</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="B94" t="n">
-        <v>145.5500030517578</v>
+        <v>171.9900054931641</v>
       </c>
       <c r="C94" t="n">
-        <v>147.5200042724609</v>
+        <v>173.1399993896484</v>
       </c>
       <c r="D94" t="n">
-        <v>144.1799926757812</v>
+        <v>171.8000030517578</v>
       </c>
       <c r="E94" t="n">
-        <v>145.5399932861328</v>
+        <v>172.0700073242188</v>
       </c>
       <c r="F94" t="n">
-        <v>143.7454528808594</v>
+        <v>170.963134765625</v>
       </c>
       <c r="G94" t="n">
-        <v>86643800</v>
+        <v>42110300</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44698</v>
+        <v>45063</v>
       </c>
       <c r="B95" t="n">
-        <v>148.8600006103516</v>
+        <v>171.7100067138672</v>
       </c>
       <c r="C95" t="n">
-        <v>149.7700042724609</v>
+        <v>172.9299926757812</v>
       </c>
       <c r="D95" t="n">
-        <v>146.6799926757812</v>
+        <v>170.4199981689453</v>
       </c>
       <c r="E95" t="n">
-        <v>149.2400054931641</v>
+        <v>172.6900024414062</v>
       </c>
       <c r="F95" t="n">
-        <v>147.3998107910156</v>
+        <v>171.5791320800781</v>
       </c>
       <c r="G95" t="n">
-        <v>78336300</v>
+        <v>57951600</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44699</v>
+        <v>45064</v>
       </c>
       <c r="B96" t="n">
-        <v>146.8500061035156</v>
+        <v>173</v>
       </c>
       <c r="C96" t="n">
-        <v>147.3600006103516</v>
+        <v>175.2400054931641</v>
       </c>
       <c r="D96" t="n">
-        <v>139.8999938964844</v>
+        <v>172.5800018310547</v>
       </c>
       <c r="E96" t="n">
-        <v>140.8200073242188</v>
+        <v>175.0500030517578</v>
       </c>
       <c r="F96" t="n">
-        <v>139.0836334228516</v>
+        <v>173.9239654541016</v>
       </c>
       <c r="G96" t="n">
-        <v>109742900</v>
+        <v>65496700</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44700</v>
+        <v>45065</v>
       </c>
       <c r="B97" t="n">
-        <v>139.8800048828125</v>
+        <v>176.3899993896484</v>
       </c>
       <c r="C97" t="n">
-        <v>141.6600036621094</v>
+        <v>176.3899993896484</v>
       </c>
       <c r="D97" t="n">
-        <v>136.6000061035156</v>
+        <v>174.9400024414062</v>
       </c>
       <c r="E97" t="n">
-        <v>137.3500061035156</v>
+        <v>175.1600036621094</v>
       </c>
       <c r="F97" t="n">
-        <v>135.6564331054688</v>
+        <v>174.0332641601562</v>
       </c>
       <c r="G97" t="n">
-        <v>136095600</v>
+        <v>55772400</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44701</v>
+        <v>45068</v>
       </c>
       <c r="B98" t="n">
-        <v>139.0899963378906</v>
+        <v>173.9799957275391</v>
       </c>
       <c r="C98" t="n">
-        <v>140.6999969482422</v>
+        <v>174.7100067138672</v>
       </c>
       <c r="D98" t="n">
-        <v>132.6100006103516</v>
+        <v>173.4499969482422</v>
       </c>
       <c r="E98" t="n">
-        <v>137.5899963378906</v>
+        <v>174.1999969482422</v>
       </c>
       <c r="F98" t="n">
-        <v>135.8934631347656</v>
+        <v>173.0794067382812</v>
       </c>
       <c r="G98" t="n">
-        <v>137426100</v>
+        <v>43570900</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44704</v>
+        <v>45069</v>
       </c>
       <c r="B99" t="n">
-        <v>137.7899932861328</v>
+        <v>173.1300048828125</v>
       </c>
       <c r="C99" t="n">
-        <v>143.2599945068359</v>
+        <v>173.3800048828125</v>
       </c>
       <c r="D99" t="n">
-        <v>137.6499938964844</v>
+        <v>171.2799987792969</v>
       </c>
       <c r="E99" t="n">
-        <v>143.1100006103516</v>
+        <v>171.5599975585938</v>
       </c>
       <c r="F99" t="n">
-        <v>141.3453979492188</v>
+        <v>170.4564056396484</v>
       </c>
       <c r="G99" t="n">
-        <v>117726300</v>
+        <v>50747300</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44705</v>
+        <v>45070</v>
       </c>
       <c r="B100" t="n">
-        <v>140.8099975585938</v>
+        <v>171.0899963378906</v>
       </c>
       <c r="C100" t="n">
-        <v>141.9700012207031</v>
+        <v>172.4199981689453</v>
       </c>
       <c r="D100" t="n">
-        <v>137.3300018310547</v>
+        <v>170.5200042724609</v>
       </c>
       <c r="E100" t="n">
-        <v>140.3600006103516</v>
+        <v>171.8399963378906</v>
       </c>
       <c r="F100" t="n">
-        <v>138.6293334960938</v>
+        <v>170.7345886230469</v>
       </c>
       <c r="G100" t="n">
-        <v>104132700</v>
+        <v>45143500</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44706</v>
+        <v>45071</v>
       </c>
       <c r="B101" t="n">
-        <v>138.4299926757812</v>
+        <v>172.4100036621094</v>
       </c>
       <c r="C101" t="n">
-        <v>141.7899932861328</v>
+        <v>173.8999938964844</v>
       </c>
       <c r="D101" t="n">
-        <v>138.3399963378906</v>
+        <v>171.6900024414062</v>
       </c>
       <c r="E101" t="n">
-        <v>140.5200042724609</v>
+        <v>172.9900054931641</v>
       </c>
       <c r="F101" t="n">
-        <v>138.787353515625</v>
+        <v>171.8772125244141</v>
       </c>
       <c r="G101" t="n">
-        <v>92482700</v>
+        <v>56058300</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44707</v>
+        <v>45072</v>
       </c>
       <c r="B102" t="n">
-        <v>137.3899993896484</v>
+        <v>173.3200073242188</v>
       </c>
       <c r="C102" t="n">
-        <v>144.3399963378906</v>
+        <v>175.7700042724609</v>
       </c>
       <c r="D102" t="n">
-        <v>137.1399993896484</v>
+        <v>173.1100006103516</v>
       </c>
       <c r="E102" t="n">
-        <v>143.7799987792969</v>
+        <v>175.4299926757812</v>
       </c>
       <c r="F102" t="n">
-        <v>142.0071563720703</v>
+        <v>174.3014831542969</v>
       </c>
       <c r="G102" t="n">
-        <v>90601500</v>
+        <v>54835000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44708</v>
+        <v>45076</v>
       </c>
       <c r="B103" t="n">
-        <v>145.3899993896484</v>
+        <v>176.9600067138672</v>
       </c>
       <c r="C103" t="n">
-        <v>149.6799926757812</v>
+        <v>178.9900054931641</v>
       </c>
       <c r="D103" t="n">
-        <v>145.2599945068359</v>
+        <v>176.5700073242188</v>
       </c>
       <c r="E103" t="n">
-        <v>149.6399993896484</v>
+        <v>177.3000030517578</v>
       </c>
       <c r="F103" t="n">
-        <v>147.7948913574219</v>
+        <v>176.1594696044922</v>
       </c>
       <c r="G103" t="n">
-        <v>90978500</v>
+        <v>55964400</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44712</v>
+        <v>45077</v>
       </c>
       <c r="B104" t="n">
-        <v>149.0700073242188</v>
+        <v>177.3300018310547</v>
       </c>
       <c r="C104" t="n">
-        <v>150.6600036621094</v>
+        <v>179.3500061035156</v>
       </c>
       <c r="D104" t="n">
-        <v>146.8399963378906</v>
+        <v>176.7599945068359</v>
       </c>
       <c r="E104" t="n">
-        <v>148.8399963378906</v>
+        <v>177.25</v>
       </c>
       <c r="F104" t="n">
-        <v>147.0047607421875</v>
+        <v>176.1098022460938</v>
       </c>
       <c r="G104" t="n">
-        <v>103718400</v>
+        <v>99625300</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B105" t="n">
-        <v>149.8999938964844</v>
+        <v>177.6999969482422</v>
       </c>
       <c r="C105" t="n">
-        <v>151.7400054931641</v>
+        <v>180.1199951171875</v>
       </c>
       <c r="D105" t="n">
-        <v>147.6799926757812</v>
+        <v>176.9299926757812</v>
       </c>
       <c r="E105" t="n">
-        <v>148.7100067138672</v>
+        <v>180.0899963378906</v>
       </c>
       <c r="F105" t="n">
-        <v>146.8763732910156</v>
+        <v>178.9315185546875</v>
       </c>
       <c r="G105" t="n">
-        <v>74286600</v>
+        <v>68901800</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44714</v>
+        <v>45079</v>
       </c>
       <c r="B106" t="n">
-        <v>147.8300018310547</v>
+        <v>181.0299987792969</v>
       </c>
       <c r="C106" t="n">
-        <v>151.2700042724609</v>
+        <v>181.7799987792969</v>
       </c>
       <c r="D106" t="n">
-        <v>146.8600006103516</v>
+        <v>179.2599945068359</v>
       </c>
       <c r="E106" t="n">
-        <v>151.2100067138672</v>
+        <v>180.9499969482422</v>
       </c>
       <c r="F106" t="n">
-        <v>149.3455047607422</v>
+        <v>179.7859954833984</v>
       </c>
       <c r="G106" t="n">
-        <v>72348100</v>
+        <v>61945900</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44715</v>
+        <v>45082</v>
       </c>
       <c r="B107" t="n">
-        <v>146.8999938964844</v>
+        <v>182.6300048828125</v>
       </c>
       <c r="C107" t="n">
-        <v>147.9700012207031</v>
+        <v>184.9499969482422</v>
       </c>
       <c r="D107" t="n">
-        <v>144.4600067138672</v>
+        <v>178.0399932861328</v>
       </c>
       <c r="E107" t="n">
-        <v>145.3800048828125</v>
+        <v>179.5800018310547</v>
       </c>
       <c r="F107" t="n">
-        <v>143.5874176025391</v>
+        <v>178.4248199462891</v>
       </c>
       <c r="G107" t="n">
-        <v>88570300</v>
+        <v>121946500</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44718</v>
+        <v>45083</v>
       </c>
       <c r="B108" t="n">
-        <v>147.0299987792969</v>
+        <v>179.9700012207031</v>
       </c>
       <c r="C108" t="n">
-        <v>148.5700073242188</v>
+        <v>180.1199951171875</v>
       </c>
       <c r="D108" t="n">
-        <v>144.8999938964844</v>
+        <v>177.4299926757812</v>
       </c>
       <c r="E108" t="n">
-        <v>146.1399993896484</v>
+        <v>179.2100067138672</v>
       </c>
       <c r="F108" t="n">
-        <v>144.3380584716797</v>
+        <v>178.0571899414062</v>
       </c>
       <c r="G108" t="n">
-        <v>71598400</v>
+        <v>64848400</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44719</v>
+        <v>45084</v>
       </c>
       <c r="B109" t="n">
-        <v>144.3500061035156</v>
+        <v>178.4400024414062</v>
       </c>
       <c r="C109" t="n">
-        <v>149</v>
+        <v>181.2100067138672</v>
       </c>
       <c r="D109" t="n">
-        <v>144.1000061035156</v>
+        <v>177.3200073242188</v>
       </c>
       <c r="E109" t="n">
-        <v>148.7100067138672</v>
+        <v>177.8200073242188</v>
       </c>
       <c r="F109" t="n">
-        <v>146.8763732910156</v>
+        <v>176.6761322021484</v>
       </c>
       <c r="G109" t="n">
-        <v>67808200</v>
+        <v>61944600</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44720</v>
+        <v>45085</v>
       </c>
       <c r="B110" t="n">
-        <v>148.5800018310547</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="C110" t="n">
-        <v>149.8699951171875</v>
+        <v>180.8399963378906</v>
       </c>
       <c r="D110" t="n">
-        <v>147.4600067138672</v>
+        <v>177.4600067138672</v>
       </c>
       <c r="E110" t="n">
-        <v>147.9600067138672</v>
+        <v>180.5700073242188</v>
       </c>
       <c r="F110" t="n">
-        <v>146.1356048583984</v>
+        <v>179.4084320068359</v>
       </c>
       <c r="G110" t="n">
-        <v>53950200</v>
+        <v>50214900</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44721</v>
+        <v>45086</v>
       </c>
       <c r="B111" t="n">
-        <v>147.0800018310547</v>
+        <v>181.5</v>
       </c>
       <c r="C111" t="n">
-        <v>147.9499969482422</v>
+        <v>182.2299957275391</v>
       </c>
       <c r="D111" t="n">
-        <v>142.5299987792969</v>
+        <v>180.6300048828125</v>
       </c>
       <c r="E111" t="n">
-        <v>142.6399993896484</v>
+        <v>180.9600067138672</v>
       </c>
       <c r="F111" t="n">
-        <v>140.8812103271484</v>
+        <v>179.7959289550781</v>
       </c>
       <c r="G111" t="n">
-        <v>69473000</v>
+        <v>48870700</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44722</v>
+        <v>45089</v>
       </c>
       <c r="B112" t="n">
-        <v>140.2799987792969</v>
+        <v>181.2700042724609</v>
       </c>
       <c r="C112" t="n">
-        <v>140.7599945068359</v>
+        <v>183.8899993896484</v>
       </c>
       <c r="D112" t="n">
-        <v>137.0599975585938</v>
+        <v>180.9700012207031</v>
       </c>
       <c r="E112" t="n">
-        <v>137.1300048828125</v>
+        <v>183.7899932861328</v>
       </c>
       <c r="F112" t="n">
-        <v>135.4391632080078</v>
+        <v>182.6077117919922</v>
       </c>
       <c r="G112" t="n">
-        <v>91437900</v>
+        <v>54274900</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44725</v>
+        <v>45090</v>
       </c>
       <c r="B113" t="n">
-        <v>132.8699951171875</v>
+        <v>182.8000030517578</v>
       </c>
       <c r="C113" t="n">
-        <v>135.1999969482422</v>
+        <v>184.1499938964844</v>
       </c>
       <c r="D113" t="n">
-        <v>131.4400024414062</v>
+        <v>182.4400024414062</v>
       </c>
       <c r="E113" t="n">
-        <v>131.8800048828125</v>
+        <v>183.3099975585938</v>
       </c>
       <c r="F113" t="n">
-        <v>130.2538604736328</v>
+        <v>182.1308135986328</v>
       </c>
       <c r="G113" t="n">
-        <v>122207100</v>
+        <v>54929100</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44726</v>
+        <v>45091</v>
       </c>
       <c r="B114" t="n">
-        <v>133.1300048828125</v>
+        <v>183.3699951171875</v>
       </c>
       <c r="C114" t="n">
-        <v>133.8899993896484</v>
+        <v>184.3899993896484</v>
       </c>
       <c r="D114" t="n">
-        <v>131.4799957275391</v>
+        <v>182.0200042724609</v>
       </c>
       <c r="E114" t="n">
-        <v>132.7599945068359</v>
+        <v>183.9499969482422</v>
       </c>
       <c r="F114" t="n">
-        <v>131.1230163574219</v>
+        <v>182.7666931152344</v>
       </c>
       <c r="G114" t="n">
-        <v>84784300</v>
+        <v>57462900</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44727</v>
+        <v>45092</v>
       </c>
       <c r="B115" t="n">
-        <v>134.2899932861328</v>
+        <v>183.9600067138672</v>
       </c>
       <c r="C115" t="n">
-        <v>137.3399963378906</v>
+        <v>186.5200042724609</v>
       </c>
       <c r="D115" t="n">
-        <v>132.1600036621094</v>
+        <v>183.7799987792969</v>
       </c>
       <c r="E115" t="n">
-        <v>135.4299926757812</v>
+        <v>186.0099945068359</v>
       </c>
       <c r="F115" t="n">
-        <v>133.7601013183594</v>
+        <v>184.8134460449219</v>
       </c>
       <c r="G115" t="n">
-        <v>91533000</v>
+        <v>65433200</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44728</v>
+        <v>45093</v>
       </c>
       <c r="B116" t="n">
-        <v>132.0800018310547</v>
+        <v>186.7299957275391</v>
       </c>
       <c r="C116" t="n">
-        <v>132.3899993896484</v>
+        <v>186.9900054931641</v>
       </c>
       <c r="D116" t="n">
-        <v>129.0399932861328</v>
+        <v>184.2700042724609</v>
       </c>
       <c r="E116" t="n">
-        <v>130.0599975585938</v>
+        <v>184.9199981689453</v>
       </c>
       <c r="F116" t="n">
-        <v>128.4563140869141</v>
+        <v>183.7304382324219</v>
       </c>
       <c r="G116" t="n">
-        <v>108123900</v>
+        <v>101235600</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44729</v>
+        <v>45097</v>
       </c>
       <c r="B117" t="n">
-        <v>130.0700073242188</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="C117" t="n">
-        <v>133.0800018310547</v>
+        <v>186.1000061035156</v>
       </c>
       <c r="D117" t="n">
-        <v>129.8099975585938</v>
+        <v>184.4100036621094</v>
       </c>
       <c r="E117" t="n">
-        <v>131.5599975585938</v>
+        <v>185.0099945068359</v>
       </c>
       <c r="F117" t="n">
-        <v>129.9377899169922</v>
+        <v>183.8198699951172</v>
       </c>
       <c r="G117" t="n">
-        <v>134520300</v>
+        <v>49799100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44733</v>
+        <v>45098</v>
       </c>
       <c r="B118" t="n">
-        <v>133.4199981689453</v>
+        <v>184.8999938964844</v>
       </c>
       <c r="C118" t="n">
-        <v>137.0599975585938</v>
+        <v>185.4100036621094</v>
       </c>
       <c r="D118" t="n">
-        <v>133.3200073242188</v>
+        <v>182.5899963378906</v>
       </c>
       <c r="E118" t="n">
-        <v>135.8699951171875</v>
+        <v>183.9600067138672</v>
       </c>
       <c r="F118" t="n">
-        <v>134.1946716308594</v>
+        <v>182.7766418457031</v>
       </c>
       <c r="G118" t="n">
-        <v>81000500</v>
+        <v>49515700</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44734</v>
+        <v>45099</v>
       </c>
       <c r="B119" t="n">
-        <v>134.7899932861328</v>
+        <v>183.7400054931641</v>
       </c>
       <c r="C119" t="n">
-        <v>137.7599945068359</v>
+        <v>187.0500030517578</v>
       </c>
       <c r="D119" t="n">
-        <v>133.9100036621094</v>
+        <v>183.6699981689453</v>
       </c>
       <c r="E119" t="n">
-        <v>135.3500061035156</v>
+        <v>187</v>
       </c>
       <c r="F119" t="n">
-        <v>133.6810913085938</v>
+        <v>185.7970886230469</v>
       </c>
       <c r="G119" t="n">
-        <v>73409200</v>
+        <v>51245300</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44735</v>
+        <v>45100</v>
       </c>
       <c r="B120" t="n">
-        <v>136.8200073242188</v>
+        <v>185.5500030517578</v>
       </c>
       <c r="C120" t="n">
-        <v>138.5899963378906</v>
+        <v>187.5599975585938</v>
       </c>
       <c r="D120" t="n">
-        <v>135.6300048828125</v>
+        <v>185.0099945068359</v>
       </c>
       <c r="E120" t="n">
-        <v>138.2700042724609</v>
+        <v>186.6799926757812</v>
       </c>
       <c r="F120" t="n">
-        <v>136.5650787353516</v>
+        <v>185.4791259765625</v>
       </c>
       <c r="G120" t="n">
-        <v>72433800</v>
+        <v>53079300</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44736</v>
+        <v>45103</v>
       </c>
       <c r="B121" t="n">
-        <v>139.8999938964844</v>
+        <v>186.8300018310547</v>
       </c>
       <c r="C121" t="n">
-        <v>141.9100036621094</v>
+        <v>188.0500030517578</v>
       </c>
       <c r="D121" t="n">
-        <v>139.7700042724609</v>
+        <v>185.2299957275391</v>
       </c>
       <c r="E121" t="n">
-        <v>141.6600036621094</v>
+        <v>185.2700042724609</v>
       </c>
       <c r="F121" t="n">
-        <v>139.9132843017578</v>
+        <v>184.0782165527344</v>
       </c>
       <c r="G121" t="n">
-        <v>89116800</v>
+        <v>48088700</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44739</v>
+        <v>45104</v>
       </c>
       <c r="B122" t="n">
-        <v>142.6999969482422</v>
+        <v>185.8899993896484</v>
       </c>
       <c r="C122" t="n">
-        <v>143.4900054931641</v>
+        <v>188.3899993896484</v>
       </c>
       <c r="D122" t="n">
-        <v>140.9700012207031</v>
+        <v>185.6699981689453</v>
       </c>
       <c r="E122" t="n">
-        <v>141.6600036621094</v>
+        <v>188.0599975585938</v>
       </c>
       <c r="F122" t="n">
-        <v>139.9132843017578</v>
+        <v>186.8502502441406</v>
       </c>
       <c r="G122" t="n">
-        <v>70207900</v>
+        <v>50730800</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44740</v>
+        <v>45105</v>
       </c>
       <c r="B123" t="n">
-        <v>142.1300048828125</v>
+        <v>187.9299926757812</v>
       </c>
       <c r="C123" t="n">
-        <v>143.4199981689453</v>
+        <v>189.8999938964844</v>
       </c>
       <c r="D123" t="n">
-        <v>137.3200073242188</v>
+        <v>187.6000061035156</v>
       </c>
       <c r="E123" t="n">
-        <v>137.4400024414062</v>
+        <v>189.25</v>
       </c>
       <c r="F123" t="n">
-        <v>135.7453308105469</v>
+        <v>188.0326080322266</v>
       </c>
       <c r="G123" t="n">
-        <v>67083400</v>
+        <v>51216800</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44741</v>
+        <v>45106</v>
       </c>
       <c r="B124" t="n">
-        <v>137.4600067138672</v>
+        <v>189.0800018310547</v>
       </c>
       <c r="C124" t="n">
-        <v>140.6699981689453</v>
+        <v>190.0700073242188</v>
       </c>
       <c r="D124" t="n">
-        <v>136.6699981689453</v>
+        <v>188.9400024414062</v>
       </c>
       <c r="E124" t="n">
-        <v>139.2299957275391</v>
+        <v>189.5899963378906</v>
       </c>
       <c r="F124" t="n">
-        <v>137.5132598876953</v>
+        <v>188.3704071044922</v>
       </c>
       <c r="G124" t="n">
-        <v>66242400</v>
+        <v>46347300</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="B125" t="n">
-        <v>137.25</v>
+        <v>191.6300048828125</v>
       </c>
       <c r="C125" t="n">
-        <v>138.3699951171875</v>
+        <v>194.4799957275391</v>
       </c>
       <c r="D125" t="n">
-        <v>133.7700042724609</v>
+        <v>191.2599945068359</v>
       </c>
       <c r="E125" t="n">
-        <v>136.7200012207031</v>
+        <v>193.9700012207031</v>
       </c>
       <c r="F125" t="n">
-        <v>135.0342102050781</v>
+        <v>192.7222595214844</v>
       </c>
       <c r="G125" t="n">
-        <v>98964500</v>
+        <v>85069600</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44743</v>
+        <v>45110</v>
       </c>
       <c r="B126" t="n">
-        <v>136.0399932861328</v>
+        <v>193.7799987792969</v>
       </c>
       <c r="C126" t="n">
-        <v>139.0399932861328</v>
+        <v>193.8800048828125</v>
       </c>
       <c r="D126" t="n">
-        <v>135.6600036621094</v>
+        <v>191.7599945068359</v>
       </c>
       <c r="E126" t="n">
-        <v>138.9299926757812</v>
+        <v>192.4600067138672</v>
       </c>
       <c r="F126" t="n">
-        <v>137.2169342041016</v>
+        <v>191.2219543457031</v>
       </c>
       <c r="G126" t="n">
-        <v>71051600</v>
+        <v>31458200</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44747</v>
+        <v>45112</v>
       </c>
       <c r="B127" t="n">
-        <v>137.7700042724609</v>
+        <v>191.5700073242188</v>
       </c>
       <c r="C127" t="n">
-        <v>141.6100006103516</v>
+        <v>192.9799957275391</v>
       </c>
       <c r="D127" t="n">
-        <v>136.9299926757812</v>
+        <v>190.6199951171875</v>
       </c>
       <c r="E127" t="n">
-        <v>141.5599975585938</v>
+        <v>191.3300018310547</v>
       </c>
       <c r="F127" t="n">
-        <v>139.8145141601562</v>
+        <v>190.0992279052734</v>
       </c>
       <c r="G127" t="n">
-        <v>73353800</v>
+        <v>46920300</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44748</v>
+        <v>45113</v>
       </c>
       <c r="B128" t="n">
-        <v>141.3500061035156</v>
+        <v>189.8399963378906</v>
       </c>
       <c r="C128" t="n">
-        <v>144.1199951171875</v>
+        <v>192.0200042724609</v>
       </c>
       <c r="D128" t="n">
-        <v>141.0800018310547</v>
+        <v>189.1999969482422</v>
       </c>
       <c r="E128" t="n">
-        <v>142.9199981689453</v>
+        <v>191.8099975585938</v>
       </c>
       <c r="F128" t="n">
-        <v>141.1577453613281</v>
+        <v>190.5761260986328</v>
       </c>
       <c r="G128" t="n">
-        <v>74064300</v>
+        <v>45094300</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44749</v>
+        <v>45114</v>
       </c>
       <c r="B129" t="n">
-        <v>143.2899932861328</v>
+        <v>191.4100036621094</v>
       </c>
       <c r="C129" t="n">
-        <v>146.5500030517578</v>
+        <v>192.6699981689453</v>
       </c>
       <c r="D129" t="n">
-        <v>143.2799987792969</v>
+        <v>190.2400054931641</v>
       </c>
       <c r="E129" t="n">
-        <v>146.3500061035156</v>
+        <v>190.6799926757812</v>
       </c>
       <c r="F129" t="n">
-        <v>144.5454559326172</v>
+        <v>189.4533996582031</v>
       </c>
       <c r="G129" t="n">
-        <v>66253700</v>
+        <v>46778000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44750</v>
+        <v>45117</v>
       </c>
       <c r="B130" t="n">
-        <v>145.2599945068359</v>
+        <v>189.2599945068359</v>
       </c>
       <c r="C130" t="n">
-        <v>147.5500030517578</v>
+        <v>189.9900054931641</v>
       </c>
       <c r="D130" t="n">
-        <v>145</v>
+        <v>187.0399932861328</v>
       </c>
       <c r="E130" t="n">
-        <v>147.0399932861328</v>
+        <v>188.6100006103516</v>
       </c>
       <c r="F130" t="n">
-        <v>145.2269287109375</v>
+        <v>187.3967132568359</v>
       </c>
       <c r="G130" t="n">
-        <v>64547800</v>
+        <v>59922200</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44753</v>
+        <v>45118</v>
       </c>
       <c r="B131" t="n">
-        <v>145.6699981689453</v>
+        <v>189.1600036621094</v>
       </c>
       <c r="C131" t="n">
-        <v>146.6399993896484</v>
+        <v>189.3000030517578</v>
       </c>
       <c r="D131" t="n">
-        <v>143.7799987792969</v>
+        <v>186.6000061035156</v>
       </c>
       <c r="E131" t="n">
-        <v>144.8699951171875</v>
+        <v>188.0800018310547</v>
       </c>
       <c r="F131" t="n">
-        <v>143.0837097167969</v>
+        <v>186.8701477050781</v>
       </c>
       <c r="G131" t="n">
-        <v>63141600</v>
+        <v>46638100</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44754</v>
+        <v>45119</v>
       </c>
       <c r="B132" t="n">
-        <v>145.7599945068359</v>
+        <v>189.6799926757812</v>
       </c>
       <c r="C132" t="n">
-        <v>148.4499969482422</v>
+        <v>191.6999969482422</v>
       </c>
       <c r="D132" t="n">
-        <v>145.0500030517578</v>
+        <v>188.4700012207031</v>
       </c>
       <c r="E132" t="n">
-        <v>145.8600006103516</v>
+        <v>189.7700042724609</v>
       </c>
       <c r="F132" t="n">
-        <v>144.0614929199219</v>
+        <v>188.5492553710938</v>
       </c>
       <c r="G132" t="n">
-        <v>77588800</v>
+        <v>60750200</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44755</v>
+        <v>45120</v>
       </c>
       <c r="B133" t="n">
-        <v>142.9900054931641</v>
+        <v>190.5</v>
       </c>
       <c r="C133" t="n">
-        <v>146.4499969482422</v>
+        <v>191.1900024414062</v>
       </c>
       <c r="D133" t="n">
-        <v>142.1199951171875</v>
+        <v>189.7799987792969</v>
       </c>
       <c r="E133" t="n">
-        <v>145.4900054931641</v>
+        <v>190.5399932861328</v>
       </c>
       <c r="F133" t="n">
-        <v>143.6960601806641</v>
+        <v>189.3142852783203</v>
       </c>
       <c r="G133" t="n">
-        <v>71185600</v>
+        <v>41342300</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44756</v>
+        <v>45121</v>
       </c>
       <c r="B134" t="n">
-        <v>144.0800018310547</v>
+        <v>190.2299957275391</v>
       </c>
       <c r="C134" t="n">
-        <v>148.9499969482422</v>
+        <v>191.1799926757812</v>
       </c>
       <c r="D134" t="n">
-        <v>143.25</v>
+        <v>189.6300048828125</v>
       </c>
       <c r="E134" t="n">
-        <v>148.4700012207031</v>
+        <v>190.6900024414062</v>
       </c>
       <c r="F134" t="n">
-        <v>146.6392974853516</v>
+        <v>189.4633331298828</v>
       </c>
       <c r="G134" t="n">
-        <v>78140700</v>
+        <v>41573900</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44757</v>
+        <v>45124</v>
       </c>
       <c r="B135" t="n">
-        <v>149.7799987792969</v>
+        <v>191.8999938964844</v>
       </c>
       <c r="C135" t="n">
-        <v>150.8600006103516</v>
+        <v>194.3200073242188</v>
       </c>
       <c r="D135" t="n">
-        <v>148.1999969482422</v>
+        <v>191.8099975585938</v>
       </c>
       <c r="E135" t="n">
-        <v>150.1699981689453</v>
+        <v>193.9900054931641</v>
       </c>
       <c r="F135" t="n">
-        <v>148.3183441162109</v>
+        <v>192.7421264648438</v>
       </c>
       <c r="G135" t="n">
-        <v>76259900</v>
+        <v>50520200</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44760</v>
+        <v>45125</v>
       </c>
       <c r="B136" t="n">
-        <v>150.7400054931641</v>
+        <v>193.3500061035156</v>
       </c>
       <c r="C136" t="n">
-        <v>151.5700073242188</v>
+        <v>194.3300018310547</v>
       </c>
       <c r="D136" t="n">
-        <v>146.6999969482422</v>
+        <v>192.4199981689453</v>
       </c>
       <c r="E136" t="n">
-        <v>147.0700073242188</v>
+        <v>193.7299957275391</v>
       </c>
       <c r="F136" t="n">
-        <v>145.2566070556641</v>
+        <v>192.4837646484375</v>
       </c>
       <c r="G136" t="n">
-        <v>81420900</v>
+        <v>48353800</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44761</v>
+        <v>45126</v>
       </c>
       <c r="B137" t="n">
-        <v>147.9199981689453</v>
+        <v>193.1000061035156</v>
       </c>
       <c r="C137" t="n">
-        <v>151.2299957275391</v>
+        <v>198.2299957275391</v>
       </c>
       <c r="D137" t="n">
-        <v>146.9100036621094</v>
+        <v>192.6499938964844</v>
       </c>
       <c r="E137" t="n">
-        <v>151</v>
+        <v>195.1000061035156</v>
       </c>
       <c r="F137" t="n">
-        <v>149.1381225585938</v>
+        <v>193.8449859619141</v>
       </c>
       <c r="G137" t="n">
-        <v>82982400</v>
+        <v>80507300</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44762</v>
+        <v>45127</v>
       </c>
       <c r="B138" t="n">
-        <v>151.1199951171875</v>
+        <v>195.0899963378906</v>
       </c>
       <c r="C138" t="n">
-        <v>153.7200012207031</v>
+        <v>196.4700012207031</v>
       </c>
       <c r="D138" t="n">
-        <v>150.3699951171875</v>
+        <v>192.5</v>
       </c>
       <c r="E138" t="n">
-        <v>153.0399932861328</v>
+        <v>193.1300048828125</v>
       </c>
       <c r="F138" t="n">
-        <v>151.1529693603516</v>
+        <v>191.8876495361328</v>
       </c>
       <c r="G138" t="n">
-        <v>64823400</v>
+        <v>59581200</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44763</v>
+        <v>45128</v>
       </c>
       <c r="B139" t="n">
-        <v>154.5</v>
+        <v>194.1000061035156</v>
       </c>
       <c r="C139" t="n">
-        <v>155.5700073242188</v>
+        <v>194.9700012207031</v>
       </c>
       <c r="D139" t="n">
-        <v>151.9400024414062</v>
+        <v>191.2299957275391</v>
       </c>
       <c r="E139" t="n">
-        <v>155.3500061035156</v>
+        <v>191.9400024414062</v>
       </c>
       <c r="F139" t="n">
-        <v>153.4344787597656</v>
+        <v>190.7053070068359</v>
       </c>
       <c r="G139" t="n">
-        <v>65086600</v>
+        <v>71917800</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44764</v>
+        <v>45131</v>
       </c>
       <c r="B140" t="n">
-        <v>155.3899993896484</v>
+        <v>193.4100036621094</v>
       </c>
       <c r="C140" t="n">
-        <v>156.2799987792969</v>
+        <v>194.9100036621094</v>
       </c>
       <c r="D140" t="n">
-        <v>153.4100036621094</v>
+        <v>192.25</v>
       </c>
       <c r="E140" t="n">
-        <v>154.0899963378906</v>
+        <v>192.75</v>
       </c>
       <c r="F140" t="n">
-        <v>152.1899871826172</v>
+        <v>191.5100860595703</v>
       </c>
       <c r="G140" t="n">
-        <v>66675400</v>
+        <v>45377800</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44767</v>
+        <v>45132</v>
       </c>
       <c r="B141" t="n">
-        <v>154.0099945068359</v>
+        <v>193.3300018310547</v>
       </c>
       <c r="C141" t="n">
-        <v>155.0399932861328</v>
+        <v>194.4400024414062</v>
       </c>
       <c r="D141" t="n">
-        <v>152.2799987792969</v>
+        <v>192.9199981689453</v>
       </c>
       <c r="E141" t="n">
-        <v>152.9499969482422</v>
+        <v>193.6199951171875</v>
       </c>
       <c r="F141" t="n">
-        <v>151.0640869140625</v>
+        <v>192.37451171875</v>
       </c>
       <c r="G141" t="n">
-        <v>53623900</v>
+        <v>37283200</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44768</v>
+        <v>45133</v>
       </c>
       <c r="B142" t="n">
-        <v>152.2599945068359</v>
+        <v>193.6699981689453</v>
       </c>
       <c r="C142" t="n">
-        <v>153.0899963378906</v>
+        <v>195.6399993896484</v>
       </c>
       <c r="D142" t="n">
-        <v>150.8000030517578</v>
+        <v>193.3200073242188</v>
       </c>
       <c r="E142" t="n">
-        <v>151.6000061035156</v>
+        <v>194.5</v>
       </c>
       <c r="F142" t="n">
-        <v>149.7307281494141</v>
+        <v>193.2488250732422</v>
       </c>
       <c r="G142" t="n">
-        <v>55138700</v>
+        <v>47471900</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44769</v>
+        <v>45134</v>
       </c>
       <c r="B143" t="n">
-        <v>152.5800018310547</v>
+        <v>196.0200042724609</v>
       </c>
       <c r="C143" t="n">
-        <v>157.3300018310547</v>
+        <v>197.1999969482422</v>
       </c>
       <c r="D143" t="n">
-        <v>152.1600036621094</v>
+        <v>192.5500030517578</v>
       </c>
       <c r="E143" t="n">
-        <v>156.7899932861328</v>
+        <v>193.2200012207031</v>
       </c>
       <c r="F143" t="n">
-        <v>154.8567352294922</v>
+        <v>191.9770660400391</v>
       </c>
       <c r="G143" t="n">
-        <v>78620700</v>
+        <v>47460200</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44770</v>
+        <v>45135</v>
       </c>
       <c r="B144" t="n">
-        <v>156.9799957275391</v>
+        <v>194.6699981689453</v>
       </c>
       <c r="C144" t="n">
-        <v>157.6399993896484</v>
+        <v>196.6300048828125</v>
       </c>
       <c r="D144" t="n">
-        <v>154.4100036621094</v>
+        <v>194.1399993896484</v>
       </c>
       <c r="E144" t="n">
-        <v>157.3500061035156</v>
+        <v>195.8300018310547</v>
       </c>
       <c r="F144" t="n">
-        <v>155.4098358154297</v>
+        <v>194.5702972412109</v>
       </c>
       <c r="G144" t="n">
-        <v>81378700</v>
+        <v>48291400</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44771</v>
+        <v>45138</v>
       </c>
       <c r="B145" t="n">
-        <v>161.2400054931641</v>
+        <v>196.0599975585938</v>
       </c>
       <c r="C145" t="n">
-        <v>163.6300048828125</v>
+        <v>196.4900054931641</v>
       </c>
       <c r="D145" t="n">
-        <v>159.5</v>
+        <v>195.2599945068359</v>
       </c>
       <c r="E145" t="n">
-        <v>162.5099945068359</v>
+        <v>196.4499969482422</v>
       </c>
       <c r="F145" t="n">
-        <v>160.5061798095703</v>
+        <v>195.1862945556641</v>
       </c>
       <c r="G145" t="n">
-        <v>101786900</v>
+        <v>38824100</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B146" t="n">
-        <v>161.0099945068359</v>
+        <v>196.2400054931641</v>
       </c>
       <c r="C146" t="n">
-        <v>163.5899963378906</v>
+        <v>196.7299957275391</v>
       </c>
       <c r="D146" t="n">
-        <v>160.8899993896484</v>
+        <v>195.2799987792969</v>
       </c>
       <c r="E146" t="n">
-        <v>161.5099945068359</v>
+        <v>195.6100006103516</v>
       </c>
       <c r="F146" t="n">
-        <v>159.5185241699219</v>
+        <v>194.3516845703125</v>
       </c>
       <c r="G146" t="n">
-        <v>67829400</v>
+        <v>35175100</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44775</v>
+        <v>45140</v>
       </c>
       <c r="B147" t="n">
-        <v>160.1000061035156</v>
+        <v>195.0399932861328</v>
       </c>
       <c r="C147" t="n">
-        <v>162.4100036621094</v>
+        <v>195.1799926757812</v>
       </c>
       <c r="D147" t="n">
-        <v>159.6300048828125</v>
+        <v>191.8500061035156</v>
       </c>
       <c r="E147" t="n">
-        <v>160.0099945068359</v>
+        <v>192.5800018310547</v>
       </c>
       <c r="F147" t="n">
-        <v>158.0370178222656</v>
+        <v>191.3411712646484</v>
       </c>
       <c r="G147" t="n">
-        <v>59907000</v>
+        <v>50389300</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44776</v>
+        <v>45141</v>
       </c>
       <c r="B148" t="n">
-        <v>160.8399963378906</v>
+        <v>191.5700073242188</v>
       </c>
       <c r="C148" t="n">
-        <v>166.5899963378906</v>
+        <v>192.3699951171875</v>
       </c>
       <c r="D148" t="n">
-        <v>160.75</v>
+        <v>190.6900024414062</v>
       </c>
       <c r="E148" t="n">
-        <v>166.1300048828125</v>
+        <v>191.1699981689453</v>
       </c>
       <c r="F148" t="n">
-        <v>164.0815734863281</v>
+        <v>189.9402465820312</v>
       </c>
       <c r="G148" t="n">
-        <v>82507500</v>
+        <v>61235200</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44777</v>
+        <v>45142</v>
       </c>
       <c r="B149" t="n">
-        <v>166.0099945068359</v>
+        <v>185.5200042724609</v>
       </c>
       <c r="C149" t="n">
-        <v>167.1900024414062</v>
+        <v>187.3800048828125</v>
       </c>
       <c r="D149" t="n">
-        <v>164.4299926757812</v>
+        <v>181.9199981689453</v>
       </c>
       <c r="E149" t="n">
-        <v>165.8099975585938</v>
+        <v>181.9900054931641</v>
       </c>
       <c r="F149" t="n">
-        <v>163.7655029296875</v>
+        <v>180.8193054199219</v>
       </c>
       <c r="G149" t="n">
-        <v>55474100</v>
+        <v>115799700</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44778</v>
+        <v>45145</v>
       </c>
       <c r="B150" t="n">
-        <v>163.2100067138672</v>
+        <v>182.1300048828125</v>
       </c>
       <c r="C150" t="n">
-        <v>165.8500061035156</v>
+        <v>183.1300048828125</v>
       </c>
       <c r="D150" t="n">
-        <v>163</v>
+        <v>177.3500061035156</v>
       </c>
       <c r="E150" t="n">
-        <v>165.3500061035156</v>
+        <v>178.8500061035156</v>
       </c>
       <c r="F150" t="n">
-        <v>163.5380249023438</v>
+        <v>177.6995086669922</v>
       </c>
       <c r="G150" t="n">
-        <v>56697000</v>
+        <v>97576100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44781</v>
+        <v>45146</v>
       </c>
       <c r="B151" t="n">
-        <v>166.3699951171875</v>
+        <v>179.6900024414062</v>
       </c>
       <c r="C151" t="n">
-        <v>167.8099975585938</v>
+        <v>180.2700042724609</v>
       </c>
       <c r="D151" t="n">
-        <v>164.1999969482422</v>
+        <v>177.5800018310547</v>
       </c>
       <c r="E151" t="n">
-        <v>164.8699951171875</v>
+        <v>179.8000030517578</v>
       </c>
       <c r="F151" t="n">
-        <v>163.0632781982422</v>
+        <v>178.6433715820312</v>
       </c>
       <c r="G151" t="n">
-        <v>60276900</v>
+        <v>67823000</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44782</v>
+        <v>45147</v>
       </c>
       <c r="B152" t="n">
-        <v>164.0200042724609</v>
+        <v>180.8699951171875</v>
       </c>
       <c r="C152" t="n">
-        <v>165.8200073242188</v>
+        <v>180.9299926757812</v>
       </c>
       <c r="D152" t="n">
-        <v>163.25</v>
+        <v>177.0099945068359</v>
       </c>
       <c r="E152" t="n">
-        <v>164.9199981689453</v>
+        <v>178.1900024414062</v>
       </c>
       <c r="F152" t="n">
-        <v>163.1127471923828</v>
+        <v>177.0437469482422</v>
       </c>
       <c r="G152" t="n">
-        <v>63135500</v>
+        <v>60378500</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44783</v>
+        <v>45148</v>
       </c>
       <c r="B153" t="n">
-        <v>167.6799926757812</v>
+        <v>179.4799957275391</v>
       </c>
       <c r="C153" t="n">
-        <v>169.3399963378906</v>
+        <v>180.75</v>
       </c>
       <c r="D153" t="n">
-        <v>166.8999938964844</v>
+        <v>177.6000061035156</v>
       </c>
       <c r="E153" t="n">
-        <v>169.2400054931641</v>
+        <v>177.9700012207031</v>
       </c>
       <c r="F153" t="n">
-        <v>167.3854370117188</v>
+        <v>176.8251647949219</v>
       </c>
       <c r="G153" t="n">
-        <v>70170500</v>
+        <v>54686900</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44784</v>
+        <v>45149</v>
       </c>
       <c r="B154" t="n">
-        <v>170.0599975585938</v>
+        <v>177.3200073242188</v>
       </c>
       <c r="C154" t="n">
-        <v>170.9900054931641</v>
+        <v>178.6199951171875</v>
       </c>
       <c r="D154" t="n">
-        <v>168.1900024414062</v>
+        <v>176.5500030517578</v>
       </c>
       <c r="E154" t="n">
-        <v>168.4900054931641</v>
+        <v>177.7899932861328</v>
       </c>
       <c r="F154" t="n">
-        <v>166.6436309814453</v>
+        <v>176.8848724365234</v>
       </c>
       <c r="G154" t="n">
-        <v>57149200</v>
+        <v>51988100</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44785</v>
+        <v>45152</v>
       </c>
       <c r="B155" t="n">
-        <v>169.8200073242188</v>
+        <v>177.9700012207031</v>
       </c>
       <c r="C155" t="n">
-        <v>172.1699981689453</v>
+        <v>179.6900024414062</v>
       </c>
       <c r="D155" t="n">
-        <v>169.3999938964844</v>
+        <v>177.3099975585938</v>
       </c>
       <c r="E155" t="n">
-        <v>172.1000061035156</v>
+        <v>179.4600067138672</v>
       </c>
       <c r="F155" t="n">
-        <v>170.2140502929688</v>
+        <v>178.5463714599609</v>
       </c>
       <c r="G155" t="n">
-        <v>68039400</v>
+        <v>43675600</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44788</v>
+        <v>45153</v>
       </c>
       <c r="B156" t="n">
-        <v>171.5200042724609</v>
+        <v>178.8800048828125</v>
       </c>
       <c r="C156" t="n">
-        <v>173.3899993896484</v>
+        <v>179.4799957275391</v>
       </c>
       <c r="D156" t="n">
-        <v>171.3500061035156</v>
+        <v>177.0500030517578</v>
       </c>
       <c r="E156" t="n">
-        <v>173.1900024414062</v>
+        <v>177.4499969482422</v>
       </c>
       <c r="F156" t="n">
-        <v>171.2921295166016</v>
+        <v>176.5465850830078</v>
       </c>
       <c r="G156" t="n">
-        <v>54091700</v>
+        <v>43622600</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44789</v>
+        <v>45154</v>
       </c>
       <c r="B157" t="n">
-        <v>172.7799987792969</v>
+        <v>177.1300048828125</v>
       </c>
       <c r="C157" t="n">
-        <v>173.7100067138672</v>
+        <v>178.5399932861328</v>
       </c>
       <c r="D157" t="n">
-        <v>171.6600036621094</v>
+        <v>176.5</v>
       </c>
       <c r="E157" t="n">
-        <v>173.0299987792969</v>
+        <v>176.5700073242188</v>
       </c>
       <c r="F157" t="n">
-        <v>171.1338500976562</v>
+        <v>175.6710815429688</v>
       </c>
       <c r="G157" t="n">
-        <v>56377100</v>
+        <v>46964900</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44790</v>
+        <v>45155</v>
       </c>
       <c r="B158" t="n">
-        <v>172.7700042724609</v>
+        <v>177.1399993896484</v>
       </c>
       <c r="C158" t="n">
-        <v>176.1499938964844</v>
+        <v>177.5099945068359</v>
       </c>
       <c r="D158" t="n">
-        <v>172.5700073242188</v>
+        <v>173.4799957275391</v>
       </c>
       <c r="E158" t="n">
-        <v>174.5500030517578</v>
+        <v>174</v>
       </c>
       <c r="F158" t="n">
-        <v>172.6371917724609</v>
+        <v>173.1141662597656</v>
       </c>
       <c r="G158" t="n">
-        <v>79542000</v>
+        <v>66062900</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44791</v>
+        <v>45156</v>
       </c>
       <c r="B159" t="n">
-        <v>173.75</v>
+        <v>172.3000030517578</v>
       </c>
       <c r="C159" t="n">
-        <v>174.8999938964844</v>
+        <v>175.1000061035156</v>
       </c>
       <c r="D159" t="n">
-        <v>173.1199951171875</v>
+        <v>171.9600067138672</v>
       </c>
       <c r="E159" t="n">
-        <v>174.1499938964844</v>
+        <v>174.4900054931641</v>
       </c>
       <c r="F159" t="n">
-        <v>172.2415771484375</v>
+        <v>173.6016693115234</v>
       </c>
       <c r="G159" t="n">
-        <v>62290100</v>
+        <v>61114200</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44792</v>
+        <v>45159</v>
       </c>
       <c r="B160" t="n">
-        <v>173.0299987792969</v>
+        <v>175.0700073242188</v>
       </c>
       <c r="C160" t="n">
+        <v>176.1300048828125</v>
+      </c>
+      <c r="D160" t="n">
         <v>173.7400054931641</v>
       </c>
-      <c r="D160" t="n">
-        <v>171.3099975585938</v>
-      </c>
       <c r="E160" t="n">
-        <v>171.5200042724609</v>
+        <v>175.8399963378906</v>
       </c>
       <c r="F160" t="n">
-        <v>169.6404266357422</v>
+        <v>174.9447784423828</v>
       </c>
       <c r="G160" t="n">
-        <v>70346300</v>
+        <v>46311900</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44795</v>
+        <v>45160</v>
       </c>
       <c r="B161" t="n">
-        <v>169.6900024414062</v>
+        <v>177.0599975585938</v>
       </c>
       <c r="C161" t="n">
-        <v>169.8600006103516</v>
+        <v>177.6799926757812</v>
       </c>
       <c r="D161" t="n">
-        <v>167.1399993896484</v>
+        <v>176.25</v>
       </c>
       <c r="E161" t="n">
-        <v>167.5700073242188</v>
+        <v>177.2299957275391</v>
       </c>
       <c r="F161" t="n">
-        <v>165.7337036132812</v>
+        <v>176.3276977539062</v>
       </c>
       <c r="G161" t="n">
-        <v>69026800</v>
+        <v>42084200</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44796</v>
+        <v>45161</v>
       </c>
       <c r="B162" t="n">
-        <v>167.0800018310547</v>
+        <v>178.5200042724609</v>
       </c>
       <c r="C162" t="n">
-        <v>168.7100067138672</v>
+        <v>181.5500030517578</v>
       </c>
       <c r="D162" t="n">
-        <v>166.6499938964844</v>
+        <v>178.3300018310547</v>
       </c>
       <c r="E162" t="n">
-        <v>167.2299957275391</v>
+        <v>181.1199951171875</v>
       </c>
       <c r="F162" t="n">
-        <v>165.3974151611328</v>
+        <v>180.1979064941406</v>
       </c>
       <c r="G162" t="n">
-        <v>54147100</v>
+        <v>52722800</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44797</v>
+        <v>45162</v>
       </c>
       <c r="B163" t="n">
-        <v>167.3200073242188</v>
+        <v>180.6699981689453</v>
       </c>
       <c r="C163" t="n">
-        <v>168.1100006103516</v>
+        <v>181.1000061035156</v>
       </c>
       <c r="D163" t="n">
-        <v>166.25</v>
+        <v>176.0099945068359</v>
       </c>
       <c r="E163" t="n">
-        <v>167.5299987792969</v>
+        <v>176.3800048828125</v>
       </c>
       <c r="F163" t="n">
-        <v>165.6941375732422</v>
+        <v>175.4820251464844</v>
       </c>
       <c r="G163" t="n">
-        <v>53841500</v>
+        <v>54945800</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44798</v>
+        <v>45163</v>
       </c>
       <c r="B164" t="n">
-        <v>168.7799987792969</v>
+        <v>177.3800048828125</v>
       </c>
       <c r="C164" t="n">
-        <v>170.1399993896484</v>
+        <v>179.1499938964844</v>
       </c>
       <c r="D164" t="n">
-        <v>168.3500061035156</v>
+        <v>175.8200073242188</v>
       </c>
       <c r="E164" t="n">
-        <v>170.0299987792969</v>
+        <v>178.6100006103516</v>
       </c>
       <c r="F164" t="n">
-        <v>168.166748046875</v>
+        <v>177.70068359375</v>
       </c>
       <c r="G164" t="n">
-        <v>51218200</v>
+        <v>51449600</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44799</v>
+        <v>45166</v>
       </c>
       <c r="B165" t="n">
-        <v>170.5700073242188</v>
+        <v>180.0899963378906</v>
       </c>
       <c r="C165" t="n">
-        <v>171.0500030517578</v>
+        <v>180.5899963378906</v>
       </c>
       <c r="D165" t="n">
-        <v>163.5599975585938</v>
+        <v>178.5500030517578</v>
       </c>
       <c r="E165" t="n">
-        <v>163.6199951171875</v>
+        <v>180.1900024414062</v>
       </c>
       <c r="F165" t="n">
-        <v>161.8269653320312</v>
+        <v>179.2726440429688</v>
       </c>
       <c r="G165" t="n">
-        <v>78961000</v>
+        <v>43820700</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44802</v>
+        <v>45167</v>
       </c>
       <c r="B166" t="n">
-        <v>161.1499938964844</v>
+        <v>179.6999969482422</v>
       </c>
       <c r="C166" t="n">
-        <v>162.8999938964844</v>
+        <v>184.8999938964844</v>
       </c>
       <c r="D166" t="n">
-        <v>159.8200073242188</v>
+        <v>179.5</v>
       </c>
       <c r="E166" t="n">
-        <v>161.3800048828125</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="F166" t="n">
-        <v>159.6115417480469</v>
+        <v>183.1826324462891</v>
       </c>
       <c r="G166" t="n">
-        <v>73314000</v>
+        <v>53003900</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44803</v>
+        <v>45168</v>
       </c>
       <c r="B167" t="n">
-        <v>162.1300048828125</v>
+        <v>184.9400024414062</v>
       </c>
       <c r="C167" t="n">
-        <v>162.5599975585938</v>
+        <v>187.8500061035156</v>
       </c>
       <c r="D167" t="n">
-        <v>157.7200012207031</v>
+        <v>184.7400054931641</v>
       </c>
       <c r="E167" t="n">
-        <v>158.9100036621094</v>
+        <v>187.6499938964844</v>
       </c>
       <c r="F167" t="n">
-        <v>157.1685943603516</v>
+        <v>186.6946716308594</v>
       </c>
       <c r="G167" t="n">
-        <v>77906200</v>
+        <v>60813900</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44804</v>
+        <v>45169</v>
       </c>
       <c r="B168" t="n">
-        <v>160.3099975585938</v>
+        <v>187.8399963378906</v>
       </c>
       <c r="C168" t="n">
-        <v>160.5800018310547</v>
+        <v>189.1199951171875</v>
       </c>
       <c r="D168" t="n">
-        <v>157.1399993896484</v>
+        <v>187.4799957275391</v>
       </c>
       <c r="E168" t="n">
-        <v>157.2200012207031</v>
+        <v>187.8699951171875</v>
       </c>
       <c r="F168" t="n">
-        <v>155.4971008300781</v>
+        <v>186.9135437011719</v>
       </c>
       <c r="G168" t="n">
-        <v>87991100</v>
+        <v>60794500</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B169" t="n">
-        <v>156.6399993896484</v>
+        <v>189.4900054931641</v>
       </c>
       <c r="C169" t="n">
-        <v>158.4199981689453</v>
+        <v>189.9199981689453</v>
       </c>
       <c r="D169" t="n">
-        <v>154.6699981689453</v>
+        <v>188.2799987792969</v>
       </c>
       <c r="E169" t="n">
-        <v>157.9600067138672</v>
+        <v>189.4600067138672</v>
       </c>
       <c r="F169" t="n">
-        <v>156.2290191650391</v>
+        <v>188.4954681396484</v>
       </c>
       <c r="G169" t="n">
-        <v>74229900</v>
+        <v>45732600</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44806</v>
+        <v>45174</v>
       </c>
       <c r="B170" t="n">
-        <v>159.75</v>
+        <v>188.2799987792969</v>
       </c>
       <c r="C170" t="n">
-        <v>160.3600006103516</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="D170" t="n">
-        <v>154.9700012207031</v>
+        <v>187.6100006103516</v>
       </c>
       <c r="E170" t="n">
-        <v>155.8099975585938</v>
+        <v>189.6999969482422</v>
       </c>
       <c r="F170" t="n">
-        <v>154.1025390625</v>
+        <v>188.7342071533203</v>
       </c>
       <c r="G170" t="n">
-        <v>76957800</v>
+        <v>45280000</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44810</v>
+        <v>45175</v>
       </c>
       <c r="B171" t="n">
-        <v>156.4700012207031</v>
+        <v>188.3999938964844</v>
       </c>
       <c r="C171" t="n">
-        <v>157.0899963378906</v>
+        <v>188.8500061035156</v>
       </c>
       <c r="D171" t="n">
-        <v>153.6900024414062</v>
+        <v>181.4700012207031</v>
       </c>
       <c r="E171" t="n">
-        <v>154.5299987792969</v>
+        <v>182.9100036621094</v>
       </c>
       <c r="F171" t="n">
-        <v>152.8365783691406</v>
+        <v>181.9787902832031</v>
       </c>
       <c r="G171" t="n">
-        <v>73714800</v>
+        <v>81755800</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44811</v>
+        <v>45176</v>
       </c>
       <c r="B172" t="n">
-        <v>154.8200073242188</v>
+        <v>175.1799926757812</v>
       </c>
       <c r="C172" t="n">
-        <v>156.6699981689453</v>
+        <v>178.2100067138672</v>
       </c>
       <c r="D172" t="n">
-        <v>153.6100006103516</v>
+        <v>173.5399932861328</v>
       </c>
       <c r="E172" t="n">
-        <v>155.9600067138672</v>
+        <v>177.5599975585938</v>
       </c>
       <c r="F172" t="n">
-        <v>154.2509460449219</v>
+        <v>176.6560363769531</v>
       </c>
       <c r="G172" t="n">
-        <v>87449600</v>
+        <v>112488800</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44812</v>
+        <v>45177</v>
       </c>
       <c r="B173" t="n">
-        <v>154.6399993896484</v>
+        <v>178.3500061035156</v>
       </c>
       <c r="C173" t="n">
-        <v>156.3600006103516</v>
+        <v>180.2400054931641</v>
       </c>
       <c r="D173" t="n">
-        <v>152.6799926757812</v>
+        <v>177.7899932861328</v>
       </c>
       <c r="E173" t="n">
-        <v>154.4600067138672</v>
+        <v>178.1799926757812</v>
       </c>
       <c r="F173" t="n">
-        <v>152.7673797607422</v>
+        <v>177.2728576660156</v>
       </c>
       <c r="G173" t="n">
-        <v>84923800</v>
+        <v>65551300</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44813</v>
+        <v>45180</v>
       </c>
       <c r="B174" t="n">
-        <v>155.4700012207031</v>
+        <v>180.0700073242188</v>
       </c>
       <c r="C174" t="n">
-        <v>157.8200073242188</v>
+        <v>180.3000030517578</v>
       </c>
       <c r="D174" t="n">
-        <v>154.75</v>
+        <v>177.3399963378906</v>
       </c>
       <c r="E174" t="n">
-        <v>157.3699951171875</v>
+        <v>179.3600006103516</v>
       </c>
       <c r="F174" t="n">
-        <v>155.6454772949219</v>
+        <v>178.4468688964844</v>
       </c>
       <c r="G174" t="n">
-        <v>68028800</v>
+        <v>58953100</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44816</v>
+        <v>45181</v>
       </c>
       <c r="B175" t="n">
-        <v>159.5899963378906</v>
+        <v>179.4900054931641</v>
       </c>
       <c r="C175" t="n">
-        <v>164.2599945068359</v>
+        <v>180.1300048828125</v>
       </c>
       <c r="D175" t="n">
-        <v>159.3000030517578</v>
+        <v>174.8200073242188</v>
       </c>
       <c r="E175" t="n">
-        <v>163.4299926757812</v>
+        <v>176.3000030517578</v>
       </c>
       <c r="F175" t="n">
-        <v>161.6390686035156</v>
+        <v>175.4024353027344</v>
       </c>
       <c r="G175" t="n">
-        <v>104956000</v>
+        <v>90370200</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44817</v>
+        <v>45182</v>
       </c>
       <c r="B176" t="n">
-        <v>159.8999938964844</v>
+        <v>176.5099945068359</v>
       </c>
       <c r="C176" t="n">
-        <v>160.5399932861328</v>
+        <v>177.3000030517578</v>
       </c>
       <c r="D176" t="n">
-        <v>153.3699951171875</v>
+        <v>173.9799957275391</v>
       </c>
       <c r="E176" t="n">
-        <v>153.8399963378906</v>
+        <v>174.2100067138672</v>
       </c>
       <c r="F176" t="n">
-        <v>152.1541442871094</v>
+        <v>173.3230895996094</v>
       </c>
       <c r="G176" t="n">
-        <v>122656600</v>
+        <v>84267900</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44818</v>
+        <v>45183</v>
       </c>
       <c r="B177" t="n">
-        <v>154.7899932861328</v>
+        <v>174</v>
       </c>
       <c r="C177" t="n">
-        <v>157.1000061035156</v>
+        <v>176.1000061035156</v>
       </c>
       <c r="D177" t="n">
-        <v>153.6100006103516</v>
+        <v>173.5800018310547</v>
       </c>
       <c r="E177" t="n">
-        <v>155.3099975585938</v>
+        <v>175.7400054931641</v>
       </c>
       <c r="F177" t="n">
-        <v>153.6080474853516</v>
+        <v>174.8453216552734</v>
       </c>
       <c r="G177" t="n">
-        <v>87965400</v>
+        <v>60895800</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44819</v>
+        <v>45184</v>
       </c>
       <c r="B178" t="n">
-        <v>154.6499938964844</v>
+        <v>176.4799957275391</v>
       </c>
       <c r="C178" t="n">
-        <v>155.2400054931641</v>
+        <v>176.5</v>
       </c>
       <c r="D178" t="n">
-        <v>151.3800048828125</v>
+        <v>173.8200073242188</v>
       </c>
       <c r="E178" t="n">
-        <v>152.3699951171875</v>
+        <v>175.0099945068359</v>
       </c>
       <c r="F178" t="n">
-        <v>150.7002410888672</v>
+        <v>174.1190032958984</v>
       </c>
       <c r="G178" t="n">
-        <v>90481100</v>
+        <v>109205100</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44820</v>
+        <v>45187</v>
       </c>
       <c r="B179" t="n">
-        <v>151.2100067138672</v>
+        <v>176.4799957275391</v>
       </c>
       <c r="C179" t="n">
-        <v>151.3500061035156</v>
+        <v>179.3800048828125</v>
       </c>
       <c r="D179" t="n">
-        <v>148.3699951171875</v>
+        <v>176.1699981689453</v>
       </c>
       <c r="E179" t="n">
-        <v>150.6999969482422</v>
+        <v>177.9700012207031</v>
       </c>
       <c r="F179" t="n">
-        <v>149.0485687255859</v>
+        <v>177.0639495849609</v>
       </c>
       <c r="G179" t="n">
-        <v>162278800</v>
+        <v>67257600</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44823</v>
+        <v>45188</v>
       </c>
       <c r="B180" t="n">
-        <v>149.3099975585938</v>
+        <v>177.5200042724609</v>
       </c>
       <c r="C180" t="n">
-        <v>154.5599975585938</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="D180" t="n">
-        <v>149.1000061035156</v>
+        <v>177.1300048828125</v>
       </c>
       <c r="E180" t="n">
-        <v>154.4799957275391</v>
+        <v>179.0700073242188</v>
       </c>
       <c r="F180" t="n">
-        <v>152.7871246337891</v>
+        <v>178.1583557128906</v>
       </c>
       <c r="G180" t="n">
-        <v>81474200</v>
+        <v>51826900</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44824</v>
+        <v>45189</v>
       </c>
       <c r="B181" t="n">
-        <v>153.3999938964844</v>
+        <v>179.2599945068359</v>
       </c>
       <c r="C181" t="n">
-        <v>158.0800018310547</v>
+        <v>179.6999969482422</v>
       </c>
       <c r="D181" t="n">
-        <v>153.0800018310547</v>
+        <v>175.3999938964844</v>
       </c>
       <c r="E181" t="n">
-        <v>156.8999938964844</v>
+        <v>175.4900054931641</v>
       </c>
       <c r="F181" t="n">
-        <v>155.1806030273438</v>
+        <v>174.5965728759766</v>
       </c>
       <c r="G181" t="n">
-        <v>107689800</v>
+        <v>58436200</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44825</v>
+        <v>45190</v>
       </c>
       <c r="B182" t="n">
-        <v>157.3399963378906</v>
+        <v>174.5500030517578</v>
       </c>
       <c r="C182" t="n">
-        <v>158.7400054931641</v>
+        <v>176.3000030517578</v>
       </c>
       <c r="D182" t="n">
-        <v>153.6000061035156</v>
+        <v>173.8600006103516</v>
       </c>
       <c r="E182" t="n">
-        <v>153.7200012207031</v>
+        <v>173.9299926757812</v>
       </c>
       <c r="F182" t="n">
-        <v>152.0354614257812</v>
+        <v>173.0445098876953</v>
       </c>
       <c r="G182" t="n">
-        <v>101696800</v>
+        <v>63047900</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44826</v>
+        <v>45191</v>
       </c>
       <c r="B183" t="n">
-        <v>152.3800048828125</v>
+        <v>174.6699981689453</v>
       </c>
       <c r="C183" t="n">
-        <v>154.4700012207031</v>
+        <v>177.0800018310547</v>
       </c>
       <c r="D183" t="n">
-        <v>150.9100036621094</v>
+        <v>174.0500030517578</v>
       </c>
       <c r="E183" t="n">
-        <v>152.7400054931641</v>
+        <v>174.7899932861328</v>
       </c>
       <c r="F183" t="n">
-        <v>151.0662231445312</v>
+        <v>173.9001312255859</v>
       </c>
       <c r="G183" t="n">
-        <v>86652500</v>
+        <v>56725400</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44827</v>
+        <v>45194</v>
       </c>
       <c r="B184" t="n">
-        <v>151.1900024414062</v>
+        <v>174.1999969482422</v>
       </c>
       <c r="C184" t="n">
-        <v>151.4700012207031</v>
+        <v>176.9700012207031</v>
       </c>
       <c r="D184" t="n">
-        <v>148.5599975585938</v>
+        <v>174.1499938964844</v>
       </c>
       <c r="E184" t="n">
-        <v>150.4299926757812</v>
+        <v>176.0800018310547</v>
       </c>
       <c r="F184" t="n">
-        <v>148.7815399169922</v>
+        <v>175.1835632324219</v>
       </c>
       <c r="G184" t="n">
-        <v>96029900</v>
+        <v>46172700</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44830</v>
+        <v>45195</v>
       </c>
       <c r="B185" t="n">
-        <v>149.6600036621094</v>
+        <v>174.8200073242188</v>
       </c>
       <c r="C185" t="n">
-        <v>153.7700042724609</v>
+        <v>175.1999969482422</v>
       </c>
       <c r="D185" t="n">
-        <v>149.6399993896484</v>
+        <v>171.6600036621094</v>
       </c>
       <c r="E185" t="n">
-        <v>150.7700042724609</v>
+        <v>171.9600067138672</v>
       </c>
       <c r="F185" t="n">
-        <v>149.1177978515625</v>
+        <v>171.0845336914062</v>
       </c>
       <c r="G185" t="n">
-        <v>93339400</v>
+        <v>64588900</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44831</v>
+        <v>45196</v>
       </c>
       <c r="B186" t="n">
-        <v>152.7400054931641</v>
+        <v>172.6199951171875</v>
       </c>
       <c r="C186" t="n">
-        <v>154.7200012207031</v>
+        <v>173.0399932861328</v>
       </c>
       <c r="D186" t="n">
-        <v>149.9499969482422</v>
+        <v>169.0500030517578</v>
       </c>
       <c r="E186" t="n">
-        <v>151.7599945068359</v>
+        <v>170.4299926757812</v>
       </c>
       <c r="F186" t="n">
-        <v>150.0969390869141</v>
+        <v>169.5623321533203</v>
       </c>
       <c r="G186" t="n">
-        <v>84442700</v>
+        <v>66921800</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44832</v>
+        <v>45197</v>
       </c>
       <c r="B187" t="n">
-        <v>147.6399993896484</v>
+        <v>169.3399963378906</v>
       </c>
       <c r="C187" t="n">
-        <v>150.6399993896484</v>
+        <v>172.0299987792969</v>
       </c>
       <c r="D187" t="n">
-        <v>144.8399963378906</v>
+        <v>167.6199951171875</v>
       </c>
       <c r="E187" t="n">
-        <v>149.8399963378906</v>
+        <v>170.6900024414062</v>
       </c>
       <c r="F187" t="n">
-        <v>148.1979675292969</v>
+        <v>169.8210144042969</v>
       </c>
       <c r="G187" t="n">
-        <v>146691400</v>
+        <v>56294400</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44833</v>
+        <v>45198</v>
       </c>
       <c r="B188" t="n">
-        <v>146.1000061035156</v>
+        <v>172.0200042724609</v>
       </c>
       <c r="C188" t="n">
-        <v>146.7200012207031</v>
+        <v>173.0700073242188</v>
       </c>
       <c r="D188" t="n">
-        <v>140.6799926757812</v>
+        <v>170.3399963378906</v>
       </c>
       <c r="E188" t="n">
-        <v>142.4799957275391</v>
+        <v>171.2100067138672</v>
       </c>
       <c r="F188" t="n">
-        <v>140.9186401367188</v>
+        <v>170.33837890625</v>
       </c>
       <c r="G188" t="n">
-        <v>128138200</v>
+        <v>51814200</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44834</v>
+        <v>45201</v>
       </c>
       <c r="B189" t="n">
-        <v>141.2799987792969</v>
+        <v>171.2200012207031</v>
       </c>
       <c r="C189" t="n">
-        <v>143.1000061035156</v>
+        <v>174.3000030517578</v>
       </c>
       <c r="D189" t="n">
-        <v>138</v>
+        <v>170.9299926757812</v>
       </c>
       <c r="E189" t="n">
-        <v>138.1999969482422</v>
+        <v>173.75</v>
       </c>
       <c r="F189" t="n">
-        <v>136.6855316162109</v>
+        <v>172.8654174804688</v>
       </c>
       <c r="G189" t="n">
-        <v>124925300</v>
+        <v>52164500</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44837</v>
+        <v>45202</v>
       </c>
       <c r="B190" t="n">
-        <v>138.2100067138672</v>
+        <v>172.2599945068359</v>
       </c>
       <c r="C190" t="n">
-        <v>143.0700073242188</v>
+        <v>173.6300048828125</v>
       </c>
       <c r="D190" t="n">
-        <v>137.6900024414062</v>
+        <v>170.8200073242188</v>
       </c>
       <c r="E190" t="n">
-        <v>142.4499969482422</v>
+        <v>172.3999938964844</v>
       </c>
       <c r="F190" t="n">
-        <v>140.8889770507812</v>
+        <v>171.5223083496094</v>
       </c>
       <c r="G190" t="n">
-        <v>114311700</v>
+        <v>49594600</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44838</v>
+        <v>45203</v>
       </c>
       <c r="B191" t="n">
-        <v>145.0299987792969</v>
+        <v>171.0899963378906</v>
       </c>
       <c r="C191" t="n">
-        <v>146.2200012207031</v>
+        <v>174.2100067138672</v>
       </c>
       <c r="D191" t="n">
-        <v>144.2599945068359</v>
+        <v>170.9700012207031</v>
       </c>
       <c r="E191" t="n">
-        <v>146.1000061035156</v>
+        <v>173.6600036621094</v>
       </c>
       <c r="F191" t="n">
-        <v>144.4989776611328</v>
+        <v>172.7758941650391</v>
       </c>
       <c r="G191" t="n">
-        <v>87830100</v>
+        <v>53020300</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44839</v>
+        <v>45204</v>
       </c>
       <c r="B192" t="n">
-        <v>144.0700073242188</v>
+        <v>173.7899932861328</v>
       </c>
       <c r="C192" t="n">
-        <v>147.3800048828125</v>
+        <v>175.4499969482422</v>
       </c>
       <c r="D192" t="n">
-        <v>143.0099945068359</v>
+        <v>172.6799926757812</v>
       </c>
       <c r="E192" t="n">
-        <v>146.3999938964844</v>
+        <v>174.9100036621094</v>
       </c>
       <c r="F192" t="n">
-        <v>144.7956695556641</v>
+        <v>174.01953125</v>
       </c>
       <c r="G192" t="n">
-        <v>79471000</v>
+        <v>48527900</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44840</v>
+        <v>45205</v>
       </c>
       <c r="B193" t="n">
-        <v>145.8099975585938</v>
+        <v>173.8000030517578</v>
       </c>
       <c r="C193" t="n">
-        <v>147.5399932861328</v>
+        <v>177.9900054931641</v>
       </c>
       <c r="D193" t="n">
-        <v>145.2200012207031</v>
+        <v>173.1799926757812</v>
       </c>
       <c r="E193" t="n">
-        <v>145.4299926757812</v>
+        <v>177.4900054931641</v>
       </c>
       <c r="F193" t="n">
-        <v>143.8363189697266</v>
+        <v>176.5863952636719</v>
       </c>
       <c r="G193" t="n">
-        <v>68402200</v>
+        <v>57224100</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44841</v>
+        <v>45208</v>
       </c>
       <c r="B194" t="n">
-        <v>142.5399932861328</v>
+        <v>176.8099975585938</v>
       </c>
       <c r="C194" t="n">
-        <v>143.1000061035156</v>
+        <v>179.0500030517578</v>
       </c>
       <c r="D194" t="n">
-        <v>139.4499969482422</v>
+        <v>175.8000030517578</v>
       </c>
       <c r="E194" t="n">
-        <v>140.0899963378906</v>
+        <v>178.9900054931641</v>
       </c>
       <c r="F194" t="n">
-        <v>138.5548553466797</v>
+        <v>178.0787658691406</v>
       </c>
       <c r="G194" t="n">
-        <v>85925600</v>
+        <v>42390800</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44844</v>
+        <v>45209</v>
       </c>
       <c r="B195" t="n">
-        <v>140.4199981689453</v>
+        <v>178.1000061035156</v>
       </c>
       <c r="C195" t="n">
-        <v>141.8899993896484</v>
+        <v>179.7200012207031</v>
       </c>
       <c r="D195" t="n">
-        <v>138.5700073242188</v>
+        <v>177.9499969482422</v>
       </c>
       <c r="E195" t="n">
-        <v>140.4199981689453</v>
+        <v>178.3899993896484</v>
       </c>
       <c r="F195" t="n">
-        <v>138.8811950683594</v>
+        <v>177.4818115234375</v>
       </c>
       <c r="G195" t="n">
-        <v>74899000</v>
+        <v>43698000</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44845</v>
+        <v>45210</v>
       </c>
       <c r="B196" t="n">
-        <v>139.8999938964844</v>
+        <v>178.1999969482422</v>
       </c>
       <c r="C196" t="n">
-        <v>141.3500061035156</v>
+        <v>179.8500061035156</v>
       </c>
       <c r="D196" t="n">
-        <v>138.2200012207031</v>
+        <v>177.6000061035156</v>
       </c>
       <c r="E196" t="n">
-        <v>138.9799957275391</v>
+        <v>179.8000030517578</v>
       </c>
       <c r="F196" t="n">
-        <v>137.4570007324219</v>
+        <v>178.8846282958984</v>
       </c>
       <c r="G196" t="n">
-        <v>77033700</v>
+        <v>47551100</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44846</v>
+        <v>45211</v>
       </c>
       <c r="B197" t="n">
-        <v>139.1300048828125</v>
+        <v>180.0700073242188</v>
       </c>
       <c r="C197" t="n">
-        <v>140.3600006103516</v>
+        <v>182.3399963378906</v>
       </c>
       <c r="D197" t="n">
-        <v>138.1600036621094</v>
+        <v>179.0399932861328</v>
       </c>
       <c r="E197" t="n">
-        <v>138.3399963378906</v>
+        <v>180.7100067138672</v>
       </c>
       <c r="F197" t="n">
-        <v>136.8240203857422</v>
+        <v>179.7899932861328</v>
       </c>
       <c r="G197" t="n">
-        <v>70433700</v>
+        <v>56743100</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44847</v>
+        <v>45212</v>
       </c>
       <c r="B198" t="n">
-        <v>134.9900054931641</v>
+        <v>181.4199981689453</v>
       </c>
       <c r="C198" t="n">
-        <v>143.5899963378906</v>
+        <v>181.9299926757812</v>
       </c>
       <c r="D198" t="n">
-        <v>134.3699951171875</v>
+        <v>178.1399993896484</v>
       </c>
       <c r="E198" t="n">
-        <v>142.9900054931641</v>
+        <v>178.8500061035156</v>
       </c>
       <c r="F198" t="n">
-        <v>141.4230804443359</v>
+        <v>177.939453125</v>
       </c>
       <c r="G198" t="n">
-        <v>113224000</v>
+        <v>51427100</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44848</v>
+        <v>45215</v>
       </c>
       <c r="B199" t="n">
-        <v>144.3099975585938</v>
+        <v>176.75</v>
       </c>
       <c r="C199" t="n">
-        <v>144.5200042724609</v>
+        <v>179.0800018310547</v>
       </c>
       <c r="D199" t="n">
-        <v>138.1900024414062</v>
+        <v>176.5099945068359</v>
       </c>
       <c r="E199" t="n">
-        <v>138.3800048828125</v>
+        <v>178.7200012207031</v>
       </c>
       <c r="F199" t="n">
-        <v>136.8635711669922</v>
+        <v>177.8101196289062</v>
       </c>
       <c r="G199" t="n">
-        <v>88598000</v>
+        <v>52517000</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44851</v>
+        <v>45216</v>
       </c>
       <c r="B200" t="n">
-        <v>141.0700073242188</v>
+        <v>176.6499938964844</v>
       </c>
       <c r="C200" t="n">
-        <v>142.8999938964844</v>
+        <v>178.4199981689453</v>
       </c>
       <c r="D200" t="n">
-        <v>140.2700042724609</v>
+        <v>174.8000030517578</v>
       </c>
       <c r="E200" t="n">
-        <v>142.4100036621094</v>
+        <v>177.1499938964844</v>
       </c>
       <c r="F200" t="n">
-        <v>140.8494262695312</v>
+        <v>176.2481079101562</v>
       </c>
       <c r="G200" t="n">
-        <v>85250900</v>
+        <v>57549400</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44852</v>
+        <v>45217</v>
       </c>
       <c r="B201" t="n">
-        <v>145.4900054931641</v>
+        <v>175.5800018310547</v>
       </c>
       <c r="C201" t="n">
-        <v>146.6999969482422</v>
+        <v>177.5800018310547</v>
       </c>
       <c r="D201" t="n">
-        <v>140.6100006103516</v>
+        <v>175.1100006103516</v>
       </c>
       <c r="E201" t="n">
-        <v>143.75</v>
+        <v>175.8399963378906</v>
       </c>
       <c r="F201" t="n">
-        <v>142.1747436523438</v>
+        <v>174.9447784423828</v>
       </c>
       <c r="G201" t="n">
-        <v>99136600</v>
+        <v>54764400</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44853</v>
+        <v>45218</v>
       </c>
       <c r="B202" t="n">
-        <v>141.6900024414062</v>
+        <v>176.0399932861328</v>
       </c>
       <c r="C202" t="n">
-        <v>144.9499969482422</v>
+        <v>177.8399963378906</v>
       </c>
       <c r="D202" t="n">
-        <v>141.5</v>
+        <v>175.1900024414062</v>
       </c>
       <c r="E202" t="n">
-        <v>143.8600006103516</v>
+        <v>175.4600067138672</v>
       </c>
       <c r="F202" t="n">
-        <v>142.2835235595703</v>
+        <v>174.5667419433594</v>
       </c>
       <c r="G202" t="n">
-        <v>61758300</v>
+        <v>59302900</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44854</v>
+        <v>45219</v>
       </c>
       <c r="B203" t="n">
-        <v>143.0200042724609</v>
+        <v>175.3099975585938</v>
       </c>
       <c r="C203" t="n">
-        <v>145.8899993896484</v>
+        <v>175.4199981689453</v>
       </c>
       <c r="D203" t="n">
-        <v>142.6499938964844</v>
+        <v>172.6399993896484</v>
       </c>
       <c r="E203" t="n">
-        <v>143.3899993896484</v>
+        <v>172.8800048828125</v>
       </c>
       <c r="F203" t="n">
-        <v>141.8186798095703</v>
+        <v>171.9998626708984</v>
       </c>
       <c r="G203" t="n">
-        <v>64522000</v>
+        <v>64189300</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44855</v>
+        <v>45222</v>
       </c>
       <c r="B204" t="n">
-        <v>142.8699951171875</v>
+        <v>170.9100036621094</v>
       </c>
       <c r="C204" t="n">
-        <v>147.8500061035156</v>
+        <v>174.0099945068359</v>
       </c>
       <c r="D204" t="n">
-        <v>142.6499938964844</v>
+        <v>169.9299926757812</v>
       </c>
       <c r="E204" t="n">
-        <v>147.2700042724609</v>
+        <v>173</v>
       </c>
       <c r="F204" t="n">
-        <v>145.6561431884766</v>
+        <v>172.1192474365234</v>
       </c>
       <c r="G204" t="n">
-        <v>86548600</v>
+        <v>55980100</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44858</v>
+        <v>45223</v>
       </c>
       <c r="B205" t="n">
-        <v>147.1900024414062</v>
+        <v>173.0500030517578</v>
       </c>
       <c r="C205" t="n">
-        <v>150.2299957275391</v>
+        <v>173.6699981689453</v>
       </c>
       <c r="D205" t="n">
-        <v>146</v>
+        <v>171.4499969482422</v>
       </c>
       <c r="E205" t="n">
-        <v>149.4499969482422</v>
+        <v>173.4400024414062</v>
       </c>
       <c r="F205" t="n">
-        <v>147.812255859375</v>
+        <v>172.5570068359375</v>
       </c>
       <c r="G205" t="n">
-        <v>75981900</v>
+        <v>43816600</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44859</v>
+        <v>45224</v>
       </c>
       <c r="B206" t="n">
-        <v>150.0899963378906</v>
+        <v>171.8800048828125</v>
       </c>
       <c r="C206" t="n">
-        <v>152.4900054931641</v>
+        <v>173.0599975585938</v>
       </c>
       <c r="D206" t="n">
-        <v>149.3600006103516</v>
+        <v>170.6499938964844</v>
       </c>
       <c r="E206" t="n">
-        <v>152.3399963378906</v>
+        <v>171.1000061035156</v>
       </c>
       <c r="F206" t="n">
-        <v>150.6705932617188</v>
+        <v>170.2289276123047</v>
       </c>
       <c r="G206" t="n">
-        <v>74732300</v>
+        <v>57157000</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44860</v>
+        <v>45225</v>
       </c>
       <c r="B207" t="n">
-        <v>150.9600067138672</v>
+        <v>170.3699951171875</v>
       </c>
       <c r="C207" t="n">
-        <v>151.9900054931641</v>
+        <v>171.3800048828125</v>
       </c>
       <c r="D207" t="n">
-        <v>148.0399932861328</v>
+        <v>165.6699981689453</v>
       </c>
       <c r="E207" t="n">
-        <v>149.3500061035156</v>
+        <v>166.8899993896484</v>
       </c>
       <c r="F207" t="n">
-        <v>147.7133483886719</v>
+        <v>166.0403594970703</v>
       </c>
       <c r="G207" t="n">
-        <v>88194300</v>
+        <v>70625300</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44861</v>
+        <v>45226</v>
       </c>
       <c r="B208" t="n">
-        <v>148.0700073242188</v>
+        <v>166.9100036621094</v>
       </c>
       <c r="C208" t="n">
-        <v>149.0500030517578</v>
+        <v>168.9600067138672</v>
       </c>
       <c r="D208" t="n">
-        <v>144.1300048828125</v>
+        <v>166.8300018310547</v>
       </c>
       <c r="E208" t="n">
-        <v>144.8000030517578</v>
+        <v>168.2200012207031</v>
       </c>
       <c r="F208" t="n">
-        <v>143.2132110595703</v>
+        <v>167.3635864257812</v>
       </c>
       <c r="G208" t="n">
-        <v>109180200</v>
+        <v>58499100</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44862</v>
+        <v>45229</v>
       </c>
       <c r="B209" t="n">
-        <v>148.1999969482422</v>
+        <v>169.0200042724609</v>
       </c>
       <c r="C209" t="n">
-        <v>157.5</v>
+        <v>171.1699981689453</v>
       </c>
       <c r="D209" t="n">
-        <v>147.8200073242188</v>
+        <v>168.8699951171875</v>
       </c>
       <c r="E209" t="n">
-        <v>155.7400054931641</v>
+        <v>170.2899932861328</v>
       </c>
       <c r="F209" t="n">
-        <v>154.0333557128906</v>
+        <v>169.4230346679688</v>
       </c>
       <c r="G209" t="n">
-        <v>164762400</v>
+        <v>51131000</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44865</v>
+        <v>45230</v>
       </c>
       <c r="B210" t="n">
-        <v>153.1600036621094</v>
+        <v>169.3500061035156</v>
       </c>
       <c r="C210" t="n">
-        <v>154.2400054931641</v>
+        <v>170.8999938964844</v>
       </c>
       <c r="D210" t="n">
-        <v>151.9199981689453</v>
+        <v>167.8999938964844</v>
       </c>
       <c r="E210" t="n">
-        <v>153.3399963378906</v>
+        <v>170.7700042724609</v>
       </c>
       <c r="F210" t="n">
-        <v>151.6596527099609</v>
+        <v>169.9006195068359</v>
       </c>
       <c r="G210" t="n">
-        <v>97943200</v>
+        <v>44846000</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44866</v>
+        <v>45231</v>
       </c>
       <c r="B211" t="n">
-        <v>155.0800018310547</v>
+        <v>171</v>
       </c>
       <c r="C211" t="n">
-        <v>155.4499969482422</v>
+        <v>174.2299957275391</v>
       </c>
       <c r="D211" t="n">
-        <v>149.1300048828125</v>
+        <v>170.1199951171875</v>
       </c>
       <c r="E211" t="n">
-        <v>150.6499938964844</v>
+        <v>173.9700012207031</v>
       </c>
       <c r="F211" t="n">
-        <v>148.9990997314453</v>
+        <v>173.0843200683594</v>
       </c>
       <c r="G211" t="n">
-        <v>80379300</v>
+        <v>56934900</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44867</v>
+        <v>45232</v>
       </c>
       <c r="B212" t="n">
-        <v>148.9499969482422</v>
+        <v>175.5200042724609</v>
       </c>
       <c r="C212" t="n">
-        <v>152.1699981689453</v>
+        <v>177.7799987792969</v>
       </c>
       <c r="D212" t="n">
-        <v>145</v>
+        <v>175.4600067138672</v>
       </c>
       <c r="E212" t="n">
-        <v>145.0299987792969</v>
+        <v>177.5700073242188</v>
       </c>
       <c r="F212" t="n">
-        <v>143.4407043457031</v>
+        <v>176.6659851074219</v>
       </c>
       <c r="G212" t="n">
-        <v>93604600</v>
+        <v>77334800</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44868</v>
+        <v>45233</v>
       </c>
       <c r="B213" t="n">
-        <v>142.0599975585938</v>
+        <v>174.2400054931641</v>
       </c>
       <c r="C213" t="n">
-        <v>142.8000030517578</v>
+        <v>176.8200073242188</v>
       </c>
       <c r="D213" t="n">
-        <v>138.75</v>
+        <v>173.3500061035156</v>
       </c>
       <c r="E213" t="n">
-        <v>138.8800048828125</v>
+        <v>176.6499938964844</v>
       </c>
       <c r="F213" t="n">
-        <v>137.3580932617188</v>
+        <v>175.7506713867188</v>
       </c>
       <c r="G213" t="n">
-        <v>97918500</v>
+        <v>79763700</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44869</v>
+        <v>45236</v>
       </c>
       <c r="B214" t="n">
-        <v>142.0899963378906</v>
+        <v>176.3800048828125</v>
       </c>
       <c r="C214" t="n">
-        <v>142.6699981689453</v>
+        <v>179.4299926757812</v>
       </c>
       <c r="D214" t="n">
-        <v>134.3800048828125</v>
+        <v>176.2100067138672</v>
       </c>
       <c r="E214" t="n">
-        <v>138.3800048828125</v>
+        <v>179.2299957275391</v>
       </c>
       <c r="F214" t="n">
-        <v>137.0906066894531</v>
+        <v>178.3175354003906</v>
       </c>
       <c r="G214" t="n">
-        <v>140814800</v>
+        <v>63841300</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44872</v>
+        <v>45237</v>
       </c>
       <c r="B215" t="n">
-        <v>137.1100006103516</v>
+        <v>179.1799926757812</v>
       </c>
       <c r="C215" t="n">
-        <v>139.1499938964844</v>
+        <v>182.4400024414062</v>
       </c>
       <c r="D215" t="n">
-        <v>135.6699981689453</v>
+        <v>178.9700012207031</v>
       </c>
       <c r="E215" t="n">
-        <v>138.9199981689453</v>
+        <v>181.8200073242188</v>
       </c>
       <c r="F215" t="n">
-        <v>137.6255798339844</v>
+        <v>180.8943481445312</v>
       </c>
       <c r="G215" t="n">
-        <v>83374600</v>
+        <v>70530000</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44873</v>
+        <v>45238</v>
       </c>
       <c r="B216" t="n">
-        <v>140.4100036621094</v>
+        <v>182.3500061035156</v>
       </c>
       <c r="C216" t="n">
-        <v>141.4299926757812</v>
+        <v>183.4499969482422</v>
       </c>
       <c r="D216" t="n">
-        <v>137.4900054931641</v>
+        <v>181.5899963378906</v>
       </c>
       <c r="E216" t="n">
-        <v>139.5</v>
+        <v>182.8899993896484</v>
       </c>
       <c r="F216" t="n">
-        <v>138.2001647949219</v>
+        <v>181.9589080810547</v>
       </c>
       <c r="G216" t="n">
-        <v>89908500</v>
+        <v>49340300</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44874</v>
+        <v>45239</v>
       </c>
       <c r="B217" t="n">
-        <v>138.5</v>
+        <v>182.9600067138672</v>
       </c>
       <c r="C217" t="n">
-        <v>138.5500030517578</v>
+        <v>184.1199951171875</v>
       </c>
       <c r="D217" t="n">
-        <v>134.5899963378906</v>
+        <v>181.8099975585938</v>
       </c>
       <c r="E217" t="n">
-        <v>134.8699951171875</v>
+        <v>182.4100036621094</v>
       </c>
       <c r="F217" t="n">
-        <v>133.6133117675781</v>
+        <v>181.4813385009766</v>
       </c>
       <c r="G217" t="n">
-        <v>74917800</v>
+        <v>53763500</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44875</v>
+        <v>45240</v>
       </c>
       <c r="B218" t="n">
-        <v>141.2400054931641</v>
+        <v>183.9700012207031</v>
       </c>
       <c r="C218" t="n">
-        <v>146.8699951171875</v>
+        <v>186.5700073242188</v>
       </c>
       <c r="D218" t="n">
-        <v>139.5</v>
+        <v>183.5299987792969</v>
       </c>
       <c r="E218" t="n">
-        <v>146.8699951171875</v>
+        <v>186.3999938964844</v>
       </c>
       <c r="F218" t="n">
-        <v>145.5015106201172</v>
+        <v>185.6953582763672</v>
       </c>
       <c r="G218" t="n">
-        <v>118854000</v>
+        <v>66133400</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44876</v>
+        <v>45243</v>
       </c>
       <c r="B219" t="n">
-        <v>145.8200073242188</v>
+        <v>185.8200073242188</v>
       </c>
       <c r="C219" t="n">
-        <v>150.0099945068359</v>
+        <v>186.0299987792969</v>
       </c>
       <c r="D219" t="n">
-        <v>144.3699951171875</v>
+        <v>184.2100067138672</v>
       </c>
       <c r="E219" t="n">
-        <v>149.6999969482422</v>
+        <v>184.8000030517578</v>
       </c>
       <c r="F219" t="n">
-        <v>148.3051300048828</v>
+        <v>184.1013946533203</v>
       </c>
       <c r="G219" t="n">
-        <v>93979700</v>
+        <v>43627500</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44879</v>
+        <v>45244</v>
       </c>
       <c r="B220" t="n">
-        <v>148.9700012207031</v>
+        <v>187.6999969482422</v>
       </c>
       <c r="C220" t="n">
-        <v>150.2799987792969</v>
+        <v>188.1100006103516</v>
       </c>
       <c r="D220" t="n">
-        <v>147.4299926757812</v>
+        <v>186.3000030517578</v>
       </c>
       <c r="E220" t="n">
-        <v>148.2799987792969</v>
+        <v>187.4400024414062</v>
       </c>
       <c r="F220" t="n">
-        <v>146.8983612060547</v>
+        <v>186.7314147949219</v>
       </c>
       <c r="G220" t="n">
-        <v>73374100</v>
+        <v>60108400</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44880</v>
+        <v>45245</v>
       </c>
       <c r="B221" t="n">
-        <v>152.2200012207031</v>
+        <v>187.8500061035156</v>
       </c>
       <c r="C221" t="n">
-        <v>153.5899963378906</v>
+        <v>189.5</v>
       </c>
       <c r="D221" t="n">
-        <v>148.5599975585938</v>
+        <v>187.7799987792969</v>
       </c>
       <c r="E221" t="n">
-        <v>150.0399932861328</v>
+        <v>188.0099945068359</v>
       </c>
       <c r="F221" t="n">
-        <v>148.6419525146484</v>
+        <v>187.2992706298828</v>
       </c>
       <c r="G221" t="n">
-        <v>89868300</v>
+        <v>53790500</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44881</v>
+        <v>45246</v>
       </c>
       <c r="B222" t="n">
-        <v>149.1300048828125</v>
+        <v>189.5700073242188</v>
       </c>
       <c r="C222" t="n">
-        <v>149.8699951171875</v>
+        <v>190.9600067138672</v>
       </c>
       <c r="D222" t="n">
-        <v>147.2899932861328</v>
+        <v>188.6499938964844</v>
       </c>
       <c r="E222" t="n">
-        <v>148.7899932861328</v>
+        <v>189.7100067138672</v>
       </c>
       <c r="F222" t="n">
-        <v>147.4035949707031</v>
+        <v>188.9928436279297</v>
       </c>
       <c r="G222" t="n">
-        <v>64218300</v>
+        <v>54412900</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44882</v>
+        <v>45247</v>
       </c>
       <c r="B223" t="n">
-        <v>146.4299926757812</v>
+        <v>190.25</v>
       </c>
       <c r="C223" t="n">
-        <v>151.4799957275391</v>
+        <v>190.3800048828125</v>
       </c>
       <c r="D223" t="n">
-        <v>146.1499938964844</v>
+        <v>188.5700073242188</v>
       </c>
       <c r="E223" t="n">
-        <v>150.7200012207031</v>
+        <v>189.6900024414062</v>
       </c>
       <c r="F223" t="n">
-        <v>149.3156433105469</v>
+        <v>188.972900390625</v>
       </c>
       <c r="G223" t="n">
-        <v>80389400</v>
+        <v>50922700</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44883</v>
+        <v>45250</v>
       </c>
       <c r="B224" t="n">
-        <v>152.3099975585938</v>
+        <v>189.8899993896484</v>
       </c>
       <c r="C224" t="n">
-        <v>152.6999969482422</v>
+        <v>191.9100036621094</v>
       </c>
       <c r="D224" t="n">
-        <v>149.9700012207031</v>
+        <v>189.8800048828125</v>
       </c>
       <c r="E224" t="n">
-        <v>151.2899932861328</v>
+        <v>191.4499969482422</v>
       </c>
       <c r="F224" t="n">
-        <v>149.8803253173828</v>
+        <v>190.7262573242188</v>
       </c>
       <c r="G224" t="n">
-        <v>74829600</v>
+        <v>46505100</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44886</v>
+        <v>45251</v>
       </c>
       <c r="B225" t="n">
-        <v>150.1600036621094</v>
+        <v>191.4100036621094</v>
       </c>
       <c r="C225" t="n">
-        <v>150.3699951171875</v>
+        <v>191.5200042724609</v>
       </c>
       <c r="D225" t="n">
-        <v>147.7200012207031</v>
+        <v>189.7400054931641</v>
       </c>
       <c r="E225" t="n">
-        <v>148.0099945068359</v>
+        <v>190.6399993896484</v>
       </c>
       <c r="F225" t="n">
-        <v>146.6308746337891</v>
+        <v>189.9193115234375</v>
       </c>
       <c r="G225" t="n">
-        <v>58724100</v>
+        <v>38134500</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44887</v>
+        <v>45252</v>
       </c>
       <c r="B226" t="n">
-        <v>148.1300048828125</v>
+        <v>191.4900054931641</v>
       </c>
       <c r="C226" t="n">
-        <v>150.4199981689453</v>
+        <v>192.9299926757812</v>
       </c>
       <c r="D226" t="n">
-        <v>146.9299926757812</v>
+        <v>190.8300018310547</v>
       </c>
       <c r="E226" t="n">
-        <v>150.1799926757812</v>
+        <v>191.3099975585938</v>
       </c>
       <c r="F226" t="n">
-        <v>148.7806701660156</v>
+        <v>190.5867919921875</v>
       </c>
       <c r="G226" t="n">
-        <v>51804100</v>
+        <v>39617700</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44888</v>
+        <v>45254</v>
       </c>
       <c r="B227" t="n">
-        <v>149.4499969482422</v>
+        <v>190.8699951171875</v>
       </c>
       <c r="C227" t="n">
-        <v>151.8300018310547</v>
+        <v>190.8999938964844</v>
       </c>
       <c r="D227" t="n">
-        <v>149.3399963378906</v>
+        <v>189.25</v>
       </c>
       <c r="E227" t="n">
-        <v>151.0700073242188</v>
+        <v>189.9700012207031</v>
       </c>
       <c r="F227" t="n">
-        <v>149.6623840332031</v>
+        <v>189.2518463134766</v>
       </c>
       <c r="G227" t="n">
-        <v>58301400</v>
+        <v>24048300</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44890</v>
+        <v>45257</v>
       </c>
       <c r="B228" t="n">
-        <v>148.3099975585938</v>
+        <v>189.9199981689453</v>
       </c>
       <c r="C228" t="n">
-        <v>148.8800048828125</v>
+        <v>190.6699981689453</v>
       </c>
       <c r="D228" t="n">
-        <v>147.1199951171875</v>
+        <v>188.8999938964844</v>
       </c>
       <c r="E228" t="n">
-        <v>148.1100006103516</v>
+        <v>189.7899932861328</v>
       </c>
       <c r="F228" t="n">
-        <v>146.7299194335938</v>
+        <v>189.0725250244141</v>
       </c>
       <c r="G228" t="n">
-        <v>35195900</v>
+        <v>40552600</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44893</v>
+        <v>45258</v>
       </c>
       <c r="B229" t="n">
-        <v>145.1399993896484</v>
+        <v>189.7799987792969</v>
       </c>
       <c r="C229" t="n">
-        <v>146.6399993896484</v>
+        <v>191.0800018310547</v>
       </c>
       <c r="D229" t="n">
-        <v>143.3800048828125</v>
+        <v>189.3999938964844</v>
       </c>
       <c r="E229" t="n">
-        <v>144.2200012207031</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="F229" t="n">
-        <v>142.8761901855469</v>
+        <v>189.6802062988281</v>
       </c>
       <c r="G229" t="n">
-        <v>69246000</v>
+        <v>38415400</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44894</v>
+        <v>45259</v>
       </c>
       <c r="B230" t="n">
-        <v>144.2899932861328</v>
+        <v>190.8999938964844</v>
       </c>
       <c r="C230" t="n">
-        <v>144.8099975585938</v>
+        <v>192.0899963378906</v>
       </c>
       <c r="D230" t="n">
-        <v>140.3500061035156</v>
+        <v>188.9700012207031</v>
       </c>
       <c r="E230" t="n">
-        <v>141.1699981689453</v>
+        <v>189.3699951171875</v>
       </c>
       <c r="F230" t="n">
-        <v>139.8546295166016</v>
+        <v>188.6541290283203</v>
       </c>
       <c r="G230" t="n">
-        <v>83763800</v>
+        <v>43014200</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44895</v>
+        <v>45260</v>
       </c>
       <c r="B231" t="n">
-        <v>141.3999938964844</v>
+        <v>189.8399963378906</v>
       </c>
       <c r="C231" t="n">
-        <v>148.7200012207031</v>
+        <v>190.3200073242188</v>
       </c>
       <c r="D231" t="n">
-        <v>140.5500030517578</v>
+        <v>188.1900024414062</v>
       </c>
       <c r="E231" t="n">
-        <v>148.0299987792969</v>
+        <v>189.9499969482422</v>
       </c>
       <c r="F231" t="n">
-        <v>146.6506652832031</v>
+        <v>189.23193359375</v>
       </c>
       <c r="G231" t="n">
-        <v>111380900</v>
+        <v>48794400</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44896</v>
+        <v>45261</v>
       </c>
       <c r="B232" t="n">
-        <v>148.2100067138672</v>
+        <v>190.3300018310547</v>
       </c>
       <c r="C232" t="n">
-        <v>149.1300048828125</v>
+        <v>191.5599975585938</v>
       </c>
       <c r="D232" t="n">
-        <v>146.6100006103516</v>
+        <v>189.2299957275391</v>
       </c>
       <c r="E232" t="n">
-        <v>148.3099975585938</v>
+        <v>191.2400054931641</v>
       </c>
       <c r="F232" t="n">
-        <v>146.9280700683594</v>
+        <v>190.5170593261719</v>
       </c>
       <c r="G232" t="n">
-        <v>71250400</v>
+        <v>45679300</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44897</v>
+        <v>45264</v>
       </c>
       <c r="B233" t="n">
-        <v>145.9600067138672</v>
+        <v>189.9799957275391</v>
       </c>
       <c r="C233" t="n">
-        <v>148</v>
+        <v>190.0500030517578</v>
       </c>
       <c r="D233" t="n">
-        <v>145.6499938964844</v>
+        <v>187.4499969482422</v>
       </c>
       <c r="E233" t="n">
-        <v>147.8099975585938</v>
+        <v>189.4299926757812</v>
       </c>
       <c r="F233" t="n">
-        <v>146.4327392578125</v>
+        <v>188.7138824462891</v>
       </c>
       <c r="G233" t="n">
-        <v>65447400</v>
+        <v>43389500</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44900</v>
+        <v>45265</v>
       </c>
       <c r="B234" t="n">
-        <v>147.7700042724609</v>
+        <v>190.2100067138672</v>
       </c>
       <c r="C234" t="n">
-        <v>150.9199981689453</v>
+        <v>194.3999938964844</v>
       </c>
       <c r="D234" t="n">
-        <v>145.7700042724609</v>
+        <v>190.1799926757812</v>
       </c>
       <c r="E234" t="n">
-        <v>146.6300048828125</v>
+        <v>193.4199981689453</v>
       </c>
       <c r="F234" t="n">
-        <v>145.2637481689453</v>
+        <v>192.6888122558594</v>
       </c>
       <c r="G234" t="n">
-        <v>68826400</v>
+        <v>66628400</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44901</v>
+        <v>45266</v>
       </c>
       <c r="B235" t="n">
-        <v>147.0700073242188</v>
+        <v>194.4499969482422</v>
       </c>
       <c r="C235" t="n">
-        <v>147.3000030517578</v>
+        <v>194.7599945068359</v>
       </c>
       <c r="D235" t="n">
-        <v>141.9199981689453</v>
+        <v>192.1100006103516</v>
       </c>
       <c r="E235" t="n">
-        <v>142.9100036621094</v>
+        <v>192.3200073242188</v>
       </c>
       <c r="F235" t="n">
-        <v>141.5783996582031</v>
+        <v>191.5929718017578</v>
       </c>
       <c r="G235" t="n">
-        <v>64727200</v>
+        <v>41089700</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44902</v>
+        <v>45267</v>
       </c>
       <c r="B236" t="n">
-        <v>142.1900024414062</v>
+        <v>193.6300048828125</v>
       </c>
       <c r="C236" t="n">
-        <v>143.3699951171875</v>
+        <v>195</v>
       </c>
       <c r="D236" t="n">
-        <v>140</v>
+        <v>193.5899963378906</v>
       </c>
       <c r="E236" t="n">
-        <v>140.9400024414062</v>
+        <v>194.2700042724609</v>
       </c>
       <c r="F236" t="n">
-        <v>139.6267547607422</v>
+        <v>193.5355987548828</v>
       </c>
       <c r="G236" t="n">
-        <v>69721100</v>
+        <v>47477700</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44903</v>
+        <v>45268</v>
       </c>
       <c r="B237" t="n">
-        <v>142.3600006103516</v>
+        <v>194.1999969482422</v>
       </c>
       <c r="C237" t="n">
-        <v>143.5200042724609</v>
+        <v>195.9900054931641</v>
       </c>
       <c r="D237" t="n">
-        <v>141.1000061035156</v>
+        <v>193.6699981689453</v>
       </c>
       <c r="E237" t="n">
-        <v>142.6499938964844</v>
+        <v>195.7100067138672</v>
       </c>
       <c r="F237" t="n">
-        <v>141.3208160400391</v>
+        <v>194.9701538085938</v>
       </c>
       <c r="G237" t="n">
-        <v>62128300</v>
+        <v>53377300</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44904</v>
+        <v>45271</v>
       </c>
       <c r="B238" t="n">
-        <v>142.3399963378906</v>
+        <v>193.1100006103516</v>
       </c>
       <c r="C238" t="n">
-        <v>145.5700073242188</v>
+        <v>193.4900054931641</v>
       </c>
       <c r="D238" t="n">
-        <v>140.8999938964844</v>
+        <v>191.4199981689453</v>
       </c>
       <c r="E238" t="n">
-        <v>142.1600036621094</v>
+        <v>193.1799926757812</v>
       </c>
       <c r="F238" t="n">
-        <v>140.8354187011719</v>
+        <v>192.44970703125</v>
       </c>
       <c r="G238" t="n">
-        <v>76097000</v>
+        <v>60943700</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44907</v>
+        <v>45272</v>
       </c>
       <c r="B239" t="n">
-        <v>142.6999969482422</v>
+        <v>193.0800018310547</v>
       </c>
       <c r="C239" t="n">
-        <v>144.5</v>
+        <v>194.7200012207031</v>
       </c>
       <c r="D239" t="n">
-        <v>141.0599975585938</v>
+        <v>191.7200012207031</v>
       </c>
       <c r="E239" t="n">
-        <v>144.4900054931641</v>
+        <v>194.7100067138672</v>
       </c>
       <c r="F239" t="n">
-        <v>143.1436920166016</v>
+        <v>193.9739532470703</v>
       </c>
       <c r="G239" t="n">
-        <v>70462700</v>
+        <v>52696900</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44908</v>
+        <v>45273</v>
       </c>
       <c r="B240" t="n">
-        <v>149.5</v>
+        <v>195.0899963378906</v>
       </c>
       <c r="C240" t="n">
-        <v>149.9700012207031</v>
+        <v>198</v>
       </c>
       <c r="D240" t="n">
-        <v>144.2400054931641</v>
+        <v>194.8500061035156</v>
       </c>
       <c r="E240" t="n">
-        <v>145.4700012207031</v>
+        <v>197.9600067138672</v>
       </c>
       <c r="F240" t="n">
-        <v>144.1145629882812</v>
+        <v>197.211669921875</v>
       </c>
       <c r="G240" t="n">
-        <v>93886200</v>
+        <v>70404200</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44909</v>
+        <v>45274</v>
       </c>
       <c r="B241" t="n">
-        <v>145.3500061035156</v>
+        <v>198.0200042724609</v>
       </c>
       <c r="C241" t="n">
-        <v>146.6600036621094</v>
+        <v>199.6199951171875</v>
       </c>
       <c r="D241" t="n">
-        <v>141.1600036621094</v>
+        <v>196.1600036621094</v>
       </c>
       <c r="E241" t="n">
-        <v>143.2100067138672</v>
+        <v>198.1100006103516</v>
       </c>
       <c r="F241" t="n">
-        <v>141.8756256103516</v>
+        <v>197.361083984375</v>
       </c>
       <c r="G241" t="n">
-        <v>82291200</v>
+        <v>66831600</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44910</v>
+        <v>45275</v>
       </c>
       <c r="B242" t="n">
-        <v>141.1100006103516</v>
+        <v>197.5299987792969</v>
       </c>
       <c r="C242" t="n">
-        <v>141.8000030517578</v>
+        <v>198.3999938964844</v>
       </c>
       <c r="D242" t="n">
-        <v>136.0299987792969</v>
+        <v>197</v>
       </c>
       <c r="E242" t="n">
-        <v>136.5</v>
+        <v>197.5700073242188</v>
       </c>
       <c r="F242" t="n">
-        <v>135.2281341552734</v>
+        <v>196.8231201171875</v>
       </c>
       <c r="G242" t="n">
-        <v>98931900</v>
+        <v>128256700</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44911</v>
+        <v>45278</v>
       </c>
       <c r="B243" t="n">
-        <v>136.6900024414062</v>
+        <v>196.0899963378906</v>
       </c>
       <c r="C243" t="n">
-        <v>137.6499938964844</v>
+        <v>196.6300048828125</v>
       </c>
       <c r="D243" t="n">
-        <v>133.7299957275391</v>
+        <v>194.3899993896484</v>
       </c>
       <c r="E243" t="n">
-        <v>134.5099945068359</v>
+        <v>195.8899993896484</v>
       </c>
       <c r="F243" t="n">
-        <v>133.2566680908203</v>
+        <v>195.1494750976562</v>
       </c>
       <c r="G243" t="n">
-        <v>160156900</v>
+        <v>55751900</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44914</v>
+        <v>45279</v>
       </c>
       <c r="B244" t="n">
-        <v>135.1100006103516</v>
+        <v>196.1600036621094</v>
       </c>
       <c r="C244" t="n">
-        <v>135.1999969482422</v>
+        <v>196.9499969482422</v>
       </c>
       <c r="D244" t="n">
-        <v>131.3200073242188</v>
+        <v>195.8899993896484</v>
       </c>
       <c r="E244" t="n">
-        <v>132.3699951171875</v>
+        <v>196.9400024414062</v>
       </c>
       <c r="F244" t="n">
-        <v>131.1365966796875</v>
+        <v>196.1955108642578</v>
       </c>
       <c r="G244" t="n">
-        <v>79592600</v>
+        <v>40714100</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44915</v>
+        <v>45280</v>
       </c>
       <c r="B245" t="n">
-        <v>131.3899993896484</v>
+        <v>196.8999938964844</v>
       </c>
       <c r="C245" t="n">
-        <v>133.25</v>
+        <v>197.6799926757812</v>
       </c>
       <c r="D245" t="n">
-        <v>129.8899993896484</v>
+        <v>194.8300018310547</v>
       </c>
       <c r="E245" t="n">
-        <v>132.3000030517578</v>
+        <v>194.8300018310547</v>
       </c>
       <c r="F245" t="n">
-        <v>131.0672760009766</v>
+        <v>194.0934906005859</v>
       </c>
       <c r="G245" t="n">
-        <v>77432800</v>
+        <v>52242800</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44916</v>
+        <v>45281</v>
       </c>
       <c r="B246" t="n">
-        <v>132.9799957275391</v>
+        <v>196.1000061035156</v>
       </c>
       <c r="C246" t="n">
-        <v>136.8099975585938</v>
+        <v>197.0800018310547</v>
       </c>
       <c r="D246" t="n">
-        <v>132.75</v>
+        <v>193.5</v>
       </c>
       <c r="E246" t="n">
-        <v>135.4499969482422</v>
+        <v>194.6799926757812</v>
       </c>
       <c r="F246" t="n">
-        <v>134.1878967285156</v>
+        <v>193.9440307617188</v>
       </c>
       <c r="G246" t="n">
-        <v>85928000</v>
+        <v>46482500</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44917</v>
+        <v>45282</v>
       </c>
       <c r="B247" t="n">
-        <v>134.3500061035156</v>
+        <v>195.1799926757812</v>
       </c>
       <c r="C247" t="n">
-        <v>134.5599975585938</v>
+        <v>195.4100036621094</v>
       </c>
       <c r="D247" t="n">
-        <v>130.3000030517578</v>
+        <v>192.9700012207031</v>
       </c>
       <c r="E247" t="n">
-        <v>132.2299957275391</v>
+        <v>193.6000061035156</v>
       </c>
       <c r="F247" t="n">
-        <v>130.9979248046875</v>
+        <v>192.8681335449219</v>
       </c>
       <c r="G247" t="n">
-        <v>77852100</v>
+        <v>37122800</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44918</v>
+        <v>45286</v>
       </c>
       <c r="B248" t="n">
-        <v>130.9199981689453</v>
+        <v>193.6100006103516</v>
       </c>
       <c r="C248" t="n">
-        <v>132.4199981689453</v>
+        <v>193.8899993896484</v>
       </c>
       <c r="D248" t="n">
-        <v>129.6399993896484</v>
+        <v>192.8300018310547</v>
       </c>
       <c r="E248" t="n">
-        <v>131.8600006103516</v>
+        <v>193.0500030517578</v>
       </c>
       <c r="F248" t="n">
-        <v>130.6313629150391</v>
+        <v>192.3202209472656</v>
       </c>
       <c r="G248" t="n">
-        <v>63814900</v>
+        <v>28919300</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44922</v>
+        <v>45287</v>
       </c>
       <c r="B249" t="n">
-        <v>131.3800048828125</v>
+        <v>192.4900054931641</v>
       </c>
       <c r="C249" t="n">
-        <v>131.4100036621094</v>
+        <v>193.5</v>
       </c>
       <c r="D249" t="n">
-        <v>128.7200012207031</v>
+        <v>191.0899963378906</v>
       </c>
       <c r="E249" t="n">
-        <v>130.0299987792969</v>
+        <v>193.1499938964844</v>
       </c>
       <c r="F249" t="n">
-        <v>128.8184051513672</v>
+        <v>192.4198303222656</v>
       </c>
       <c r="G249" t="n">
-        <v>69007800</v>
+        <v>48087700</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44923</v>
+        <v>45288</v>
       </c>
       <c r="B250" t="n">
-        <v>129.6699981689453</v>
+        <v>194.1399993896484</v>
       </c>
       <c r="C250" t="n">
-        <v>131.0299987792969</v>
+        <v>194.6600036621094</v>
       </c>
       <c r="D250" t="n">
-        <v>125.870002746582</v>
+        <v>193.1699981689453</v>
       </c>
       <c r="E250" t="n">
-        <v>126.0400009155273</v>
+        <v>193.5800018310547</v>
       </c>
       <c r="F250" t="n">
-        <v>124.865592956543</v>
+        <v>192.8482208251953</v>
       </c>
       <c r="G250" t="n">
-        <v>85438400</v>
+        <v>34049900</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44924</v>
+        <v>45289</v>
       </c>
       <c r="B251" t="n">
-        <v>127.9899978637695</v>
+        <v>193.8999938964844</v>
       </c>
       <c r="C251" t="n">
-        <v>130.4799957275391</v>
+        <v>194.3999938964844</v>
       </c>
       <c r="D251" t="n">
-        <v>127.7300033569336</v>
+        <v>191.7299957275391</v>
       </c>
       <c r="E251" t="n">
-        <v>129.6100006103516</v>
+        <v>192.5299987792969</v>
       </c>
       <c r="F251" t="n">
-        <v>128.40234375</v>
+        <v>191.8021850585938</v>
       </c>
       <c r="G251" t="n">
-        <v>75703700</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
-        <v>44925</v>
-      </c>
-      <c r="B252" t="n">
-        <v>128.4100036621094</v>
-      </c>
-      <c r="C252" t="n">
-        <v>129.9499969482422</v>
-      </c>
-      <c r="D252" t="n">
-        <v>127.4300003051758</v>
-      </c>
-      <c r="E252" t="n">
-        <v>129.9299926757812</v>
-      </c>
-      <c r="F252" t="n">
-        <v>128.7193298339844</v>
-      </c>
-      <c r="G252" t="n">
-        <v>77034200</v>
+        <v>42628800</v>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis/Stock_Historical_Data.xlsx
+++ b/technical_analysis/Stock_Historical_Data.xlsx
@@ -516,7 +516,7 @@
         <v>126.3600006103516</v>
       </c>
       <c r="F3" t="n">
-        <v>125.1826095581055</v>
+        <v>125.1826019287109</v>
       </c>
       <c r="G3" t="n">
         <v>89113600</v>
@@ -585,7 +585,7 @@
         <v>130.1499938964844</v>
       </c>
       <c r="F6" t="n">
-        <v>128.9373016357422</v>
+        <v>128.9372863769531</v>
       </c>
       <c r="G6" t="n">
         <v>70790800</v>
@@ -608,7 +608,7 @@
         <v>130.7299957275391</v>
       </c>
       <c r="F7" t="n">
-        <v>129.5118865966797</v>
+        <v>129.5118713378906</v>
       </c>
       <c r="G7" t="n">
         <v>63896200</v>
@@ -631,7 +631,7 @@
         <v>133.4900054931641</v>
       </c>
       <c r="F8" t="n">
-        <v>132.2461853027344</v>
+        <v>132.2461700439453</v>
       </c>
       <c r="G8" t="n">
         <v>69458900</v>
@@ -654,7 +654,7 @@
         <v>133.4100036621094</v>
       </c>
       <c r="F9" t="n">
-        <v>132.1669311523438</v>
+        <v>132.1669158935547</v>
       </c>
       <c r="G9" t="n">
         <v>71379600</v>
@@ -677,7 +677,7 @@
         <v>134.7599945068359</v>
       </c>
       <c r="F10" t="n">
-        <v>133.5043334960938</v>
+        <v>133.5043487548828</v>
       </c>
       <c r="G10" t="n">
         <v>57809700</v>
@@ -723,7 +723,7 @@
         <v>135.2100067138672</v>
       </c>
       <c r="F12" t="n">
-        <v>133.9501342773438</v>
+        <v>133.9501647949219</v>
       </c>
       <c r="G12" t="n">
         <v>69672800</v>
@@ -746,7 +746,7 @@
         <v>135.2700042724609</v>
       </c>
       <c r="F13" t="n">
-        <v>134.0095825195312</v>
+        <v>134.0096130371094</v>
       </c>
       <c r="G13" t="n">
         <v>58280400</v>
@@ -769,7 +769,7 @@
         <v>137.8699951171875</v>
       </c>
       <c r="F14" t="n">
-        <v>136.5853424072266</v>
+        <v>136.5853576660156</v>
       </c>
       <c r="G14" t="n">
         <v>80223600</v>
@@ -792,7 +792,7 @@
         <v>141.1100006103516</v>
       </c>
       <c r="F15" t="n">
-        <v>139.7951965332031</v>
+        <v>139.795166015625</v>
       </c>
       <c r="G15" t="n">
         <v>81760300</v>
@@ -861,7 +861,7 @@
         <v>143.9600067138672</v>
       </c>
       <c r="F18" t="n">
-        <v>142.6186370849609</v>
+        <v>142.6186218261719</v>
       </c>
       <c r="G18" t="n">
         <v>54105100</v>
@@ -884,7 +884,7 @@
         <v>145.9299926757812</v>
       </c>
       <c r="F19" t="n">
-        <v>144.5702362060547</v>
+        <v>144.5702514648438</v>
       </c>
       <c r="G19" t="n">
         <v>70555800</v>
@@ -907,7 +907,7 @@
         <v>143</v>
       </c>
       <c r="F20" t="n">
-        <v>141.6675567626953</v>
+        <v>141.6675720214844</v>
       </c>
       <c r="G20" t="n">
         <v>64015300</v>
@@ -930,7 +930,7 @@
         <v>144.2899932861328</v>
       </c>
       <c r="F21" t="n">
-        <v>142.9455413818359</v>
+        <v>142.9455261230469</v>
       </c>
       <c r="G21" t="n">
         <v>65874500</v>
@@ -953,7 +953,7 @@
         <v>145.4299926757812</v>
       </c>
       <c r="F22" t="n">
-        <v>144.0749053955078</v>
+        <v>144.0749206542969</v>
       </c>
       <c r="G22" t="n">
         <v>77663600</v>
@@ -1022,7 +1022,7 @@
         <v>151.7299957275391</v>
       </c>
       <c r="F25" t="n">
-        <v>150.3162231445312</v>
+        <v>150.3162078857422</v>
       </c>
       <c r="G25" t="n">
         <v>69858300</v>
@@ -1045,7 +1045,7 @@
         <v>154.6499938964844</v>
       </c>
       <c r="F26" t="n">
-        <v>153.2089996337891</v>
+        <v>153.2090148925781</v>
       </c>
       <c r="G26" t="n">
         <v>83322600</v>
@@ -1068,7 +1068,7 @@
         <v>151.9199981689453</v>
       </c>
       <c r="F27" t="n">
-        <v>150.5044555664062</v>
+        <v>150.5044250488281</v>
       </c>
       <c r="G27" t="n">
         <v>64120100</v>
@@ -1091,7 +1091,7 @@
         <v>150.8699951171875</v>
       </c>
       <c r="F28" t="n">
-        <v>149.4642181396484</v>
+        <v>149.4642028808594</v>
       </c>
       <c r="G28" t="n">
         <v>56007100</v>
@@ -1114,7 +1114,7 @@
         <v>151.0099945068359</v>
       </c>
       <c r="F29" t="n">
-        <v>149.8313598632812</v>
+        <v>149.8313446044922</v>
       </c>
       <c r="G29" t="n">
         <v>57450700</v>
@@ -1160,7 +1160,7 @@
         <v>153.1999969482422</v>
       </c>
       <c r="F31" t="n">
-        <v>152.0042419433594</v>
+        <v>152.0042572021484</v>
       </c>
       <c r="G31" t="n">
         <v>61707600</v>
@@ -1183,7 +1183,7 @@
         <v>155.3300018310547</v>
       </c>
       <c r="F32" t="n">
-        <v>154.1175994873047</v>
+        <v>154.1176300048828</v>
       </c>
       <c r="G32" t="n">
         <v>65573800</v>
@@ -1252,7 +1252,7 @@
         <v>148.4799957275391</v>
       </c>
       <c r="F35" t="n">
-        <v>147.3210906982422</v>
+        <v>147.3211059570312</v>
       </c>
       <c r="G35" t="n">
         <v>58867200</v>
@@ -1275,7 +1275,7 @@
         <v>148.9100036621094</v>
       </c>
       <c r="F36" t="n">
-        <v>147.7477569580078</v>
+        <v>147.7477264404297</v>
       </c>
       <c r="G36" t="n">
         <v>51011300</v>
@@ -1298,7 +1298,7 @@
         <v>149.3999938964844</v>
       </c>
       <c r="F37" t="n">
-        <v>148.2339172363281</v>
+        <v>148.23388671875</v>
       </c>
       <c r="G37" t="n">
         <v>48394200</v>
@@ -1344,7 +1344,7 @@
         <v>147.9199981689453</v>
       </c>
       <c r="F39" t="n">
-        <v>146.7654571533203</v>
+        <v>146.7654418945312</v>
       </c>
       <c r="G39" t="n">
         <v>44998500</v>
@@ -1390,7 +1390,7 @@
         <v>145.3099975585938</v>
       </c>
       <c r="F41" t="n">
-        <v>144.1758270263672</v>
+        <v>144.1758422851562</v>
       </c>
       <c r="G41" t="n">
         <v>55479000</v>
@@ -1413,7 +1413,7 @@
         <v>145.9100036621094</v>
       </c>
       <c r="F42" t="n">
-        <v>144.7711639404297</v>
+        <v>144.7711486816406</v>
       </c>
       <c r="G42" t="n">
         <v>52238100</v>
@@ -1436,7 +1436,7 @@
         <v>151.0299987792969</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8511962890625</v>
+        <v>149.8511810302734</v>
       </c>
       <c r="G43" t="n">
         <v>70732300</v>
@@ -1482,7 +1482,7 @@
         <v>151.6000061035156</v>
       </c>
       <c r="F45" t="n">
-        <v>150.4167327880859</v>
+        <v>150.4167633056641</v>
       </c>
       <c r="G45" t="n">
         <v>56182000</v>
@@ -1574,7 +1574,7 @@
         <v>150.4700012207031</v>
       </c>
       <c r="F49" t="n">
-        <v>149.2955474853516</v>
+        <v>149.2955780029297</v>
       </c>
       <c r="G49" t="n">
         <v>84457100</v>
@@ -1643,7 +1643,7 @@
         <v>155.8500061035156</v>
       </c>
       <c r="F52" t="n">
-        <v>154.6335906982422</v>
+        <v>154.6335754394531</v>
       </c>
       <c r="G52" t="n">
         <v>76161100</v>
@@ -1735,7 +1735,7 @@
         <v>157.8300018310547</v>
       </c>
       <c r="F56" t="n">
-        <v>156.5981140136719</v>
+        <v>156.5980987548828</v>
       </c>
       <c r="G56" t="n">
         <v>75701800</v>
@@ -1758,7 +1758,7 @@
         <v>158.9299926757812</v>
       </c>
       <c r="F57" t="n">
-        <v>157.6895141601562</v>
+        <v>157.6895294189453</v>
       </c>
       <c r="G57" t="n">
         <v>67622100</v>
@@ -1827,7 +1827,7 @@
         <v>157.6499938964844</v>
       </c>
       <c r="F60" t="n">
-        <v>156.4195098876953</v>
+        <v>156.4195251464844</v>
       </c>
       <c r="G60" t="n">
         <v>45992200</v>
@@ -1850,7 +1850,7 @@
         <v>160.7700042724609</v>
       </c>
       <c r="F61" t="n">
-        <v>159.5151824951172</v>
+        <v>159.5151672363281</v>
       </c>
       <c r="G61" t="n">
         <v>51305700</v>
@@ -1896,7 +1896,7 @@
         <v>164.8999938964844</v>
       </c>
       <c r="F63" t="n">
-        <v>163.6129150390625</v>
+        <v>163.6129302978516</v>
       </c>
       <c r="G63" t="n">
         <v>68749800</v>
@@ -1919,7 +1919,7 @@
         <v>166.1699981689453</v>
       </c>
       <c r="F64" t="n">
-        <v>164.8730163574219</v>
+        <v>164.8730010986328</v>
       </c>
       <c r="G64" t="n">
         <v>56976200</v>
@@ -1988,7 +1988,7 @@
         <v>164.6600036621094</v>
       </c>
       <c r="F67" t="n">
-        <v>163.3748168945312</v>
+        <v>163.3748321533203</v>
       </c>
       <c r="G67" t="n">
         <v>45390100</v>
@@ -2011,7 +2011,7 @@
         <v>162.0299987792969</v>
       </c>
       <c r="F68" t="n">
-        <v>160.7653503417969</v>
+        <v>160.7653198242188</v>
       </c>
       <c r="G68" t="n">
         <v>47716900</v>
@@ -2057,7 +2057,7 @@
         <v>160.1000061035156</v>
       </c>
       <c r="F70" t="n">
-        <v>158.8504180908203</v>
+        <v>158.8504028320312</v>
       </c>
       <c r="G70" t="n">
         <v>50133100</v>
@@ -2080,7 +2080,7 @@
         <v>165.5599975585938</v>
       </c>
       <c r="F71" t="n">
-        <v>164.2677612304688</v>
+        <v>164.2677764892578</v>
       </c>
       <c r="G71" t="n">
         <v>68445600</v>
@@ -2126,7 +2126,7 @@
         <v>165.2299957275391</v>
       </c>
       <c r="F73" t="n">
-        <v>163.9403533935547</v>
+        <v>163.9403381347656</v>
       </c>
       <c r="G73" t="n">
         <v>41516200</v>
@@ -2172,7 +2172,7 @@
         <v>167.6300048828125</v>
       </c>
       <c r="F75" t="n">
-        <v>166.3216552734375</v>
+        <v>166.3216400146484</v>
       </c>
       <c r="G75" t="n">
         <v>47720200</v>
@@ -2218,7 +2218,7 @@
         <v>165.0200042724609</v>
       </c>
       <c r="F77" t="n">
-        <v>163.7320098876953</v>
+        <v>163.7319946289062</v>
       </c>
       <c r="G77" t="n">
         <v>58337300</v>
@@ -2264,7 +2264,7 @@
         <v>163.7700042724609</v>
       </c>
       <c r="F79" t="n">
-        <v>162.4917449951172</v>
+        <v>162.4917602539062</v>
       </c>
       <c r="G79" t="n">
         <v>48714100</v>
@@ -2310,7 +2310,7 @@
         <v>168.4100036621094</v>
       </c>
       <c r="F81" t="n">
-        <v>167.0955505371094</v>
+        <v>167.0955352783203</v>
       </c>
       <c r="G81" t="n">
         <v>64902300</v>
@@ -2356,7 +2356,7 @@
         <v>169.5899963378906</v>
       </c>
       <c r="F83" t="n">
-        <v>168.2663269042969</v>
+        <v>168.2663421630859</v>
       </c>
       <c r="G83" t="n">
         <v>52472900</v>
@@ -2379,7 +2379,7 @@
         <v>168.5399932861328</v>
       </c>
       <c r="F84" t="n">
-        <v>167.2245025634766</v>
+        <v>167.2245178222656</v>
       </c>
       <c r="G84" t="n">
         <v>48425700</v>
@@ -2402,7 +2402,7 @@
         <v>167.4499969482422</v>
       </c>
       <c r="F85" t="n">
-        <v>166.1430206298828</v>
+        <v>166.1430358886719</v>
       </c>
       <c r="G85" t="n">
         <v>65136000</v>
@@ -2425,7 +2425,7 @@
         <v>165.7899932861328</v>
       </c>
       <c r="F86" t="n">
-        <v>164.4959716796875</v>
+        <v>164.4959869384766</v>
       </c>
       <c r="G86" t="n">
         <v>81235400</v>
@@ -2448,7 +2448,7 @@
         <v>173.5700073242188</v>
       </c>
       <c r="F87" t="n">
-        <v>172.2152862548828</v>
+        <v>172.2152557373047</v>
       </c>
       <c r="G87" t="n">
         <v>113316400</v>
@@ -2471,7 +2471,7 @@
         <v>173.5</v>
       </c>
       <c r="F88" t="n">
-        <v>172.1458129882812</v>
+        <v>172.1457977294922</v>
       </c>
       <c r="G88" t="n">
         <v>55962800</v>
@@ -2494,7 +2494,7 @@
         <v>171.7700042724609</v>
       </c>
       <c r="F89" t="n">
-        <v>170.4293365478516</v>
+        <v>170.4293212890625</v>
       </c>
       <c r="G89" t="n">
         <v>45326900</v>
@@ -2517,7 +2517,7 @@
         <v>173.5599975585938</v>
       </c>
       <c r="F90" t="n">
-        <v>172.2053527832031</v>
+        <v>172.2053375244141</v>
       </c>
       <c r="G90" t="n">
         <v>53724500</v>
@@ -2540,7 +2540,7 @@
         <v>173.75</v>
       </c>
       <c r="F91" t="n">
-        <v>172.3938598632812</v>
+        <v>172.3938446044922</v>
       </c>
       <c r="G91" t="n">
         <v>49514700</v>
@@ -2563,7 +2563,7 @@
         <v>172.5700073242188</v>
       </c>
       <c r="F92" t="n">
-        <v>171.4599151611328</v>
+        <v>171.4598999023438</v>
       </c>
       <c r="G92" t="n">
         <v>45497800</v>
@@ -2632,7 +2632,7 @@
         <v>172.6900024414062</v>
       </c>
       <c r="F95" t="n">
-        <v>171.5791320800781</v>
+        <v>171.5791473388672</v>
       </c>
       <c r="G95" t="n">
         <v>57951600</v>
@@ -2655,7 +2655,7 @@
         <v>175.0500030517578</v>
       </c>
       <c r="F96" t="n">
-        <v>173.9239654541016</v>
+        <v>173.9239349365234</v>
       </c>
       <c r="G96" t="n">
         <v>65496700</v>
@@ -2678,7 +2678,7 @@
         <v>175.1600036621094</v>
       </c>
       <c r="F97" t="n">
-        <v>174.0332641601562</v>
+        <v>174.0332489013672</v>
       </c>
       <c r="G97" t="n">
         <v>55772400</v>
@@ -2724,7 +2724,7 @@
         <v>171.5599975585938</v>
       </c>
       <c r="F99" t="n">
-        <v>170.4564056396484</v>
+        <v>170.4564208984375</v>
       </c>
       <c r="G99" t="n">
         <v>50747300</v>
@@ -2770,7 +2770,7 @@
         <v>172.9900054931641</v>
       </c>
       <c r="F101" t="n">
-        <v>171.8772125244141</v>
+        <v>171.877197265625</v>
       </c>
       <c r="G101" t="n">
         <v>56058300</v>
@@ -2793,7 +2793,7 @@
         <v>175.4299926757812</v>
       </c>
       <c r="F102" t="n">
-        <v>174.3014831542969</v>
+        <v>174.301513671875</v>
       </c>
       <c r="G102" t="n">
         <v>54835000</v>
@@ -2862,7 +2862,7 @@
         <v>180.0899963378906</v>
       </c>
       <c r="F105" t="n">
-        <v>178.9315185546875</v>
+        <v>178.9315338134766</v>
       </c>
       <c r="G105" t="n">
         <v>68901800</v>
@@ -2885,7 +2885,7 @@
         <v>180.9499969482422</v>
       </c>
       <c r="F106" t="n">
-        <v>179.7859954833984</v>
+        <v>179.7859802246094</v>
       </c>
       <c r="G106" t="n">
         <v>61945900</v>
@@ -2931,7 +2931,7 @@
         <v>179.2100067138672</v>
       </c>
       <c r="F108" t="n">
-        <v>178.0571899414062</v>
+        <v>178.0572052001953</v>
       </c>
       <c r="G108" t="n">
         <v>64848400</v>
@@ -2954,7 +2954,7 @@
         <v>177.8200073242188</v>
       </c>
       <c r="F109" t="n">
-        <v>176.6761322021484</v>
+        <v>176.6761474609375</v>
       </c>
       <c r="G109" t="n">
         <v>61944600</v>
@@ -2977,7 +2977,7 @@
         <v>180.5700073242188</v>
       </c>
       <c r="F110" t="n">
-        <v>179.4084320068359</v>
+        <v>179.408447265625</v>
       </c>
       <c r="G110" t="n">
         <v>50214900</v>
@@ -3023,7 +3023,7 @@
         <v>183.7899932861328</v>
       </c>
       <c r="F112" t="n">
-        <v>182.6077117919922</v>
+        <v>182.6077270507812</v>
       </c>
       <c r="G112" t="n">
         <v>54274900</v>
@@ -3046,7 +3046,7 @@
         <v>183.3099975585938</v>
       </c>
       <c r="F113" t="n">
-        <v>182.1308135986328</v>
+        <v>182.1307983398438</v>
       </c>
       <c r="G113" t="n">
         <v>54929100</v>
@@ -3069,7 +3069,7 @@
         <v>183.9499969482422</v>
       </c>
       <c r="F114" t="n">
-        <v>182.7666931152344</v>
+        <v>182.7667083740234</v>
       </c>
       <c r="G114" t="n">
         <v>57462900</v>
@@ -3092,7 +3092,7 @@
         <v>186.0099945068359</v>
       </c>
       <c r="F115" t="n">
-        <v>184.8134460449219</v>
+        <v>184.8134307861328</v>
       </c>
       <c r="G115" t="n">
         <v>65433200</v>
@@ -3115,7 +3115,7 @@
         <v>184.9199981689453</v>
       </c>
       <c r="F116" t="n">
-        <v>183.7304382324219</v>
+        <v>183.73046875</v>
       </c>
       <c r="G116" t="n">
         <v>101235600</v>
@@ -3138,7 +3138,7 @@
         <v>185.0099945068359</v>
       </c>
       <c r="F117" t="n">
-        <v>183.8198699951172</v>
+        <v>183.8198852539062</v>
       </c>
       <c r="G117" t="n">
         <v>49799100</v>
@@ -3184,7 +3184,7 @@
         <v>187</v>
       </c>
       <c r="F119" t="n">
-        <v>185.7970886230469</v>
+        <v>185.7970733642578</v>
       </c>
       <c r="G119" t="n">
         <v>51245300</v>
@@ -3276,7 +3276,7 @@
         <v>189.25</v>
       </c>
       <c r="F123" t="n">
-        <v>188.0326080322266</v>
+        <v>188.0325927734375</v>
       </c>
       <c r="G123" t="n">
         <v>51216800</v>
@@ -3322,7 +3322,7 @@
         <v>193.9700012207031</v>
       </c>
       <c r="F125" t="n">
-        <v>192.7222595214844</v>
+        <v>192.7222290039062</v>
       </c>
       <c r="G125" t="n">
         <v>85069600</v>
@@ -3345,7 +3345,7 @@
         <v>192.4600067138672</v>
       </c>
       <c r="F126" t="n">
-        <v>191.2219543457031</v>
+        <v>191.2219696044922</v>
       </c>
       <c r="G126" t="n">
         <v>31458200</v>
@@ -3391,7 +3391,7 @@
         <v>191.8099975585938</v>
       </c>
       <c r="F128" t="n">
-        <v>190.5761260986328</v>
+        <v>190.5761413574219</v>
       </c>
       <c r="G128" t="n">
         <v>45094300</v>
@@ -3414,7 +3414,7 @@
         <v>190.6799926757812</v>
       </c>
       <c r="F129" t="n">
-        <v>189.4533996582031</v>
+        <v>189.4534149169922</v>
       </c>
       <c r="G129" t="n">
         <v>46778000</v>
@@ -3460,7 +3460,7 @@
         <v>188.0800018310547</v>
       </c>
       <c r="F131" t="n">
-        <v>186.8701477050781</v>
+        <v>186.8701324462891</v>
       </c>
       <c r="G131" t="n">
         <v>46638100</v>
@@ -3483,7 +3483,7 @@
         <v>189.7700042724609</v>
       </c>
       <c r="F132" t="n">
-        <v>188.5492553710938</v>
+        <v>188.5492706298828</v>
       </c>
       <c r="G132" t="n">
         <v>60750200</v>
@@ -3506,7 +3506,7 @@
         <v>190.5399932861328</v>
       </c>
       <c r="F133" t="n">
-        <v>189.3142852783203</v>
+        <v>189.3143005371094</v>
       </c>
       <c r="G133" t="n">
         <v>41342300</v>
@@ -3529,7 +3529,7 @@
         <v>190.6900024414062</v>
       </c>
       <c r="F134" t="n">
-        <v>189.4633331298828</v>
+        <v>189.4633483886719</v>
       </c>
       <c r="G134" t="n">
         <v>41573900</v>
@@ -3552,7 +3552,7 @@
         <v>193.9900054931641</v>
       </c>
       <c r="F135" t="n">
-        <v>192.7421264648438</v>
+        <v>192.7421112060547</v>
       </c>
       <c r="G135" t="n">
         <v>50520200</v>
@@ -3575,7 +3575,7 @@
         <v>193.7299957275391</v>
       </c>
       <c r="F136" t="n">
-        <v>192.4837646484375</v>
+        <v>192.4837799072266</v>
       </c>
       <c r="G136" t="n">
         <v>48353800</v>
@@ -3598,7 +3598,7 @@
         <v>195.1000061035156</v>
       </c>
       <c r="F137" t="n">
-        <v>193.8449859619141</v>
+        <v>193.8449554443359</v>
       </c>
       <c r="G137" t="n">
         <v>80507300</v>
@@ -3621,7 +3621,7 @@
         <v>193.1300048828125</v>
       </c>
       <c r="F138" t="n">
-        <v>191.8876495361328</v>
+        <v>191.8876342773438</v>
       </c>
       <c r="G138" t="n">
         <v>59581200</v>
@@ -3644,7 +3644,7 @@
         <v>191.9400024414062</v>
       </c>
       <c r="F139" t="n">
-        <v>190.7053070068359</v>
+        <v>190.7052917480469</v>
       </c>
       <c r="G139" t="n">
         <v>71917800</v>
@@ -3667,7 +3667,7 @@
         <v>192.75</v>
       </c>
       <c r="F140" t="n">
-        <v>191.5100860595703</v>
+        <v>191.5101013183594</v>
       </c>
       <c r="G140" t="n">
         <v>45377800</v>
@@ -3690,7 +3690,7 @@
         <v>193.6199951171875</v>
       </c>
       <c r="F141" t="n">
-        <v>192.37451171875</v>
+        <v>192.3744659423828</v>
       </c>
       <c r="G141" t="n">
         <v>37283200</v>
@@ -3713,7 +3713,7 @@
         <v>194.5</v>
       </c>
       <c r="F142" t="n">
-        <v>193.2488250732422</v>
+        <v>193.2488403320312</v>
       </c>
       <c r="G142" t="n">
         <v>47471900</v>
@@ -3736,7 +3736,7 @@
         <v>193.2200012207031</v>
       </c>
       <c r="F143" t="n">
-        <v>191.9770660400391</v>
+        <v>191.9770812988281</v>
       </c>
       <c r="G143" t="n">
         <v>47460200</v>
@@ -3759,7 +3759,7 @@
         <v>195.8300018310547</v>
       </c>
       <c r="F144" t="n">
-        <v>194.5702972412109</v>
+        <v>194.5702819824219</v>
       </c>
       <c r="G144" t="n">
         <v>48291400</v>
@@ -3805,7 +3805,7 @@
         <v>195.6100006103516</v>
       </c>
       <c r="F146" t="n">
-        <v>194.3516845703125</v>
+        <v>194.3516998291016</v>
       </c>
       <c r="G146" t="n">
         <v>35175100</v>
@@ -3828,7 +3828,7 @@
         <v>192.5800018310547</v>
       </c>
       <c r="F147" t="n">
-        <v>191.3411712646484</v>
+        <v>191.3412017822266</v>
       </c>
       <c r="G147" t="n">
         <v>50389300</v>
@@ -3851,7 +3851,7 @@
         <v>191.1699981689453</v>
       </c>
       <c r="F148" t="n">
-        <v>189.9402465820312</v>
+        <v>189.9402618408203</v>
       </c>
       <c r="G148" t="n">
         <v>61235200</v>
@@ -3897,7 +3897,7 @@
         <v>178.8500061035156</v>
       </c>
       <c r="F150" t="n">
-        <v>177.6995086669922</v>
+        <v>177.6994934082031</v>
       </c>
       <c r="G150" t="n">
         <v>97576100</v>
@@ -3920,7 +3920,7 @@
         <v>179.8000030517578</v>
       </c>
       <c r="F151" t="n">
-        <v>178.6433715820312</v>
+        <v>178.6433868408203</v>
       </c>
       <c r="G151" t="n">
         <v>67823000</v>
@@ -3943,7 +3943,7 @@
         <v>178.1900024414062</v>
       </c>
       <c r="F152" t="n">
-        <v>177.0437469482422</v>
+        <v>177.0437622070312</v>
       </c>
       <c r="G152" t="n">
         <v>60378500</v>
@@ -3966,7 +3966,7 @@
         <v>177.9700012207031</v>
       </c>
       <c r="F153" t="n">
-        <v>176.8251647949219</v>
+        <v>176.8251495361328</v>
       </c>
       <c r="G153" t="n">
         <v>54686900</v>
@@ -3989,7 +3989,7 @@
         <v>177.7899932861328</v>
       </c>
       <c r="F154" t="n">
-        <v>176.8848724365234</v>
+        <v>176.8848571777344</v>
       </c>
       <c r="G154" t="n">
         <v>51988100</v>
@@ -4012,7 +4012,7 @@
         <v>179.4600067138672</v>
       </c>
       <c r="F155" t="n">
-        <v>178.5463714599609</v>
+        <v>178.5463562011719</v>
       </c>
       <c r="G155" t="n">
         <v>43675600</v>
@@ -4035,7 +4035,7 @@
         <v>177.4499969482422</v>
       </c>
       <c r="F156" t="n">
-        <v>176.5465850830078</v>
+        <v>176.5466003417969</v>
       </c>
       <c r="G156" t="n">
         <v>43622600</v>
@@ -4081,7 +4081,7 @@
         <v>174</v>
       </c>
       <c r="F158" t="n">
-        <v>173.1141662597656</v>
+        <v>173.1141510009766</v>
       </c>
       <c r="G158" t="n">
         <v>66062900</v>
@@ -4127,7 +4127,7 @@
         <v>175.8399963378906</v>
       </c>
       <c r="F160" t="n">
-        <v>174.9447784423828</v>
+        <v>174.9447937011719</v>
       </c>
       <c r="G160" t="n">
         <v>46311900</v>
@@ -4150,7 +4150,7 @@
         <v>177.2299957275391</v>
       </c>
       <c r="F161" t="n">
-        <v>176.3276977539062</v>
+        <v>176.3277130126953</v>
       </c>
       <c r="G161" t="n">
         <v>42084200</v>
@@ -4173,7 +4173,7 @@
         <v>181.1199951171875</v>
       </c>
       <c r="F162" t="n">
-        <v>180.1979064941406</v>
+        <v>180.1979217529297</v>
       </c>
       <c r="G162" t="n">
         <v>52722800</v>
@@ -4196,7 +4196,7 @@
         <v>176.3800048828125</v>
       </c>
       <c r="F163" t="n">
-        <v>175.4820251464844</v>
+        <v>175.4820556640625</v>
       </c>
       <c r="G163" t="n">
         <v>54945800</v>
@@ -4334,7 +4334,7 @@
         <v>189.4600067138672</v>
       </c>
       <c r="F169" t="n">
-        <v>188.4954681396484</v>
+        <v>188.4954528808594</v>
       </c>
       <c r="G169" t="n">
         <v>45732600</v>
@@ -4357,7 +4357,7 @@
         <v>189.6999969482422</v>
       </c>
       <c r="F170" t="n">
-        <v>188.7342071533203</v>
+        <v>188.7342376708984</v>
       </c>
       <c r="G170" t="n">
         <v>45280000</v>
@@ -4380,7 +4380,7 @@
         <v>182.9100036621094</v>
       </c>
       <c r="F171" t="n">
-        <v>181.9787902832031</v>
+        <v>181.9788055419922</v>
       </c>
       <c r="G171" t="n">
         <v>81755800</v>
@@ -4403,7 +4403,7 @@
         <v>177.5599975585938</v>
       </c>
       <c r="F172" t="n">
-        <v>176.6560363769531</v>
+        <v>176.656005859375</v>
       </c>
       <c r="G172" t="n">
         <v>112488800</v>
@@ -4449,7 +4449,7 @@
         <v>179.3600006103516</v>
       </c>
       <c r="F174" t="n">
-        <v>178.4468688964844</v>
+        <v>178.4468841552734</v>
       </c>
       <c r="G174" t="n">
         <v>58953100</v>
@@ -4472,7 +4472,7 @@
         <v>176.3000030517578</v>
       </c>
       <c r="F175" t="n">
-        <v>175.4024353027344</v>
+        <v>175.4024505615234</v>
       </c>
       <c r="G175" t="n">
         <v>90370200</v>
@@ -4518,7 +4518,7 @@
         <v>175.7400054931641</v>
       </c>
       <c r="F177" t="n">
-        <v>174.8453216552734</v>
+        <v>174.8453063964844</v>
       </c>
       <c r="G177" t="n">
         <v>60895800</v>
@@ -4541,7 +4541,7 @@
         <v>175.0099945068359</v>
       </c>
       <c r="F178" t="n">
-        <v>174.1190032958984</v>
+        <v>174.1190185546875</v>
       </c>
       <c r="G178" t="n">
         <v>109205100</v>
@@ -4564,7 +4564,7 @@
         <v>177.9700012207031</v>
       </c>
       <c r="F179" t="n">
-        <v>177.0639495849609</v>
+        <v>177.0639343261719</v>
       </c>
       <c r="G179" t="n">
         <v>67257600</v>
@@ -4633,7 +4633,7 @@
         <v>173.9299926757812</v>
       </c>
       <c r="F182" t="n">
-        <v>173.0445098876953</v>
+        <v>173.0444946289062</v>
       </c>
       <c r="G182" t="n">
         <v>63047900</v>
@@ -4656,7 +4656,7 @@
         <v>174.7899932861328</v>
       </c>
       <c r="F183" t="n">
-        <v>173.9001312255859</v>
+        <v>173.9001159667969</v>
       </c>
       <c r="G183" t="n">
         <v>56725400</v>
@@ -4679,7 +4679,7 @@
         <v>176.0800018310547</v>
       </c>
       <c r="F184" t="n">
-        <v>175.1835632324219</v>
+        <v>175.18359375</v>
       </c>
       <c r="G184" t="n">
         <v>46172700</v>
@@ -4702,7 +4702,7 @@
         <v>171.9600067138672</v>
       </c>
       <c r="F185" t="n">
-        <v>171.0845336914062</v>
+        <v>171.0845642089844</v>
       </c>
       <c r="G185" t="n">
         <v>64588900</v>
@@ -4771,7 +4771,7 @@
         <v>171.2100067138672</v>
       </c>
       <c r="F188" t="n">
-        <v>170.33837890625</v>
+        <v>170.3383636474609</v>
       </c>
       <c r="G188" t="n">
         <v>51814200</v>
@@ -4794,7 +4794,7 @@
         <v>173.75</v>
       </c>
       <c r="F189" t="n">
-        <v>172.8654174804688</v>
+        <v>172.8654327392578</v>
       </c>
       <c r="G189" t="n">
         <v>52164500</v>
@@ -4817,7 +4817,7 @@
         <v>172.3999938964844</v>
       </c>
       <c r="F190" t="n">
-        <v>171.5223083496094</v>
+        <v>171.5222930908203</v>
       </c>
       <c r="G190" t="n">
         <v>49594600</v>
@@ -4863,7 +4863,7 @@
         <v>174.9100036621094</v>
       </c>
       <c r="F192" t="n">
-        <v>174.01953125</v>
+        <v>174.0195159912109</v>
       </c>
       <c r="G192" t="n">
         <v>48527900</v>
@@ -4886,7 +4886,7 @@
         <v>177.4900054931641</v>
       </c>
       <c r="F193" t="n">
-        <v>176.5863952636719</v>
+        <v>176.5864105224609</v>
       </c>
       <c r="G193" t="n">
         <v>57224100</v>
@@ -4932,7 +4932,7 @@
         <v>178.3899993896484</v>
       </c>
       <c r="F195" t="n">
-        <v>177.4818115234375</v>
+        <v>177.4817962646484</v>
       </c>
       <c r="G195" t="n">
         <v>43698000</v>
@@ -4955,7 +4955,7 @@
         <v>179.8000030517578</v>
       </c>
       <c r="F196" t="n">
-        <v>178.8846282958984</v>
+        <v>178.8846435546875</v>
       </c>
       <c r="G196" t="n">
         <v>47551100</v>
@@ -4978,7 +4978,7 @@
         <v>180.7100067138672</v>
       </c>
       <c r="F197" t="n">
-        <v>179.7899932861328</v>
+        <v>179.7900085449219</v>
       </c>
       <c r="G197" t="n">
         <v>56743100</v>
@@ -5001,7 +5001,7 @@
         <v>178.8500061035156</v>
       </c>
       <c r="F198" t="n">
-        <v>177.939453125</v>
+        <v>177.9394836425781</v>
       </c>
       <c r="G198" t="n">
         <v>51427100</v>
@@ -5047,7 +5047,7 @@
         <v>177.1499938964844</v>
       </c>
       <c r="F200" t="n">
-        <v>176.2481079101562</v>
+        <v>176.2481231689453</v>
       </c>
       <c r="G200" t="n">
         <v>57549400</v>
@@ -5070,7 +5070,7 @@
         <v>175.8399963378906</v>
       </c>
       <c r="F201" t="n">
-        <v>174.9447784423828</v>
+        <v>174.9447937011719</v>
       </c>
       <c r="G201" t="n">
         <v>54764400</v>
@@ -5093,7 +5093,7 @@
         <v>175.4600067138672</v>
       </c>
       <c r="F202" t="n">
-        <v>174.5667419433594</v>
+        <v>174.5667266845703</v>
       </c>
       <c r="G202" t="n">
         <v>59302900</v>
@@ -5162,7 +5162,7 @@
         <v>173.4400024414062</v>
       </c>
       <c r="F205" t="n">
-        <v>172.5570068359375</v>
+        <v>172.5570220947266</v>
       </c>
       <c r="G205" t="n">
         <v>43816600</v>
@@ -5208,7 +5208,7 @@
         <v>166.8899993896484</v>
       </c>
       <c r="F207" t="n">
-        <v>166.0403594970703</v>
+        <v>166.0403442382812</v>
       </c>
       <c r="G207" t="n">
         <v>70625300</v>
@@ -5277,7 +5277,7 @@
         <v>170.7700042724609</v>
       </c>
       <c r="F210" t="n">
-        <v>169.9006195068359</v>
+        <v>169.9006042480469</v>
       </c>
       <c r="G210" t="n">
         <v>44846000</v>
@@ -5323,7 +5323,7 @@
         <v>177.5700073242188</v>
       </c>
       <c r="F212" t="n">
-        <v>176.6659851074219</v>
+        <v>176.6660003662109</v>
       </c>
       <c r="G212" t="n">
         <v>77334800</v>
@@ -5346,7 +5346,7 @@
         <v>176.6499938964844</v>
       </c>
       <c r="F213" t="n">
-        <v>175.7506713867188</v>
+        <v>175.7506561279297</v>
       </c>
       <c r="G213" t="n">
         <v>79763700</v>
@@ -5369,7 +5369,7 @@
         <v>179.2299957275391</v>
       </c>
       <c r="F214" t="n">
-        <v>178.3175354003906</v>
+        <v>178.3175201416016</v>
       </c>
       <c r="G214" t="n">
         <v>63841300</v>
@@ -5392,7 +5392,7 @@
         <v>181.8200073242188</v>
       </c>
       <c r="F215" t="n">
-        <v>180.8943481445312</v>
+        <v>180.8943786621094</v>
       </c>
       <c r="G215" t="n">
         <v>70530000</v>
@@ -5461,7 +5461,7 @@
         <v>186.3999938964844</v>
       </c>
       <c r="F218" t="n">
-        <v>185.6953582763672</v>
+        <v>185.6953430175781</v>
       </c>
       <c r="G218" t="n">
         <v>66133400</v>
@@ -5576,7 +5576,7 @@
         <v>189.6900024414062</v>
       </c>
       <c r="F223" t="n">
-        <v>188.972900390625</v>
+        <v>188.9729156494141</v>
       </c>
       <c r="G223" t="n">
         <v>50922700</v>
@@ -5622,7 +5622,7 @@
         <v>190.6399993896484</v>
       </c>
       <c r="F225" t="n">
-        <v>189.9193115234375</v>
+        <v>189.9193267822266</v>
       </c>
       <c r="G225" t="n">
         <v>38134500</v>
@@ -5668,7 +5668,7 @@
         <v>189.9700012207031</v>
       </c>
       <c r="F227" t="n">
-        <v>189.2518463134766</v>
+        <v>189.2518615722656</v>
       </c>
       <c r="G227" t="n">
         <v>24048300</v>
@@ -5691,7 +5691,7 @@
         <v>189.7899932861328</v>
       </c>
       <c r="F228" t="n">
-        <v>189.0725250244141</v>
+        <v>189.0725402832031</v>
       </c>
       <c r="G228" t="n">
         <v>40552600</v>
@@ -5714,7 +5714,7 @@
         <v>190.3999938964844</v>
       </c>
       <c r="F229" t="n">
-        <v>189.6802062988281</v>
+        <v>189.6802215576172</v>
       </c>
       <c r="G229" t="n">
         <v>38415400</v>
@@ -5806,7 +5806,7 @@
         <v>189.4299926757812</v>
       </c>
       <c r="F233" t="n">
-        <v>188.7138824462891</v>
+        <v>188.7138977050781</v>
       </c>
       <c r="G233" t="n">
         <v>43389500</v>
@@ -5852,7 +5852,7 @@
         <v>192.3200073242188</v>
       </c>
       <c r="F235" t="n">
-        <v>191.5929718017578</v>
+        <v>191.5929870605469</v>
       </c>
       <c r="G235" t="n">
         <v>41089700</v>
@@ -5967,7 +5967,7 @@
         <v>197.9600067138672</v>
       </c>
       <c r="F240" t="n">
-        <v>197.211669921875</v>
+        <v>197.2116546630859</v>
       </c>
       <c r="G240" t="n">
         <v>70404200</v>
@@ -5990,7 +5990,7 @@
         <v>198.1100006103516</v>
       </c>
       <c r="F241" t="n">
-        <v>197.361083984375</v>
+        <v>197.3610687255859</v>
       </c>
       <c r="G241" t="n">
         <v>66831600</v>
@@ -6220,7 +6220,7 @@
         <v>192.5299987792969</v>
       </c>
       <c r="F251" t="n">
-        <v>191.8021850585938</v>
+        <v>191.8021697998047</v>
       </c>
       <c r="G251" t="n">
         <v>42628800</v>
